--- a/data/hotels_by_city/Houston/Houston_shard_117.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_117.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="455">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -63,6 +63,12 @@
     <t>https://www.tripadvisor.com/Hotel_Review-g56110-d106758-Reviews-Comfort_Suites-La_Porte_Texas.html</t>
   </si>
   <si>
+    <t>84</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
     <t>https://www.orbitz.com/Houston-Hotels-Comfort-Suites-La-Porte.h287581.Hotel-Information</t>
   </si>
   <si>
@@ -139,6 +145,1244 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>08/06/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d106758-r564302328-Comfort_Suites-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>56110</t>
+  </si>
+  <si>
+    <t>106758</t>
+  </si>
+  <si>
+    <t>564302328</t>
+  </si>
+  <si>
+    <t>03/04/2018</t>
+  </si>
+  <si>
+    <t>Cruise to paradise</t>
+  </si>
+  <si>
+    <t>Stayed with another couple prior too going on a cruise 3/4/18. Place was clean. Bed was comfortable as well as room. Front desk lacked information about restaurants in the area, nor, did we find it in the folder marked guest information in the room. Ordered pizza had it delivered. MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>cathy m, General Manager at Comfort Suites, responded to this reviewResponded March 5, 2018</t>
+  </si>
+  <si>
+    <t>Responded March 5, 2018</t>
+  </si>
+  <si>
+    <t>Stayed with another couple prior too going on a cruise 3/4/18. Place was clean. Bed was comfortable as well as room. Front desk lacked information about restaurants in the area, nor, did we find it in the folder marked guest information in the room. Ordered pizza had it delivered. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d106758-r563766679-Comfort_Suites-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>563766679</t>
+  </si>
+  <si>
+    <t>03/02/2018</t>
+  </si>
+  <si>
+    <t>Mardi Gras 2018</t>
+  </si>
+  <si>
+    <t>My husband and i along with our two daughters went to Galveston for  mardi gras.  We decided not to stay in Galveston because the rooms were so expensive and opted to stay here because some friends were staying here as well.   I must say I was a little hesitant, but once we got there, which was after midnight, the front desk guy was great!   Once we got into the room, which was a 2 bedroom suite, we were even more surprised.  It was huge! Large rooms, with full size refrigerator, microwave, and dishwasher.  The only thing i would do is add a TV to the second bedroom.  There were two TVs one in the main room and one in the living room. it was like a mini apartment.   Though the hotel was a little old it was clean .   Breakfast was just ok.  Nothing to brag about but they did have waffles.  Overall i was actually impressed with the accommodations and customer service.     MoreShow less</t>
+  </si>
+  <si>
+    <t>My husband and i along with our two daughters went to Galveston for  mardi gras.  We decided not to stay in Galveston because the rooms were so expensive and opted to stay here because some friends were staying here as well.   I must say I was a little hesitant, but once we got there, which was after midnight, the front desk guy was great!   Once we got into the room, which was a 2 bedroom suite, we were even more surprised.  It was huge! Large rooms, with full size refrigerator, microwave, and dishwasher.  The only thing i would do is add a TV to the second bedroom.  There were two TVs one in the main room and one in the living room. it was like a mini apartment.   Though the hotel was a little old it was clean .   Breakfast was just ok.  Nothing to brag about but they did have waffles.  Overall i was actually impressed with the accommodations and customer service.     More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d106758-r554075024-Comfort_Suites-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>554075024</t>
+  </si>
+  <si>
+    <t>01/15/2018</t>
+  </si>
+  <si>
+    <t>A tired property but with friendly staff.</t>
+  </si>
+  <si>
+    <t>First thing one notices inside the room is that the fit and fixtures are a bit tired and dated, especially in the case of the bathtub (yucky grout).Room is nice enough, and fridge and microwave are plenty large. Surprisingly, there's no bottle opener, and even the front desk had to search a long time to find one - I didn't even try to ask for a wine key - bring your own or buy a screw top, lol.Breakfast is fine. Best part of the property is that if you travel with a large group, there's a nice conference room you can eat and meet in, no charge if it's available. Very nice staff. Price seemed high considering the state of the property, but the other suite hotels were full on these dates so this was OK.Within easy walking distance to the local high school football stadium.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>Cathy Krupski M, General Manager at Comfort Suites, responded to this reviewResponded January 17, 2018</t>
+  </si>
+  <si>
+    <t>Responded January 17, 2018</t>
+  </si>
+  <si>
+    <t>First thing one notices inside the room is that the fit and fixtures are a bit tired and dated, especially in the case of the bathtub (yucky grout).Room is nice enough, and fridge and microwave are plenty large. Surprisingly, there's no bottle opener, and even the front desk had to search a long time to find one - I didn't even try to ask for a wine key - bring your own or buy a screw top, lol.Breakfast is fine. Best part of the property is that if you travel with a large group, there's a nice conference room you can eat and meet in, no charge if it's available. Very nice staff. Price seemed high considering the state of the property, but the other suite hotels were full on these dates so this was OK.Within easy walking distance to the local high school football stadium.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d106758-r516005449-Comfort_Suites-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>516005449</t>
+  </si>
+  <si>
+    <t>08/21/2017</t>
+  </si>
+  <si>
+    <t>COMFORTable!</t>
+  </si>
+  <si>
+    <t>This was one of the nicer Comfort Suites we've visited. Large, clean, quiet, comfortable room with good beds, better than average breakfast, good desk personnel.  Huge, nice lobby, and having laundry on the premises was helpful since we were on a 3 week trip.  The price was low for the good value. Good place to stay to visit San Jacinto Battleground.  A/C provided plenty of cool air. No complaints whatsoever.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t>Cathy Krupski M, General Manager at Comfort Suites, responded to this reviewResponded August 23, 2017</t>
+  </si>
+  <si>
+    <t>Responded August 23, 2017</t>
+  </si>
+  <si>
+    <t>This was one of the nicer Comfort Suites we've visited. Large, clean, quiet, comfortable room with good beds, better than average breakfast, good desk personnel.  Huge, nice lobby, and having laundry on the premises was helpful since we were on a 3 week trip.  The price was low for the good value. Good place to stay to visit San Jacinto Battleground.  A/C provided plenty of cool air. No complaints whatsoever.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d106758-r484727576-Comfort_Suites-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>484727576</t>
+  </si>
+  <si>
+    <t>05/16/2017</t>
+  </si>
+  <si>
+    <t>Overnight Stay</t>
+  </si>
+  <si>
+    <t>Chose this location because it was inexpensive and just needed an overnight stay. The room was nice and very clean. The bed is comfortable and the pillows are great. Staff was friendly, breakfast was hot and fresh.MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>Cathy M, General Manager at Comfort Suites, responded to this reviewResponded May 18, 2017</t>
+  </si>
+  <si>
+    <t>Responded May 18, 2017</t>
+  </si>
+  <si>
+    <t>Chose this location because it was inexpensive and just needed an overnight stay. The room was nice and very clean. The bed is comfortable and the pillows are great. Staff was friendly, breakfast was hot and fresh.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d106758-r471452973-Comfort_Suites-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>471452973</t>
+  </si>
+  <si>
+    <t>03/30/2017</t>
+  </si>
+  <si>
+    <t>Good sleep at Comfort Suites</t>
+  </si>
+  <si>
+    <t>Yes, this place has a year round pool and in La Porte Texas in the spring is wonderful. Good eats at 7-10 and the staff is dedicated to care for guests. Fast check in with a room upgrade was well appreciated. Clean rooms with housekeeping available when needed. No wonder Major Dan will return.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
+    <t>Cathy M, General Manager at Comfort Suites, responded to this reviewResponded April 3, 2017</t>
+  </si>
+  <si>
+    <t>Responded April 3, 2017</t>
+  </si>
+  <si>
+    <t>Yes, this place has a year round pool and in La Porte Texas in the spring is wonderful. Good eats at 7-10 and the staff is dedicated to care for guests. Fast check in with a room upgrade was well appreciated. Clean rooms with housekeeping available when needed. No wonder Major Dan will return.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d106758-r432671297-Comfort_Suites-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>432671297</t>
+  </si>
+  <si>
+    <t>10/29/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pleasant surprise </t>
+  </si>
+  <si>
+    <t>Booked a suite for the night prior to cruise out of Galveston. Room 202 was actually set up for long term stay. So we had a separate living room (with pull-out couch) and 2 separate bedrooms. Hotel showed it's age, but was clean and updated. Breakfast was above average. Eggs, biscuits &amp; gravy, waffles, oatmeal, sausage. Will be staying here again next time we are through town. MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t>Cathy M, General Manager at Comfort Suites, responded to this reviewResponded October 31, 2016</t>
+  </si>
+  <si>
+    <t>Responded October 31, 2016</t>
+  </si>
+  <si>
+    <t>Booked a suite for the night prior to cruise out of Galveston. Room 202 was actually set up for long term stay. So we had a separate living room (with pull-out couch) and 2 separate bedrooms. Hotel showed it's age, but was clean and updated. Breakfast was above average. Eggs, biscuits &amp; gravy, waffles, oatmeal, sausage. Will be staying here again next time we are through town. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d106758-r432525371-Comfort_Suites-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>432525371</t>
+  </si>
+  <si>
+    <t>10/28/2016</t>
+  </si>
+  <si>
+    <t>Mrs Debbie Woolard</t>
+  </si>
+  <si>
+    <t>My friend and I thoroughly enjoyed our stay at the Comfort Suites in La Porte, TX. The rooms were very spacious and the beds were comfortable. The staff was polite and helpful. The buffet breakfast was pretty standard but adequate. The price was the best I found online for a franchise hotel. I would definitely go back and recommend this property. MoreShow less</t>
+  </si>
+  <si>
+    <t>My friend and I thoroughly enjoyed our stay at the Comfort Suites in La Porte, TX. The rooms were very spacious and the beds were comfortable. The staff was polite and helpful. The buffet breakfast was pretty standard but adequate. The price was the best I found online for a franchise hotel. I would definitely go back and recommend this property. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d106758-r427455750-Comfort_Suites-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>427455750</t>
+  </si>
+  <si>
+    <t>10/12/2016</t>
+  </si>
+  <si>
+    <t>Pleasant Surprise</t>
+  </si>
+  <si>
+    <t>We booked here to be visit the San Jacinto Monument and the Battleship Texas.  We found it a very easy and pleasant drive to both of these locations.The approach to the hotel is through a run down neighborhood that had us a bit concerned.  However the hotel was looked very fresh and welcoming inside and out.  The staff was very friendly and helpful.  The open lobby was very attractive and ice cold lemon water was always available.We had booked a room with 2 queen beds but when we walked into our room we found 1 king bed.  As we looked around we saw an open side door into an entire separate bedroom.  We thought this arrangement would have been perfect for families with children or grandparents traveling with children.  The second bedroom had only a bed and dresser but it was its own room with separate air conditioning.  The main bedroom also had a couch which was a pull out bed. There were 2 areas to hang clothes.  Very roomy and will appointed.The bathroom was very big and well lit. We loved the location of the hotel.  Very quiet.  Only 2 blocks from the beach.  Easy access to highways.  We would definitely book again.MoreShow less</t>
+  </si>
+  <si>
+    <t>Cathy M, General Manager at Comfort Suites, responded to this reviewResponded October 14, 2016</t>
+  </si>
+  <si>
+    <t>Responded October 14, 2016</t>
+  </si>
+  <si>
+    <t>We booked here to be visit the San Jacinto Monument and the Battleship Texas.  We found it a very easy and pleasant drive to both of these locations.The approach to the hotel is through a run down neighborhood that had us a bit concerned.  However the hotel was looked very fresh and welcoming inside and out.  The staff was very friendly and helpful.  The open lobby was very attractive and ice cold lemon water was always available.We had booked a room with 2 queen beds but when we walked into our room we found 1 king bed.  As we looked around we saw an open side door into an entire separate bedroom.  We thought this arrangement would have been perfect for families with children or grandparents traveling with children.  The second bedroom had only a bed and dresser but it was its own room with separate air conditioning.  The main bedroom also had a couch which was a pull out bed. There were 2 areas to hang clothes.  Very roomy and will appointed.The bathroom was very big and well lit. We loved the location of the hotel.  Very quiet.  Only 2 blocks from the beach.  Easy access to highways.  We would definitely book again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d106758-r415091897-Comfort_Suites-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>415091897</t>
+  </si>
+  <si>
+    <t>09/05/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Great.. </t>
+  </si>
+  <si>
+    <t>This hotel was great. It was clean,  breakfast was ok, the pool needed some attention,  but overall we enjoyed our stay.  The staff were very nice and accommodating. We have stayed in another one across the highway,  and not as nice.  This was fit our family perfectly.  Great location. MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2016</t>
+  </si>
+  <si>
+    <t>Cathy Krupski M, General Manager at Comfort Suites, responded to this reviewResponded September 7, 2016</t>
+  </si>
+  <si>
+    <t>Responded September 7, 2016</t>
+  </si>
+  <si>
+    <t>This hotel was great. It was clean,  breakfast was ok, the pool needed some attention,  but overall we enjoyed our stay.  The staff were very nice and accommodating. We have stayed in another one across the highway,  and not as nice.  This was fit our family perfectly.  Great location. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d106758-r396917237-Comfort_Suites-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>396917237</t>
+  </si>
+  <si>
+    <t>07/25/2016</t>
+  </si>
+  <si>
+    <t>Clean &amp; Comfortable</t>
+  </si>
+  <si>
+    <t>The room was a good, large room with a comfortable kingsize bed. The bathroom is also larger than most hotel bathrooms. Plenty of room to spread out luggage &amp; people. The rate was terrific and came with breakfast. Not only was there coffee service but a microwave oven &amp; small refrigerator.MoreShow less</t>
+  </si>
+  <si>
+    <t>The room was a good, large room with a comfortable kingsize bed. The bathroom is also larger than most hotel bathrooms. Plenty of room to spread out luggage &amp; people. The rate was terrific and came with breakfast. Not only was there coffee service but a microwave oven &amp; small refrigerator.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d106758-r394838958-Comfort_Suites-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>394838958</t>
+  </si>
+  <si>
+    <t>07/20/2016</t>
+  </si>
+  <si>
+    <t>Weekend getaway!</t>
+  </si>
+  <si>
+    <t>We had a great time at the hotel, it was clean, the beds were comfortable, the staff was very friendly and the size of the rooms was excellent for our stay. I agree the hotel may show some age, but it was VERY clean! A priority for all of us. I have to compliment the lady responsible for the breakfast area, she stayed on it! The food was fresh and she worked to keep it supplied and the tables clean. There are 4 of us that get together on a regular basis and usually stay at a hotel closer to Kemah or Galveston. We made the decision to stay here due to the summer rates at other locations and the ratings from other guests. No doubt, we will be back!MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>Cathy Krupski M, General Manager at Comfort Suites, responded to this reviewResponded July 25, 2016</t>
+  </si>
+  <si>
+    <t>Responded July 25, 2016</t>
+  </si>
+  <si>
+    <t>We had a great time at the hotel, it was clean, the beds were comfortable, the staff was very friendly and the size of the rooms was excellent for our stay. I agree the hotel may show some age, but it was VERY clean! A priority for all of us. I have to compliment the lady responsible for the breakfast area, she stayed on it! The food was fresh and she worked to keep it supplied and the tables clean. There are 4 of us that get together on a regular basis and usually stay at a hotel closer to Kemah or Galveston. We made the decision to stay here due to the summer rates at other locations and the ratings from other guests. No doubt, we will be back!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d106758-r381749161-Comfort_Suites-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>381749161</t>
+  </si>
+  <si>
+    <t>06/11/2016</t>
+  </si>
+  <si>
+    <t>Great place to stay!</t>
+  </si>
+  <si>
+    <t>My family and I were looking for a nice, clean place to stay before we boarded our cruise ship in Galveston a couple of weeks ago.  Hotel prices closer to the port were a little more than we wanted to pay, and the money we saved staying 30 minutes away was well worth the extra few minutes' drive on departure day.  The staff at Comfort Suites was friendly, check in was hassle free, and -- most importantly -- our room was clean and quiet.  The only down side was that our television didn't work, but after being in the car all day and needing to rest, we didn't really mind too much.  Didn't use the pool, but it looked very clean and well maintained. The complementary breakfast was decent, not the best we've had but certainly not the worst either. Overall, would highly recommend this hotel and will plan to stay there again for any future cruises out of Galveston.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2016</t>
+  </si>
+  <si>
+    <t>My family and I were looking for a nice, clean place to stay before we boarded our cruise ship in Galveston a couple of weeks ago.  Hotel prices closer to the port were a little more than we wanted to pay, and the money we saved staying 30 minutes away was well worth the extra few minutes' drive on departure day.  The staff at Comfort Suites was friendly, check in was hassle free, and -- most importantly -- our room was clean and quiet.  The only down side was that our television didn't work, but after being in the car all day and needing to rest, we didn't really mind too much.  Didn't use the pool, but it looked very clean and well maintained. The complementary breakfast was decent, not the best we've had but certainly not the worst either. Overall, would highly recommend this hotel and will plan to stay there again for any future cruises out of Galveston.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d106758-r378459783-Comfort_Suites-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>378459783</t>
+  </si>
+  <si>
+    <t>05/31/2016</t>
+  </si>
+  <si>
+    <t>Late Mother's Day trip for our Moms!</t>
+  </si>
+  <si>
+    <t>My husband and I brought our moms for a late Mother's Day trip. The hotel was very clean and the staff were very friendly. The hot breakfast was awesome. The first morning, there were scrambled eggs, bacon, biscuits, gravy, hashbrowns. yogurt, fruit, cereals, oatmeal, waffles (both plain batter and a maple cinnamon batter) and boiled eggs. The same was out for the next morning, but there was sausage instead of bacon. The lady refilling the breakfast area was very nice. The yogurt was out so we asked if there was anymore. She brought out a bunch of different flavors and stopped at our table for us to pick what we wanted before putting the rest in the cooler. The room was comfortable and smelled very clean. The beds were comfortable and everything in the room worked as expected. Plenty of hot water in the shower and the bathroom was larger than a normal hotel bathroom. Only thing I can say negative about our room is that our second night at the hotel it rained. Well, it stormed. Our window leaked. We could hear it dripping all night long. When we woke up the next morning, the carpet next to the window was soaking wet. We had been out sightseeing that day and we were very tired so we did not ask to change rooms. We will stay here again whenever in the Houston area.MoreShow less</t>
+  </si>
+  <si>
+    <t>Cathy Krupski M, General Manager at Comfort Suites, responded to this reviewResponded June 2, 2016</t>
+  </si>
+  <si>
+    <t>Responded June 2, 2016</t>
+  </si>
+  <si>
+    <t>My husband and I brought our moms for a late Mother's Day trip. The hotel was very clean and the staff were very friendly. The hot breakfast was awesome. The first morning, there were scrambled eggs, bacon, biscuits, gravy, hashbrowns. yogurt, fruit, cereals, oatmeal, waffles (both plain batter and a maple cinnamon batter) and boiled eggs. The same was out for the next morning, but there was sausage instead of bacon. The lady refilling the breakfast area was very nice. The yogurt was out so we asked if there was anymore. She brought out a bunch of different flavors and stopped at our table for us to pick what we wanted before putting the rest in the cooler. The room was comfortable and smelled very clean. The beds were comfortable and everything in the room worked as expected. Plenty of hot water in the shower and the bathroom was larger than a normal hotel bathroom. Only thing I can say negative about our room is that our second night at the hotel it rained. Well, it stormed. Our window leaked. We could hear it dripping all night long. When we woke up the next morning, the carpet next to the window was soaking wet. We had been out sightseeing that day and we were very tired so we did not ask to change rooms. We will stay here again whenever in the Houston area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d106758-r368208220-Comfort_Suites-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>368208220</t>
+  </si>
+  <si>
+    <t>04/27/2016</t>
+  </si>
+  <si>
+    <t>Big rooms, very nice staff.</t>
+  </si>
+  <si>
+    <t>The comfort suites offers large rooms with a sitting area/ sofa bed and one or two main beds.  This is great for a family of 5-6, which we were.  There was ample room for everyone's things as well as plenty of blankets and pillows.  The staff were especially friendly.  Breakfast was not spectacular, but it was more than a grab and go muffin, which was fine with us. Wifi had a good signal. The pool was clean and well kept.  The property does appear to be quite old and some things were in disrepair and the beds were not all that comfortable. For the price we paid and for only 2 nights, it was just fine and close enough to the Kemah attractions.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
+    <t>Cathy5, General Manager at Comfort Suites, responded to this reviewResponded April 29, 2016</t>
+  </si>
+  <si>
+    <t>Responded April 29, 2016</t>
+  </si>
+  <si>
+    <t>The comfort suites offers large rooms with a sitting area/ sofa bed and one or two main beds.  This is great for a family of 5-6, which we were.  There was ample room for everyone's things as well as plenty of blankets and pillows.  The staff were especially friendly.  Breakfast was not spectacular, but it was more than a grab and go muffin, which was fine with us. Wifi had a good signal. The pool was clean and well kept.  The property does appear to be quite old and some things were in disrepair and the beds were not all that comfortable. For the price we paid and for only 2 nights, it was just fine and close enough to the Kemah attractions.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d106758-r358709997-Comfort_Suites-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>358709997</t>
+  </si>
+  <si>
+    <t>03/26/2016</t>
+  </si>
+  <si>
+    <t>Decent, not much more.</t>
+  </si>
+  <si>
+    <t>We checked in around 10pm and check in was easy and fast. The room is large with the couch and bed. It comes with a refrigerator, microwave and coffee which is nice. The carpet could use to be replaced as it looked nasty and dirty as well as torn in multiple places. The shower was lukewarm at best. The big downside is the continental breakfast. We tried twice between 8:30 and 10. Both times, there were empty pans where there should have been biscuits, gravy, eggs and ham. There was one person who seemed to be cooking but obviously not keeping up. Overall, the price was good but the amenities and oldness of the room make it a will not return for us.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
+    <t>Cathy5, General Manager at Comfort Suites, responded to this reviewResponded March 28, 2016</t>
+  </si>
+  <si>
+    <t>Responded March 28, 2016</t>
+  </si>
+  <si>
+    <t>We checked in around 10pm and check in was easy and fast. The room is large with the couch and bed. It comes with a refrigerator, microwave and coffee which is nice. The carpet could use to be replaced as it looked nasty and dirty as well as torn in multiple places. The shower was lukewarm at best. The big downside is the continental breakfast. We tried twice between 8:30 and 10. Both times, there were empty pans where there should have been biscuits, gravy, eggs and ham. There was one person who seemed to be cooking but obviously not keeping up. Overall, the price was good but the amenities and oldness of the room make it a will not return for us.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d106758-r358330915-Comfort_Suites-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>358330915</t>
+  </si>
+  <si>
+    <t>03/24/2016</t>
+  </si>
+  <si>
+    <t>Excellent value; Convenient location; Friendly staff.</t>
+  </si>
+  <si>
+    <t>First and foremost, we were pleasantly surprised with the physical condition of the hotel, as it had been open for close to twenty years when we stayed there in late Feb of 2016.  It was clean and well maintained. The staff was friendly and helpful. The "free breakfast" can sometimes be a let down at hotels of this general size or class, but that was not the case here. It was good.
+The feature that was of the greatest interest to us was that they would allow us to leave our vehicle parked in their lot for free, while we took a seven day cruise out of the Port of Houston.  We always drive down (we live in Dallas) a day in advance of sailing, so that we don't have to rush and so that we don't get delayed by some sort of adverse driving conditions that cause us to miss our ship's departure.  As a result, we're going to spend money on a night's lodging regardless, so being able to leave our vehicle with them for the week -at no additional cost- is a plus.  They don't advertise this "extra" to speak of, so be sure ask about it when you're booking your stay.  (If you book on line, call about this feature as soon as you have a confirmation number in hand.)  They'll put your name in "the book" and you're good-to-go. Turned out that they had a...First and foremost, we were pleasantly surprised with the physical condition of the hotel, as it had been open for close to twenty years when we stayed there in late Feb of 2016.  It was clean and well maintained. The staff was friendly and helpful. The "free breakfast" can sometimes be a let down at hotels of this general size or class, but that was not the case here. It was good.The feature that was of the greatest interest to us was that they would allow us to leave our vehicle parked in their lot for free, while we took a seven day cruise out of the Port of Houston.  We always drive down (we live in Dallas) a day in advance of sailing, so that we don't have to rush and so that we don't get delayed by some sort of adverse driving conditions that cause us to miss our ship's departure.  As a result, we're going to spend money on a night's lodging regardless, so being able to leave our vehicle with them for the week -at no additional cost- is a plus.  They don't advertise this "extra" to speak of, so be sure ask about it when you're booking your stay.  (If you book on line, call about this feature as soon as you have a confirmation number in hand.)  They'll put your name in "the book" and you're good-to-go. Turned out that they had a fair number of  folks availing themselves of this added bonus.While you're in La Porte, take time to visit the San Jacinto Monument, commemorating the defeat of the Mexican army and the birth of the independent Republic of Texas, in April of 1836.  Also nearby is the USS Texas, a retired battleship.  Monument Inn is a great place to enjoy a seafood dinner and it is literally "just around the corner" from the monument...hence its name.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2016</t>
+  </si>
+  <si>
+    <t>Cathy5, General Manager at Comfort Suites, responded to this reviewResponded March 29, 2016</t>
+  </si>
+  <si>
+    <t>Responded March 29, 2016</t>
+  </si>
+  <si>
+    <t>First and foremost, we were pleasantly surprised with the physical condition of the hotel, as it had been open for close to twenty years when we stayed there in late Feb of 2016.  It was clean and well maintained. The staff was friendly and helpful. The "free breakfast" can sometimes be a let down at hotels of this general size or class, but that was not the case here. It was good.
+The feature that was of the greatest interest to us was that they would allow us to leave our vehicle parked in their lot for free, while we took a seven day cruise out of the Port of Houston.  We always drive down (we live in Dallas) a day in advance of sailing, so that we don't have to rush and so that we don't get delayed by some sort of adverse driving conditions that cause us to miss our ship's departure.  As a result, we're going to spend money on a night's lodging regardless, so being able to leave our vehicle with them for the week -at no additional cost- is a plus.  They don't advertise this "extra" to speak of, so be sure ask about it when you're booking your stay.  (If you book on line, call about this feature as soon as you have a confirmation number in hand.)  They'll put your name in "the book" and you're good-to-go. Turned out that they had a...First and foremost, we were pleasantly surprised with the physical condition of the hotel, as it had been open for close to twenty years when we stayed there in late Feb of 2016.  It was clean and well maintained. The staff was friendly and helpful. The "free breakfast" can sometimes be a let down at hotels of this general size or class, but that was not the case here. It was good.The feature that was of the greatest interest to us was that they would allow us to leave our vehicle parked in their lot for free, while we took a seven day cruise out of the Port of Houston.  We always drive down (we live in Dallas) a day in advance of sailing, so that we don't have to rush and so that we don't get delayed by some sort of adverse driving conditions that cause us to miss our ship's departure.  As a result, we're going to spend money on a night's lodging regardless, so being able to leave our vehicle with them for the week -at no additional cost- is a plus.  They don't advertise this "extra" to speak of, so be sure ask about it when you're booking your stay.  (If you book on line, call about this feature as soon as you have a confirmation number in hand.)  They'll put your name in "the book" and you're good-to-go. Turned out that they had a fair number of  folks availing themselves of this added bonus.While you're in La Porte, take time to visit the San Jacinto Monument, commemorating the defeat of the Mexican army and the birth of the independent Republic of Texas, in April of 1836.  Also nearby is the USS Texas, a retired battleship.  Monument Inn is a great place to enjoy a seafood dinner and it is literally "just around the corner" from the monument...hence its name.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d106758-r357004371-Comfort_Suites-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>357004371</t>
+  </si>
+  <si>
+    <t>03/20/2016</t>
+  </si>
+  <si>
+    <t>Decent Hotel in La Porte, Texas</t>
+  </si>
+  <si>
+    <t>This hotel is simple and nice. The rooms were clean with a large bathroom and lots of towels. The bed was very comfortable and the wifi was solid. The room included breakfast in the morning, which was basic but good. Eggs, meats, waffles, fresh fruit, biscuits/gravy, muffins/breads and coffee. All in all we had a good experience here.MoreShow less</t>
+  </si>
+  <si>
+    <t>Cathy5, General Manager at Comfort Suites, responded to this reviewResponded March 21, 2016</t>
+  </si>
+  <si>
+    <t>Responded March 21, 2016</t>
+  </si>
+  <si>
+    <t>This hotel is simple and nice. The rooms were clean with a large bathroom and lots of towels. The bed was very comfortable and the wifi was solid. The room included breakfast in the morning, which was basic but good. Eggs, meats, waffles, fresh fruit, biscuits/gravy, muffins/breads and coffee. All in all we had a good experience here.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d106758-r355407645-Comfort_Suites-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>355407645</t>
+  </si>
+  <si>
+    <t>03/14/2016</t>
+  </si>
+  <si>
+    <t>Another great stay!</t>
+  </si>
+  <si>
+    <t>I was not able to stay over the weekend due to sell out but was able to book for sunday and monday. The staff greeted me like i was important. They ask if they could help with anything.I was able to book my brothers a room on Monday and they enjoy their stay and breakfast.Next time i visit my sister i will no doubt stay here again. They have a very clean hotel and are close to everything that someone needs.MoreShow less</t>
+  </si>
+  <si>
+    <t>Cathy5, General Manager at Comfort Suites, responded to this reviewResponded March 23, 2016</t>
+  </si>
+  <si>
+    <t>Responded March 23, 2016</t>
+  </si>
+  <si>
+    <t>I was not able to stay over the weekend due to sell out but was able to book for sunday and monday. The staff greeted me like i was important. They ask if they could help with anything.I was able to book my brothers a room on Monday and they enjoy their stay and breakfast.Next time i visit my sister i will no doubt stay here again. They have a very clean hotel and are close to everything that someone needs.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d106758-r355062387-Comfort_Suites-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>355062387</t>
+  </si>
+  <si>
+    <t>03/13/2016</t>
+  </si>
+  <si>
+    <t>Good Stay!</t>
+  </si>
+  <si>
+    <t>Nice hotel. Close to Houston &amp; Galveston. Nice beach/park close by. Kroger not far. Some signs of age creeping up. Beds were good. Tile on bathroom floor was cracked &amp; in need of repair. Nice Staff. Would stay again.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d106758-r353885149-Comfort_Suites-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>353885149</t>
+  </si>
+  <si>
+    <t>03/08/2016</t>
+  </si>
+  <si>
+    <t>Nice place at a bargain price</t>
+  </si>
+  <si>
+    <t>Just spent 2 nights at Comfort Suites La Porte, TX before starting a cruise. We were able to leave our car there the whole week we were cruising for no extra cost. That was a great savings! The room was nice, the staff helpful, &amp; the breakfast was good. I'd stay there again.MoreShow less</t>
+  </si>
+  <si>
+    <t>Cathy5, General Manager at Comfort Suites, responded to this reviewResponded March 10, 2016</t>
+  </si>
+  <si>
+    <t>Responded March 10, 2016</t>
+  </si>
+  <si>
+    <t>Just spent 2 nights at Comfort Suites La Porte, TX before starting a cruise. We were able to leave our car there the whole week we were cruising for no extra cost. That was a great savings! The room was nice, the staff helpful, &amp; the breakfast was good. I'd stay there again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d106758-r342355334-Comfort_Suites-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>342355334</t>
+  </si>
+  <si>
+    <t>01/24/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Over night layover before cruise to Mexico </t>
+  </si>
+  <si>
+    <t>Clean comfortable and very affordable. Minutes from the port in Galveston, Texas we stayed the night before our cruise down to Honduras, Belize and Mexico. Full breakfast to hold you over. Marie was our hostess at breakfast and made sure you had what you needed.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2016</t>
+  </si>
+  <si>
+    <t>Cathy5, General Manager at Comfort Suites, responded to this reviewResponded January 26, 2016</t>
+  </si>
+  <si>
+    <t>Responded January 26, 2016</t>
+  </si>
+  <si>
+    <t>Clean comfortable and very affordable. Minutes from the port in Galveston, Texas we stayed the night before our cruise down to Honduras, Belize and Mexico. Full breakfast to hold you over. Marie was our hostess at breakfast and made sure you had what you needed.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d106758-r329999586-Comfort_Suites-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>329999586</t>
+  </si>
+  <si>
+    <t>11/30/2015</t>
+  </si>
+  <si>
+    <t>Great rate and excellent service</t>
+  </si>
+  <si>
+    <t>We read how great the hotel was on trip advisor and decided to stay.I found the front desk very friendly. I got a great rate by calling and asking for the Manager Cathy. They gave me a better rate than any posted price. The room was good ( old decor) but the bed was soft and had plenty of pillows. Tv was old but i okay to watch.The morning breakfeast was awesome with Marie handling everyone like we were the owners. She display great skills and was there to help in any way.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2015</t>
+  </si>
+  <si>
+    <t>Cathy5, General Manager at Comfort Suites, responded to this reviewResponded December 2, 2015</t>
+  </si>
+  <si>
+    <t>Responded December 2, 2015</t>
+  </si>
+  <si>
+    <t>We read how great the hotel was on trip advisor and decided to stay.I found the front desk very friendly. I got a great rate by calling and asking for the Manager Cathy. They gave me a better rate than any posted price. The room was good ( old decor) but the bed was soft and had plenty of pillows. Tv was old but i okay to watch.The morning breakfeast was awesome with Marie handling everyone like we were the owners. She display great skills and was there to help in any way.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d106758-r318812920-Comfort_Suites-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>318812920</t>
+  </si>
+  <si>
+    <t>10/14/2015</t>
+  </si>
+  <si>
+    <t>Not too bad, but out of date.</t>
+  </si>
+  <si>
+    <t>I called the same day as when I wanted to check in.  I spoke with a real wonderful lady named Cathy.  I told her that I and my husband were going to need a room for 1 night, non-smoking and always I wanted to see if they had breakfast.  Ms. Cathy got me a room that was a King sized bed, sofa, fridge and microwave.  She informed me that if I was ready to check in I had a room waiting on me.  I got to the hotel and checked in.  The young guy that checked me in was not professional.  When he asked me for my card he looked at it, I have no idea what he did with my card, but when sufficient time passed I asked him where my card was and he gave it back to me.  Then he didn't give me my key and told me that the wi-fi password was on the card envelope.  I said, "Well that would be nice if I even had my cards!".  He gave me my room cards and I got in the elevator and proceded to floor 2.  I got room 206 directly in front of the elevator.  Fine with me.  As I opened the door and turned all of the lights on, I noticed that the room was clean but out of date compaired to newer hotels.  As always I checked the bed for Bed Bugs, I...I called the same day as when I wanted to check in.  I spoke with a real wonderful lady named Cathy.  I told her that I and my husband were going to need a room for 1 night, non-smoking and always I wanted to see if they had breakfast.  Ms. Cathy got me a room that was a King sized bed, sofa, fridge and microwave.  She informed me that if I was ready to check in I had a room waiting on me.  I got to the hotel and checked in.  The young guy that checked me in was not professional.  When he asked me for my card he looked at it, I have no idea what he did with my card, but when sufficient time passed I asked him where my card was and he gave it back to me.  Then he didn't give me my key and told me that the wi-fi password was on the card envelope.  I said, "Well that would be nice if I even had my cards!".  He gave me my room cards and I got in the elevator and proceded to floor 2.  I got room 206 directly in front of the elevator.  Fine with me.  As I opened the door and turned all of the lights on, I noticed that the room was clean but out of date compaired to newer hotels.  As always I checked the bed for Bed Bugs, I didn't come across any, GREAT! So becides everything being out dated, we had a pretty good room.  This morning, 10/14/15, I went down to breakfast.  I fixed my coffee and my food and ate.  After I got done, since I was not in a rush, I stayed in the breakfast area on my phone talking to my sister.  I noticed something moving out of the corner of my eye, a tiny cockaroach!!!  I jumped up and killed it with my napkin.  And told the breakfast attendant Mary.  She apologized.  In the entire stay I didn't notice anything until breakfast.  It was only 1 roach but it was not an outdoor roach!  I do hope the hotel sprays for this because it's a place that serves food.  The location was not horrible.  It is located right next to some apartments.  Way better than staying in Bay Town.  Not too bad of a price but I had a discount.  I would say if you want to pay more stay at a newer hotel, if it's just one night it's fine, don't book for Honeymoons (not romantic), but is good if you want comfy bed and quiet night rest.  I would recomend this if they can make sure there are no roaches.  One last thing,  GREAT CUSTOMER SREVICE!!!  Except for the young guy.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>Cathy5, General Manager at Comfort Suites, responded to this reviewResponded October 19, 2015</t>
+  </si>
+  <si>
+    <t>Responded October 19, 2015</t>
+  </si>
+  <si>
+    <t>I called the same day as when I wanted to check in.  I spoke with a real wonderful lady named Cathy.  I told her that I and my husband were going to need a room for 1 night, non-smoking and always I wanted to see if they had breakfast.  Ms. Cathy got me a room that was a King sized bed, sofa, fridge and microwave.  She informed me that if I was ready to check in I had a room waiting on me.  I got to the hotel and checked in.  The young guy that checked me in was not professional.  When he asked me for my card he looked at it, I have no idea what he did with my card, but when sufficient time passed I asked him where my card was and he gave it back to me.  Then he didn't give me my key and told me that the wi-fi password was on the card envelope.  I said, "Well that would be nice if I even had my cards!".  He gave me my room cards and I got in the elevator and proceded to floor 2.  I got room 206 directly in front of the elevator.  Fine with me.  As I opened the door and turned all of the lights on, I noticed that the room was clean but out of date compaired to newer hotels.  As always I checked the bed for Bed Bugs, I...I called the same day as when I wanted to check in.  I spoke with a real wonderful lady named Cathy.  I told her that I and my husband were going to need a room for 1 night, non-smoking and always I wanted to see if they had breakfast.  Ms. Cathy got me a room that was a King sized bed, sofa, fridge and microwave.  She informed me that if I was ready to check in I had a room waiting on me.  I got to the hotel and checked in.  The young guy that checked me in was not professional.  When he asked me for my card he looked at it, I have no idea what he did with my card, but when sufficient time passed I asked him where my card was and he gave it back to me.  Then he didn't give me my key and told me that the wi-fi password was on the card envelope.  I said, "Well that would be nice if I even had my cards!".  He gave me my room cards and I got in the elevator and proceded to floor 2.  I got room 206 directly in front of the elevator.  Fine with me.  As I opened the door and turned all of the lights on, I noticed that the room was clean but out of date compaired to newer hotels.  As always I checked the bed for Bed Bugs, I didn't come across any, GREAT! So becides everything being out dated, we had a pretty good room.  This morning, 10/14/15, I went down to breakfast.  I fixed my coffee and my food and ate.  After I got done, since I was not in a rush, I stayed in the breakfast area on my phone talking to my sister.  I noticed something moving out of the corner of my eye, a tiny cockaroach!!!  I jumped up and killed it with my napkin.  And told the breakfast attendant Mary.  She apologized.  In the entire stay I didn't notice anything until breakfast.  It was only 1 roach but it was not an outdoor roach!  I do hope the hotel sprays for this because it's a place that serves food.  The location was not horrible.  It is located right next to some apartments.  Way better than staying in Bay Town.  Not too bad of a price but I had a discount.  I would say if you want to pay more stay at a newer hotel, if it's just one night it's fine, don't book for Honeymoons (not romantic), but is good if you want comfy bed and quiet night rest.  I would recomend this if they can make sure there are no roaches.  One last thing,  GREAT CUSTOMER SREVICE!!!  Except for the young guy.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d106758-r282089440-Comfort_Suites-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>282089440</t>
+  </si>
+  <si>
+    <t>06/22/2015</t>
+  </si>
+  <si>
+    <t>Great stay!</t>
+  </si>
+  <si>
+    <t>We stayed here one night before leaving on a cruise from Galveston.  It was a great choice.  The room was large and clean.  The beds and pillows were comfortable.  Everywhere in the hotel was spotless.  You can tell they really take care of things here.  The WiFi worked great and I was able to play Ticket to Ride online.The breakfast was excellent.  It is a hot breakfast with a really good selection.  There are waffles, eggs, biscuits, gravy, cereals, pastries, bagels.  We had a great meal to start our day and a very refreshing night after our drive to Houston.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2015</t>
+  </si>
+  <si>
+    <t>Cathy5, General Manager at Comfort Suites, responded to this reviewResponded June 24, 2015</t>
+  </si>
+  <si>
+    <t>Responded June 24, 2015</t>
+  </si>
+  <si>
+    <t>We stayed here one night before leaving on a cruise from Galveston.  It was a great choice.  The room was large and clean.  The beds and pillows were comfortable.  Everywhere in the hotel was spotless.  You can tell they really take care of things here.  The WiFi worked great and I was able to play Ticket to Ride online.The breakfast was excellent.  It is a hot breakfast with a really good selection.  There are waffles, eggs, biscuits, gravy, cereals, pastries, bagels.  We had a great meal to start our day and a very refreshing night after our drive to Houston.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d106758-r269061296-Comfort_Suites-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>269061296</t>
+  </si>
+  <si>
+    <t>04/30/2015</t>
+  </si>
+  <si>
+    <t>Good Experience</t>
+  </si>
+  <si>
+    <t>Stayed at this hotel while attending the NHRA Spring Nationals at Royal Purple Raceway in Baytown.  It is much more convenient than I feared it would be.The hotel was easy to find and easy to access.  The area is lacking in restaurants unless you are willing to try some local places.  The room was spacious and clean with the exception of a mysterious water source in the bathroom.  When returning for the day, there wer puddles in the floor of the bathroom.  I think it was left from being mopped.  I just wiped it up with a towel and continued to enjoy the stay.On the day we arrived, the manager was hosting a reception with complimentary beer. The breakfast was good, about what I generally expect.  The staff was very friendly and helpful.  I freely recommend this hotel to anyone traveling to this area.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2015</t>
+  </si>
+  <si>
+    <t>Stayed at this hotel while attending the NHRA Spring Nationals at Royal Purple Raceway in Baytown.  It is much more convenient than I feared it would be.The hotel was easy to find and easy to access.  The area is lacking in restaurants unless you are willing to try some local places.  The room was spacious and clean with the exception of a mysterious water source in the bathroom.  When returning for the day, there wer puddles in the floor of the bathroom.  I think it was left from being mopped.  I just wiped it up with a towel and continued to enjoy the stay.On the day we arrived, the manager was hosting a reception with complimentary beer. The breakfast was good, about what I generally expect.  The staff was very friendly and helpful.  I freely recommend this hotel to anyone traveling to this area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d106758-r251105074-Comfort_Suites-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>251105074</t>
+  </si>
+  <si>
+    <t>01/26/2015</t>
+  </si>
+  <si>
+    <t>Need a pre-cruise overnight spot???</t>
+  </si>
+  <si>
+    <t>This is the perfect place!!We walked into the Lobby thinking this was a recently constructed property.  Imagine my surprise when I learned it was built in 1999.  It is impeccably maintained and spotlessly clean.  This is probably due to the pride of ownership by the staff.  The property manager worked her way through the ranks and has been there since opening day.  Also the head of housekeeping has been there since it opened as well.  The front desk ladies were welcoming and helpful as well.  Their pride shows!Our room was very comfortable and, again, very clean.  There is free wi-fi and a free breakfast.  Also, you can leave your car parked there free for the duration of your cruise.  We did that and arranged for a van for the four of us to the ship.  The driver picked up us a few minutes early.  We had made complicated plans for the return until we learned that he would be available to pick us up. After carrying our own bags we were off the Princess Emerald at 7:20am.  Cortney was there waiting for us.  Call 281-785-4155 to book the transportation.  Comfort Suites only accepts a limited amount of cruise passengers wishing to leave cars so book early!  The rate was excellent and, as I said, the property was terrific.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2015</t>
+  </si>
+  <si>
+    <t>Cathy5, General Manager at Comfort Suites, responded to this reviewResponded January 27, 2015</t>
+  </si>
+  <si>
+    <t>Responded January 27, 2015</t>
+  </si>
+  <si>
+    <t>This is the perfect place!!We walked into the Lobby thinking this was a recently constructed property.  Imagine my surprise when I learned it was built in 1999.  It is impeccably maintained and spotlessly clean.  This is probably due to the pride of ownership by the staff.  The property manager worked her way through the ranks and has been there since opening day.  Also the head of housekeeping has been there since it opened as well.  The front desk ladies were welcoming and helpful as well.  Their pride shows!Our room was very comfortable and, again, very clean.  There is free wi-fi and a free breakfast.  Also, you can leave your car parked there free for the duration of your cruise.  We did that and arranged for a van for the four of us to the ship.  The driver picked up us a few minutes early.  We had made complicated plans for the return until we learned that he would be available to pick us up. After carrying our own bags we were off the Princess Emerald at 7:20am.  Cortney was there waiting for us.  Call 281-785-4155 to book the transportation.  Comfort Suites only accepts a limited amount of cruise passengers wishing to leave cars so book early!  The rate was excellent and, as I said, the property was terrific.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d106758-r232877068-Comfort_Suites-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>232877068</t>
+  </si>
+  <si>
+    <t>10/06/2014</t>
+  </si>
+  <si>
+    <t>NOT a $100.00 suite</t>
+  </si>
+  <si>
+    <t>I'm going to keep this bad review short and simple so you can save your cash and go somewhere else... Here is the bad*** Hot tub was 1 degree above my temperature (99 ish)  - Not cold, but not hot*** No towels in the rack for the pool - *** Overall kind of - Meh... slightly dirty everywhere.. **** These half pillows are AWFUL!!!!!- We stayed there Fri and Sat. It's Monday and my neck still hurts....  ***** Note to Comfort Inn Suites.... If you saved $25.00 per room when you buy half pillows. You lost all of my business...MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2014</t>
+  </si>
+  <si>
+    <t>Cathy5, General Manager at Comfort Suites, responded to this reviewResponded October 7, 2014</t>
+  </si>
+  <si>
+    <t>Responded October 7, 2014</t>
+  </si>
+  <si>
+    <t>I'm going to keep this bad review short and simple so you can save your cash and go somewhere else... Here is the bad*** Hot tub was 1 degree above my temperature (99 ish)  - Not cold, but not hot*** No towels in the rack for the pool - *** Overall kind of - Meh... slightly dirty everywhere.. **** These half pillows are AWFUL!!!!!- We stayed there Fri and Sat. It's Monday and my neck still hurts....  ***** Note to Comfort Inn Suites.... If you saved $25.00 per room when you buy half pillows. You lost all of my business...More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d106758-r230289313-Comfort_Suites-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>230289313</t>
+  </si>
+  <si>
+    <t>09/22/2014</t>
+  </si>
+  <si>
+    <t>I will stay again</t>
+  </si>
+  <si>
+    <t>My stay at the Comfort Suites was just that comfortable.The staff was friendly and attentive.The exercise area was clean and all of the equipment was functioning.The room was huge and had plenty of space to walk around and entertain company.I will definitely stay again.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2014</t>
+  </si>
+  <si>
+    <t>Cathy5, General Manager at Comfort Suites, responded to this reviewResponded September 23, 2014</t>
+  </si>
+  <si>
+    <t>Responded September 23, 2014</t>
+  </si>
+  <si>
+    <t>My stay at the Comfort Suites was just that comfortable.The staff was friendly and attentive.The exercise area was clean and all of the equipment was functioning.The room was huge and had plenty of space to walk around and entertain company.I will definitely stay again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d106758-r225780520-Comfort_Suites-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>225780520</t>
+  </si>
+  <si>
+    <t>08/31/2014</t>
+  </si>
+  <si>
+    <t>What a Comfort!</t>
+  </si>
+  <si>
+    <t>After a disaster at a different hotel, I was released to find this one so nice for the price. The front desk was very friendly at check in. The room was a very spacious 2 queen room and was very clean. The beds were very comfortable and it was a good night's sleep.  A great value for the price. If you're looking to stay in the area,  I recommend this place.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2014</t>
+  </si>
+  <si>
+    <t>Cathy5, General Manager at Comfort Suites, responded to this reviewResponded September 2, 2014</t>
+  </si>
+  <si>
+    <t>Responded September 2, 2014</t>
+  </si>
+  <si>
+    <t>After a disaster at a different hotel, I was released to find this one so nice for the price. The front desk was very friendly at check in. The room was a very spacious 2 queen room and was very clean. The beds were very comfortable and it was a good night's sleep.  A great value for the price. If you're looking to stay in the area,  I recommend this place.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d106758-r211483732-Comfort_Suites-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>211483732</t>
+  </si>
+  <si>
+    <t>06/22/2014</t>
+  </si>
+  <si>
+    <t>P.O.S</t>
+  </si>
+  <si>
+    <t>Check in was rude young lady would not speak up to where you could hear what she was saying. Got to the room and there was candy wrappers around the couch and between the bed and night stand. Made me wonder if the sheets were clean. 2 queen suite and there was only one large towel in the bathroom. Called front desk and was told to bring my dirty towel and they would exchange, B.S. After 30 minutes had to down to front desk and ask for a second time. And finally what set me off is the TV did not work. In short bad experience will not be back.MoreShow less</t>
+  </si>
+  <si>
+    <t>Cathy Krupski M, General Manager at Comfort Suites, responded to this reviewResponded June 23, 2014</t>
+  </si>
+  <si>
+    <t>Responded June 23, 2014</t>
+  </si>
+  <si>
+    <t>Check in was rude young lady would not speak up to where you could hear what she was saying. Got to the room and there was candy wrappers around the couch and between the bed and night stand. Made me wonder if the sheets were clean. 2 queen suite and there was only one large towel in the bathroom. Called front desk and was told to bring my dirty towel and they would exchange, B.S. After 30 minutes had to down to front desk and ask for a second time. And finally what set me off is the TV did not work. In short bad experience will not be back.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d106758-r206791419-Comfort_Suites-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>206791419</t>
+  </si>
+  <si>
+    <t>05/23/2014</t>
+  </si>
+  <si>
+    <t>Adequate hotel.  Good breakfast.</t>
+  </si>
+  <si>
+    <t>Our stay was pleasant.  The rooms were spacious and clean.   The breakfast was good - eggs, sausage or bacon, biscuits and gravy, waffles, muffins, donuts, cereal, yogurt, fruit, etc.  While were there, it was more of a "working man's" hotel than a family hotel, but that was fine.  We had a small issue with the hotel not giving us enough towels for our family, but the manager apologized.  Several of the cardio machines in the fitness room didn't work properly.  The area is very industrial, but very close to Sylvan Beach and central to NASA, San Jacinto, and Battleship Texas.  This hotel will certainly not "wow" you, but if you're just looking for a clean place to sleep, you'll likely be satisfied.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2014</t>
+  </si>
+  <si>
+    <t>Cathy5, General Manager at Comfort Suites, responded to this reviewResponded May 25, 2014</t>
+  </si>
+  <si>
+    <t>Responded May 25, 2014</t>
+  </si>
+  <si>
+    <t>Our stay was pleasant.  The rooms were spacious and clean.   The breakfast was good - eggs, sausage or bacon, biscuits and gravy, waffles, muffins, donuts, cereal, yogurt, fruit, etc.  While were there, it was more of a "working man's" hotel than a family hotel, but that was fine.  We had a small issue with the hotel not giving us enough towels for our family, but the manager apologized.  Several of the cardio machines in the fitness room didn't work properly.  The area is very industrial, but very close to Sylvan Beach and central to NASA, San Jacinto, and Battleship Texas.  This hotel will certainly not "wow" you, but if you're just looking for a clean place to sleep, you'll likely be satisfied.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d106758-r199312233-Comfort_Suites-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>199312233</t>
+  </si>
+  <si>
+    <t>03/30/2014</t>
+  </si>
+  <si>
+    <t>Average Hotel</t>
+  </si>
+  <si>
+    <t>We booked 2 suites on our way to our cruise.  It's about 20 minutes to the port and 45 minutes from Hobby Airport.  The breakfast was standard fare, nothing special.  Many other reviews say the hotel provides a shuttle to the port, however they do not have hotel shuttles.  They did help us contact a transportation service that gave good service.  Our rooms could hold a max of 6 people but they only provided one small shampoo (enough for one person).  We also had to ask for a blanket for the pull out bed.  I would stay again but only one night.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2014</t>
+  </si>
+  <si>
+    <t>Cathy5, General Manager at Comfort Suites, responded to this reviewResponded April 1, 2014</t>
+  </si>
+  <si>
+    <t>Responded April 1, 2014</t>
+  </si>
+  <si>
+    <t>We booked 2 suites on our way to our cruise.  It's about 20 minutes to the port and 45 minutes from Hobby Airport.  The breakfast was standard fare, nothing special.  Many other reviews say the hotel provides a shuttle to the port, however they do not have hotel shuttles.  They did help us contact a transportation service that gave good service.  Our rooms could hold a max of 6 people but they only provided one small shampoo (enough for one person).  We also had to ask for a blanket for the pull out bed.  I would stay again but only one night.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d106758-r189904147-Comfort_Suites-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>189904147</t>
+  </si>
+  <si>
+    <t>01/06/2014</t>
+  </si>
+  <si>
+    <t>Great Stay!</t>
+  </si>
+  <si>
+    <t>My husband and I stayed over the new year's holiday and enjoyed the hotel and the property very much. Ms Amanda were very kind and wonderful to work with when I was booking our stay.  Everyone on the Hotel staff was very kind, friendly and helpful.  The hotel was nice, clean, warm, and comfortable. We will definitely be back!  Thank you so much!MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2013</t>
+  </si>
+  <si>
+    <t>Cathy5, General Manager at Comfort Suites, responded to this reviewResponded January 7, 2014</t>
+  </si>
+  <si>
+    <t>Responded January 7, 2014</t>
+  </si>
+  <si>
+    <t>My husband and I stayed over the new year's holiday and enjoyed the hotel and the property very much. Ms Amanda were very kind and wonderful to work with when I was booking our stay.  Everyone on the Hotel staff was very kind, friendly and helpful.  The hotel was nice, clean, warm, and comfortable. We will definitely be back!  Thank you so much!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d106758-r182268070-Comfort_Suites-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>182268070</t>
+  </si>
+  <si>
+    <t>10/24/2013</t>
+  </si>
+  <si>
+    <t>Great Customer Service</t>
+  </si>
+  <si>
+    <t>I recently chose this location for a good night sleep. My experience was one of the most satisfying I have ever enjoyed with comfortable beds, excellent water pressure, wifi was fast and super friendly customer service.It seems like businesses today forget that “people” are what business is all about. That's not true of the Comfort Suites in La Porte, TX  I'm writing to let you know that this location is a great example of what a business can be and should be.In an age when so many companies don't seem to care about customer service any more, The team here did everything you claim you do, with a smile. I am one satisfied customer, and will continue to be for years to come. Thank you for your timeMoreShow less</t>
+  </si>
+  <si>
+    <t>October 2013</t>
+  </si>
+  <si>
+    <t>Cathy5, General Manager at Comfort Suites, responded to this reviewResponded October 28, 2013</t>
+  </si>
+  <si>
+    <t>Responded October 28, 2013</t>
+  </si>
+  <si>
+    <t>I recently chose this location for a good night sleep. My experience was one of the most satisfying I have ever enjoyed with comfortable beds, excellent water pressure, wifi was fast and super friendly customer service.It seems like businesses today forget that “people” are what business is all about. That's not true of the Comfort Suites in La Porte, TX  I'm writing to let you know that this location is a great example of what a business can be and should be.In an age when so many companies don't seem to care about customer service any more, The team here did everything you claim you do, with a smile. I am one satisfied customer, and will continue to be for years to come. Thank you for your timeMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d106758-r178702749-Comfort_Suites-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>178702749</t>
+  </si>
+  <si>
+    <t>09/26/2013</t>
+  </si>
+  <si>
+    <t>HYC visit</t>
+  </si>
+  <si>
+    <t>Close location to HYC for regatta.  Very nice large rooms.  Excellant breakfast and staff. Part of group that stayed for HYC event and enjoyed seeing the other competitors there in the morning.  Easy access off highway.  Perfect location and amenities for HYC event.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2013</t>
+  </si>
+  <si>
+    <t>Cathy5, General Manager at Comfort Suites, responded to this reviewResponded September 27, 2013</t>
+  </si>
+  <si>
+    <t>Responded September 27, 2013</t>
+  </si>
+  <si>
+    <t>Close location to HYC for regatta.  Very nice large rooms.  Excellant breakfast and staff. Part of group that stayed for HYC event and enjoyed seeing the other competitors there in the morning.  Easy access off highway.  Perfect location and amenities for HYC event.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d106758-r168039953-Comfort_Suites-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>168039953</t>
+  </si>
+  <si>
+    <t>07/18/2013</t>
+  </si>
+  <si>
+    <t>weekend getaway</t>
+  </si>
+  <si>
+    <t>Great price plenty of room and most important the room was very clean 2nd time staying there and close to places that we were going. Easy check in great staff.Pool area was clean Nice big bath room.Doing both of my stay breakfast was great lots of varities.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2013</t>
+  </si>
+  <si>
+    <t>Cathy5, General Manager at Comfort Suites, responded to this reviewResponded July 22, 2013</t>
+  </si>
+  <si>
+    <t>Responded July 22, 2013</t>
+  </si>
+  <si>
+    <t>Great price plenty of room and most important the room was very clean 2nd time staying there and close to places that we were going. Easy check in great staff.Pool area was clean Nice big bath room.Doing both of my stay breakfast was great lots of varities.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d106758-r164281272-Comfort_Suites-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>164281272</t>
+  </si>
+  <si>
+    <t>06/17/2013</t>
+  </si>
+  <si>
+    <t>Clean, Quite, Great Service</t>
+  </si>
+  <si>
+    <t>I am a construction safety man who stayed at this hotel last March, 2013. I enjoyed my stay there very much. It was a good value for the benefits of a good nights sleep in a clean, soft bed. The staff really took good care of me. I was very satisfied.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2013</t>
+  </si>
+  <si>
+    <t>Cathy5, General Manager at Comfort Suites, responded to this reviewResponded June 18, 2013</t>
+  </si>
+  <si>
+    <t>Responded June 18, 2013</t>
+  </si>
+  <si>
+    <t>I am a construction safety man who stayed at this hotel last March, 2013. I enjoyed my stay there very much. It was a good value for the benefits of a good nights sleep in a clean, soft bed. The staff really took good care of me. I was very satisfied.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d106758-r159822817-Comfort_Suites-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>159822817</t>
+  </si>
+  <si>
+    <t>05/06/2013</t>
+  </si>
+  <si>
+    <t>Just a place to sleep</t>
+  </si>
+  <si>
+    <t>Got to hotel a 8pm. Non smoking hotel but when we  got to room it had horrible smoke smell. Changed rooms and could tell neighbors in next room were smoking. Put towels under doors to keep out smoke. Apparently area workers use this hotel for extended stay and don't care about rules. They tried (management) to accommodate use as best they could.    The king room was large, bed was very comfortable. The AC fan ran quietly. Not to much noise. We slept well. Breakfast was average for a hot breakfast the breakfast lady Miss Johnson was very nice. She made our stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2013</t>
+  </si>
+  <si>
+    <t>Cathy5, General Manager at Comfort Suites, responded to this reviewResponded May 10, 2013</t>
+  </si>
+  <si>
+    <t>Responded May 10, 2013</t>
+  </si>
+  <si>
+    <t>Got to hotel a 8pm. Non smoking hotel but when we  got to room it had horrible smoke smell. Changed rooms and could tell neighbors in next room were smoking. Put towels under doors to keep out smoke. Apparently area workers use this hotel for extended stay and don't care about rules. They tried (management) to accommodate use as best they could.    The king room was large, bed was very comfortable. The AC fan ran quietly. Not to much noise. We slept well. Breakfast was average for a hot breakfast the breakfast lady Miss Johnson was very nice. She made our stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d106758-r141675992-Comfort_Suites-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>141675992</t>
+  </si>
+  <si>
+    <t>09/30/2012</t>
+  </si>
+  <si>
+    <t>nice stay in la porte</t>
+  </si>
+  <si>
+    <t>this hotel was very nice, clean &amp; comfortable; breakfast was outstanding: biscuits &amp; gravy, eggs &amp; bacon or sausage, waffles, cereal, several types of bread; staff made sure items were available without having to pester them! we asked for a were assigned a room on the top floor away from elevator (recommended!). close proximity to san jacinto battleground and other texas historic exhibits. staff was friendly &amp; helpful. since our visit was on the weekend we declined maid service but the bathroom was stocked well enough for more than the two nights we stayed.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2012</t>
+  </si>
+  <si>
+    <t>Cathy5, General Manager at Comfort Suites, responded to this reviewResponded October 2, 2012</t>
+  </si>
+  <si>
+    <t>Responded October 2, 2012</t>
+  </si>
+  <si>
+    <t>this hotel was very nice, clean &amp; comfortable; breakfast was outstanding: biscuits &amp; gravy, eggs &amp; bacon or sausage, waffles, cereal, several types of bread; staff made sure items were available without having to pester them! we asked for a were assigned a room on the top floor away from elevator (recommended!). close proximity to san jacinto battleground and other texas historic exhibits. staff was friendly &amp; helpful. since our visit was on the weekend we declined maid service but the bathroom was stocked well enough for more than the two nights we stayed.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d106758-r131931745-Comfort_Suites-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>131931745</t>
+  </si>
+  <si>
+    <t>06/13/2012</t>
+  </si>
+  <si>
+    <t>Quite nice</t>
+  </si>
+  <si>
+    <t>I just stayed here for two nights and found the place quite comfortable. Rooms were big and well furnished. Nice desk, nice Sofa and friendly staff. As I came late at night there was no food offered any more and I went out (didn't really dare to enter Blondie's Bar and Grill, that late foggy night as a foreigner) to MC Donalds, at the next corner. I found the Hotel overall very clean and well organized, checkout was really quick.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2012</t>
+  </si>
+  <si>
+    <t>Cathy5, General Manager at Comfort Suites, responded to this reviewResponded June 15, 2012</t>
+  </si>
+  <si>
+    <t>Responded June 15, 2012</t>
+  </si>
+  <si>
+    <t>I just stayed here for two nights and found the place quite comfortable. Rooms were big and well furnished. Nice desk, nice Sofa and friendly staff. As I came late at night there was no food offered any more and I went out (didn't really dare to enter Blondie's Bar and Grill, that late foggy night as a foreigner) to MC Donalds, at the next corner. I found the Hotel overall very clean and well organized, checkout was really quick.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d106758-r124784120-Comfort_Suites-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>124784120</t>
+  </si>
+  <si>
+    <t>02/18/2012</t>
+  </si>
+  <si>
+    <t>Great Hotel That Shouldn't Be Overlooked.</t>
+  </si>
+  <si>
+    <t>This hotel is in good shape and a great price compared to other hotels in the area. Alot of bang for the buck. The staff was really helpful finding things to do and places to go.Very spacious rooms and very clean with a great breakfast.I would defiantly come back here again and recommend to my family and friends.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2012</t>
+  </si>
+  <si>
+    <t>Cathy5, General Manager at Comfort Suites, responded to this reviewResponded February 20, 2012</t>
+  </si>
+  <si>
+    <t>Responded February 20, 2012</t>
+  </si>
+  <si>
+    <t>This hotel is in good shape and a great price compared to other hotels in the area. Alot of bang for the buck. The staff was really helpful finding things to do and places to go.Very spacious rooms and very clean with a great breakfast.I would defiantly come back here again and recommend to my family and friends.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d106758-r42007930-Comfort_Suites-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>42007930</t>
+  </si>
+  <si>
+    <t>09/15/2009</t>
+  </si>
+  <si>
+    <t>clean rooms and really spacious!!!</t>
+  </si>
+  <si>
+    <t>this is a nice place to stay the rooms were clean and the have friendly help.  The Savory Starts breakfast is better than most breakfasts that most hotels/motels put on.</t>
+  </si>
+  <si>
+    <t>September 2009</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d106758-r30671525-Comfort_Suites-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>30671525</t>
+  </si>
+  <si>
+    <t>05/24/2009</t>
+  </si>
+  <si>
+    <t>Plesant and confortable</t>
+  </si>
+  <si>
+    <t>We stayed one night to attend a business meeting the next morning in Deer Park.  The hotel is in an industrial area so it doesn’t offer any lovely view.   Our room was large with a minimum décor; offering a dining area with a table and four chairs as well as a microwave oven, a mini-refrigerator, and a coffee maker.  I was disappointed when I found out our room was next to the elevator.  I also noticed children’s voices and running noises from the hallway.  We arrived late and were very tired and didn’t have the energy to go back and plea to change the room so I assumed worst.  But it turned out neither the elevator noise nor the children’ noise bothered us at all.  I am a light sleeper and I don’t expect to have a good night’s sleep especially when I am on the road so that was a pleasant surprise.  My husband said the free Wi-Fi was easy to connect and high speed.  The breakfast bar provided the usual hot and cold breakfast items and fully stocked.   The dining area had plenty of tables and chairs and was clean. We had pleasant and comfortable stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2009</t>
+  </si>
+  <si>
+    <t>We stayed one night to attend a business meeting the next morning in Deer Park.  The hotel is in an industrial area so it doesn’t offer any lovely view.   Our room was large with a minimum décor; offering a dining area with a table and four chairs as well as a microwave oven, a mini-refrigerator, and a coffee maker.  I was disappointed when I found out our room was next to the elevator.  I also noticed children’s voices and running noises from the hallway.  We arrived late and were very tired and didn’t have the energy to go back and plea to change the room so I assumed worst.  But it turned out neither the elevator noise nor the children’ noise bothered us at all.  I am a light sleeper and I don’t expect to have a good night’s sleep especially when I am on the road so that was a pleasant surprise.  My husband said the free Wi-Fi was easy to connect and high speed.  The breakfast bar provided the usual hot and cold breakfast items and fully stocked.   The dining area had plenty of tables and chairs and was clean. We had pleasant and comfortable stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d106758-r18978367-Comfort_Suites-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>18978367</t>
+  </si>
+  <si>
+    <t>08/15/2008</t>
+  </si>
+  <si>
+    <t>Great short stay</t>
+  </si>
+  <si>
+    <t>This hotel was great for my short two day stay. I stayed here for business and i was surprised for a comfort suites which i never stayed before. They offered a hot breakfast in the morning which was nice and convient. The rooms were very clean and spacious. They offered plenty of towels, ammenities and lighting in the room. The beds were comfortable and offered alot of pillows which i like. They also have a pool, hot tub and workout room which i used and was very clean as well. The staff was very nice and friendly. I highly reccomend this hotel in laporte tx</t>
+  </si>
+  <si>
+    <t>August 2008</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d106758-r7752171-Comfort_Suites-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>7752171</t>
+  </si>
+  <si>
+    <t>06/02/2007</t>
+  </si>
+  <si>
+    <t>New &amp; Improved!!</t>
+  </si>
+  <si>
+    <t>You'll note in a previous review, we have stayed here many times and the property was in need of a facelift.  We were pleasantly surprised at the improvements.  This hotel is now a non-smoking facility and all carpets, bedding, draperies, upholstery, etc. have been replaced.  The breakfast is exceptional for a freebie featuring scrambled eggs, bacon, sausage, gravy, biscuits, etc. and fully-cooked, not nuked.  The only downside on this trip was the hotel was sold out with little league baseball players and their parents and was extremely noisey, but that was not the fault of management.  We will continue to stay at Comfort Suites - La Porte when visiting family in the area.  It's a good value and the much-needed facelift makes it even more so.  Having stayed at the Holiday Inn Express next door, which opened in Dec. 2006, we saved a considerable amount of money, got a better breakfast, and the bed linens were identical - ha!MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2007</t>
+  </si>
+  <si>
+    <t>You'll note in a previous review, we have stayed here many times and the property was in need of a facelift.  We were pleasantly surprised at the improvements.  This hotel is now a non-smoking facility and all carpets, bedding, draperies, upholstery, etc. have been replaced.  The breakfast is exceptional for a freebie featuring scrambled eggs, bacon, sausage, gravy, biscuits, etc. and fully-cooked, not nuked.  The only downside on this trip was the hotel was sold out with little league baseball players and their parents and was extremely noisey, but that was not the fault of management.  We will continue to stay at Comfort Suites - La Porte when visiting family in the area.  It's a good value and the much-needed facelift makes it even more so.  Having stayed at the Holiday Inn Express next door, which opened in Dec. 2006, we saved a considerable amount of money, got a better breakfast, and the bed linens were identical - ha!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d106758-r7331387-Comfort_Suites-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>7331387</t>
+  </si>
+  <si>
+    <t>04/10/2007</t>
+  </si>
+  <si>
+    <t>Great Hotel in a great location</t>
+  </si>
+  <si>
+    <t>From the moment I arrived I felt that this hotel was special and I was not disappointed by my first impression. The check was great they made me feel very welcome. I got an excellent firstr floor room and it was imaculate. The pool nearby was a comfortable temperature and the hot tub was great and, again, just the right temperature. All the employees were veryh helpful. The guest laundry was very cleanb and all the machines worked and it is right next to the work out room, which also was spotless. Breakfast  was hot and plentiful. The buffet is kept open until 10AM and hot coffee all day. Had a nice kitchen-ette in the room that was spotless. The help maintains the properthy well and are pleasant and helpful with good directions ot the are attractions and suggestions for what to see and where to eat.  Not only would I stay there again, I would recommend it. Free internet and local calls were enjopyed.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2007</t>
+  </si>
+  <si>
+    <t>From the moment I arrived I felt that this hotel was special and I was not disappointed by my first impression. The check was great they made me feel very welcome. I got an excellent firstr floor room and it was imaculate. The pool nearby was a comfortable temperature and the hot tub was great and, again, just the right temperature. All the employees were veryh helpful. The guest laundry was very cleanb and all the machines worked and it is right next to the work out room, which also was spotless. Breakfast  was hot and plentiful. The buffet is kept open until 10AM and hot coffee all day. Had a nice kitchen-ette in the room that was spotless. The help maintains the properthy well and are pleasant and helpful with good directions ot the are attractions and suggestions for what to see and where to eat.  Not only would I stay there again, I would recommend it. Free internet and local calls were enjopyed.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d106758-r6751740-Comfort_Suites-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>6751740</t>
+  </si>
+  <si>
+    <t>02/05/2007</t>
+  </si>
+  <si>
+    <t>Perfect for five</t>
+  </si>
+  <si>
+    <t>We stayed here before leaving on our cruise in December and it is still great. The breakfast was nice. I had stayed with my wife and three children in a Comfort Suite hotel before and I like the room layout they provide. This hotel had the same floor plan but I swear it was larger. I would not hesitate to stay here again.</t>
+  </si>
+  <si>
+    <t>December 2006</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d106758-r4119681-Comfort_Suites-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>4119681</t>
+  </si>
+  <si>
+    <t>11/15/2005</t>
+  </si>
+  <si>
+    <t>wonderful stay at the comfort suites in la porte, texas</t>
+  </si>
+  <si>
+    <t>This hotel was terrific, especially for the money.  The rooms were SPACIOUS and clean.  The beds and pillows new and comfortable.  The bathroom was large and clean.  No noise at all to speak of during the day or night. This whole hotel is all about alot of space, you never feel cramped even when there are a lot of people in the  lobby gathering to talk or to have breakfast in the adjoining room.The facilities were terrific.  The morning breakfast had everything to eggs, bacon, waffles and bagles.  A large dining room to eat in.  The internet access room was comfortable and quiet.  The pool was outside but it must have been heated since it was in use during most of our stay in late October.The staff was always friendly, courteous and prompt.  It is close to all of the outlying areas of Houston  and our cruise port.  It was truly a pleasure staying there, would stay again if I was leaving out of the port of Houston.MoreShow less</t>
+  </si>
+  <si>
+    <t>This hotel was terrific, especially for the money.  The rooms were SPACIOUS and clean.  The beds and pillows new and comfortable.  The bathroom was large and clean.  No noise at all to speak of during the day or night. This whole hotel is all about alot of space, you never feel cramped even when there are a lot of people in the  lobby gathering to talk or to have breakfast in the adjoining room.The facilities were terrific.  The morning breakfast had everything to eggs, bacon, waffles and bagles.  A large dining room to eat in.  The internet access room was comfortable and quiet.  The pool was outside but it must have been heated since it was in use during most of our stay in late October.The staff was always friendly, courteous and prompt.  It is close to all of the outlying areas of Houston  and our cruise port.  It was truly a pleasure staying there, would stay again if I was leaving out of the port of Houston.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d106758-r1501984-Comfort_Suites-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>1501984</t>
+  </si>
+  <si>
+    <t>11/29/2003</t>
+  </si>
+  <si>
+    <t>comfort suites/la porte</t>
+  </si>
+  <si>
+    <t>This hotel is located on 8th street in La Porte, Tx. It has only been there a few years so its new. Above average for La Porte. It has a weight room, conference area, swimming pool and jacuzzi. They provide a breakfast bar in the morning in a spacious lobby with comfortable surroundings. Close to Hwy 146 for easy access to travelers and safely located across the street from the La Porte Police Department.</t>
   </si>
 </sst>
 </file>
@@ -532,11 +1776,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +1808,3355 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N1" t="s">
+        <v>31</v>
+      </c>
+      <c r="O1" t="s">
+        <v>32</v>
+      </c>
+      <c r="P1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>34</v>
+      </c>
+      <c r="R1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S1" t="s">
+        <v>36</v>
+      </c>
+      <c r="T1" t="s">
+        <v>37</v>
+      </c>
+      <c r="U1" t="s">
+        <v>38</v>
+      </c>
+      <c r="V1" t="s">
+        <v>39</v>
+      </c>
+      <c r="W1" t="s">
+        <v>40</v>
+      </c>
+      <c r="X1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>38426</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K2" t="s">
+        <v>49</v>
+      </c>
+      <c r="L2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M2" t="n">
+        <v>3</v>
+      </c>
+      <c r="N2" t="s">
+        <v>51</v>
+      </c>
+      <c r="O2" t="s">
+        <v>52</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="s"/>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s">
+        <v>53</v>
+      </c>
+      <c r="X2" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>38426</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3" t="s">
+        <v>57</v>
+      </c>
+      <c r="J3" t="s">
+        <v>58</v>
+      </c>
+      <c r="K3" t="s">
+        <v>59</v>
+      </c>
+      <c r="L3" t="s">
+        <v>60</v>
+      </c>
+      <c r="M3" t="n">
+        <v>4</v>
+      </c>
+      <c r="N3" t="s"/>
+      <c r="O3" t="s"/>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="s"/>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s">
+        <v>53</v>
+      </c>
+      <c r="X3" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>38426</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4" t="s">
+        <v>62</v>
+      </c>
+      <c r="G4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" t="s">
+        <v>63</v>
+      </c>
+      <c r="J4" t="s">
+        <v>64</v>
+      </c>
+      <c r="K4" t="s">
+        <v>65</v>
+      </c>
+      <c r="L4" t="s">
+        <v>66</v>
+      </c>
+      <c r="M4" t="n">
+        <v>4</v>
+      </c>
+      <c r="N4" t="s">
+        <v>67</v>
+      </c>
+      <c r="O4" t="s">
+        <v>68</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="n">
+        <v>3</v>
+      </c>
+      <c r="R4" t="n">
+        <v>3</v>
+      </c>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="n">
+        <v>4</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s">
+        <v>69</v>
+      </c>
+      <c r="X4" t="s">
+        <v>70</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>38426</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" t="s">
+        <v>72</v>
+      </c>
+      <c r="G5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I5" t="s">
+        <v>73</v>
+      </c>
+      <c r="J5" t="s">
+        <v>74</v>
+      </c>
+      <c r="K5" t="s">
+        <v>75</v>
+      </c>
+      <c r="L5" t="s">
+        <v>76</v>
+      </c>
+      <c r="M5" t="n">
+        <v>5</v>
+      </c>
+      <c r="N5" t="s">
+        <v>77</v>
+      </c>
+      <c r="O5" t="s">
+        <v>52</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="n">
+        <v>4</v>
+      </c>
+      <c r="R5" t="s"/>
+      <c r="S5" t="n">
+        <v>4</v>
+      </c>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>4</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s">
+        <v>78</v>
+      </c>
+      <c r="X5" t="s">
+        <v>79</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>38426</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" t="s">
+        <v>81</v>
+      </c>
+      <c r="G6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I6" t="s">
+        <v>82</v>
+      </c>
+      <c r="J6" t="s">
+        <v>83</v>
+      </c>
+      <c r="K6" t="s">
+        <v>84</v>
+      </c>
+      <c r="L6" t="s">
+        <v>85</v>
+      </c>
+      <c r="M6" t="n">
+        <v>5</v>
+      </c>
+      <c r="N6" t="s">
+        <v>77</v>
+      </c>
+      <c r="O6" t="s">
+        <v>86</v>
+      </c>
+      <c r="P6" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>5</v>
+      </c>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>5</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s">
+        <v>87</v>
+      </c>
+      <c r="X6" t="s">
+        <v>88</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>38426</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" t="s">
+        <v>90</v>
+      </c>
+      <c r="G7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" t="s">
+        <v>46</v>
+      </c>
+      <c r="I7" t="s">
+        <v>91</v>
+      </c>
+      <c r="J7" t="s">
+        <v>92</v>
+      </c>
+      <c r="K7" t="s">
+        <v>93</v>
+      </c>
+      <c r="L7" t="s">
+        <v>94</v>
+      </c>
+      <c r="M7" t="n">
+        <v>5</v>
+      </c>
+      <c r="N7" t="s">
+        <v>95</v>
+      </c>
+      <c r="O7" t="s">
+        <v>68</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="s"/>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s">
+        <v>96</v>
+      </c>
+      <c r="X7" t="s">
+        <v>97</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>38426</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" t="s">
+        <v>99</v>
+      </c>
+      <c r="G8" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" t="s">
+        <v>46</v>
+      </c>
+      <c r="I8" t="s">
+        <v>100</v>
+      </c>
+      <c r="J8" t="s">
+        <v>101</v>
+      </c>
+      <c r="K8" t="s">
+        <v>102</v>
+      </c>
+      <c r="L8" t="s">
+        <v>103</v>
+      </c>
+      <c r="M8" t="n">
+        <v>4</v>
+      </c>
+      <c r="N8" t="s">
+        <v>104</v>
+      </c>
+      <c r="O8" t="s">
+        <v>68</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="s"/>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s">
+        <v>105</v>
+      </c>
+      <c r="X8" t="s">
+        <v>106</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>38426</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" t="s">
+        <v>108</v>
+      </c>
+      <c r="G9" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9" t="s">
+        <v>46</v>
+      </c>
+      <c r="I9" t="s">
+        <v>109</v>
+      </c>
+      <c r="J9" t="s">
+        <v>110</v>
+      </c>
+      <c r="K9" t="s">
+        <v>111</v>
+      </c>
+      <c r="L9" t="s">
+        <v>112</v>
+      </c>
+      <c r="M9" t="n">
+        <v>4</v>
+      </c>
+      <c r="N9" t="s">
+        <v>104</v>
+      </c>
+      <c r="O9" t="s">
+        <v>68</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="s"/>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="s"/>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s">
+        <v>105</v>
+      </c>
+      <c r="X9" t="s">
+        <v>106</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>38426</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>43</v>
+      </c>
+      <c r="F10" t="s">
+        <v>114</v>
+      </c>
+      <c r="G10" t="s">
+        <v>45</v>
+      </c>
+      <c r="H10" t="s">
+        <v>46</v>
+      </c>
+      <c r="I10" t="s">
+        <v>115</v>
+      </c>
+      <c r="J10" t="s">
+        <v>116</v>
+      </c>
+      <c r="K10" t="s">
+        <v>117</v>
+      </c>
+      <c r="L10" t="s">
+        <v>118</v>
+      </c>
+      <c r="M10" t="n">
+        <v>4</v>
+      </c>
+      <c r="N10" t="s">
+        <v>104</v>
+      </c>
+      <c r="O10" t="s">
+        <v>52</v>
+      </c>
+      <c r="P10" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>4</v>
+      </c>
+      <c r="R10" t="s"/>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>5</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s">
+        <v>119</v>
+      </c>
+      <c r="X10" t="s">
+        <v>120</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>38426</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>43</v>
+      </c>
+      <c r="F11" t="s">
+        <v>122</v>
+      </c>
+      <c r="G11" t="s">
+        <v>45</v>
+      </c>
+      <c r="H11" t="s">
+        <v>46</v>
+      </c>
+      <c r="I11" t="s">
+        <v>123</v>
+      </c>
+      <c r="J11" t="s">
+        <v>124</v>
+      </c>
+      <c r="K11" t="s">
+        <v>125</v>
+      </c>
+      <c r="L11" t="s">
+        <v>126</v>
+      </c>
+      <c r="M11" t="n">
+        <v>5</v>
+      </c>
+      <c r="N11" t="s">
+        <v>127</v>
+      </c>
+      <c r="O11" t="s">
+        <v>68</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="s"/>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="s"/>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s">
+        <v>128</v>
+      </c>
+      <c r="X11" t="s">
+        <v>129</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>38426</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>43</v>
+      </c>
+      <c r="F12" t="s">
+        <v>131</v>
+      </c>
+      <c r="G12" t="s">
+        <v>45</v>
+      </c>
+      <c r="H12" t="s">
+        <v>46</v>
+      </c>
+      <c r="I12" t="s">
+        <v>132</v>
+      </c>
+      <c r="J12" t="s">
+        <v>133</v>
+      </c>
+      <c r="K12" t="s">
+        <v>134</v>
+      </c>
+      <c r="L12" t="s">
+        <v>135</v>
+      </c>
+      <c r="M12" t="n">
+        <v>5</v>
+      </c>
+      <c r="N12" t="s"/>
+      <c r="O12" t="s"/>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="s"/>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="s"/>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s">
+        <v>128</v>
+      </c>
+      <c r="X12" t="s">
+        <v>129</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>38426</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>43</v>
+      </c>
+      <c r="F13" t="s">
+        <v>137</v>
+      </c>
+      <c r="G13" t="s">
+        <v>45</v>
+      </c>
+      <c r="H13" t="s">
+        <v>46</v>
+      </c>
+      <c r="I13" t="s">
+        <v>138</v>
+      </c>
+      <c r="J13" t="s">
+        <v>139</v>
+      </c>
+      <c r="K13" t="s">
+        <v>140</v>
+      </c>
+      <c r="L13" t="s">
+        <v>141</v>
+      </c>
+      <c r="M13" t="n">
+        <v>4</v>
+      </c>
+      <c r="N13" t="s">
+        <v>142</v>
+      </c>
+      <c r="O13" t="s">
+        <v>143</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="n">
+        <v>5</v>
+      </c>
+      <c r="R13" t="n">
+        <v>5</v>
+      </c>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>5</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s">
+        <v>144</v>
+      </c>
+      <c r="X13" t="s">
+        <v>145</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>38426</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>43</v>
+      </c>
+      <c r="F14" t="s">
+        <v>147</v>
+      </c>
+      <c r="G14" t="s">
+        <v>45</v>
+      </c>
+      <c r="H14" t="s">
+        <v>46</v>
+      </c>
+      <c r="I14" t="s">
+        <v>148</v>
+      </c>
+      <c r="J14" t="s">
+        <v>149</v>
+      </c>
+      <c r="K14" t="s">
+        <v>150</v>
+      </c>
+      <c r="L14" t="s">
+        <v>151</v>
+      </c>
+      <c r="M14" t="n">
+        <v>5</v>
+      </c>
+      <c r="N14" t="s">
+        <v>152</v>
+      </c>
+      <c r="O14" t="s">
+        <v>68</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="n">
+        <v>5</v>
+      </c>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>5</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s">
+        <v>128</v>
+      </c>
+      <c r="X14" t="s">
+        <v>129</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>38426</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>43</v>
+      </c>
+      <c r="F15" t="s">
+        <v>154</v>
+      </c>
+      <c r="G15" t="s">
+        <v>45</v>
+      </c>
+      <c r="H15" t="s">
+        <v>46</v>
+      </c>
+      <c r="I15" t="s">
+        <v>155</v>
+      </c>
+      <c r="J15" t="s">
+        <v>156</v>
+      </c>
+      <c r="K15" t="s">
+        <v>157</v>
+      </c>
+      <c r="L15" t="s">
+        <v>158</v>
+      </c>
+      <c r="M15" t="n">
+        <v>5</v>
+      </c>
+      <c r="N15" t="s">
+        <v>152</v>
+      </c>
+      <c r="O15" t="s">
+        <v>68</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="n">
+        <v>5</v>
+      </c>
+      <c r="R15" t="n">
+        <v>5</v>
+      </c>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>5</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s">
+        <v>159</v>
+      </c>
+      <c r="X15" t="s">
+        <v>160</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>38426</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>43</v>
+      </c>
+      <c r="F16" t="s">
+        <v>162</v>
+      </c>
+      <c r="G16" t="s">
+        <v>45</v>
+      </c>
+      <c r="H16" t="s">
+        <v>46</v>
+      </c>
+      <c r="I16" t="s">
+        <v>163</v>
+      </c>
+      <c r="J16" t="s">
+        <v>164</v>
+      </c>
+      <c r="K16" t="s">
+        <v>165</v>
+      </c>
+      <c r="L16" t="s">
+        <v>166</v>
+      </c>
+      <c r="M16" t="n">
+        <v>3</v>
+      </c>
+      <c r="N16" t="s">
+        <v>167</v>
+      </c>
+      <c r="O16" t="s">
+        <v>143</v>
+      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="n">
+        <v>3</v>
+      </c>
+      <c r="R16" t="s"/>
+      <c r="S16" t="s"/>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>4</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s">
+        <v>168</v>
+      </c>
+      <c r="X16" t="s">
+        <v>169</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>38426</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E17" t="s">
+        <v>43</v>
+      </c>
+      <c r="F17" t="s">
+        <v>171</v>
+      </c>
+      <c r="G17" t="s">
+        <v>45</v>
+      </c>
+      <c r="H17" t="s">
+        <v>46</v>
+      </c>
+      <c r="I17" t="s">
+        <v>172</v>
+      </c>
+      <c r="J17" t="s">
+        <v>173</v>
+      </c>
+      <c r="K17" t="s">
+        <v>174</v>
+      </c>
+      <c r="L17" t="s">
+        <v>175</v>
+      </c>
+      <c r="M17" t="n">
+        <v>2</v>
+      </c>
+      <c r="N17" t="s">
+        <v>176</v>
+      </c>
+      <c r="O17" t="s">
+        <v>52</v>
+      </c>
+      <c r="P17" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="s"/>
+      <c r="S17" t="n">
+        <v>2</v>
+      </c>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>3</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s">
+        <v>177</v>
+      </c>
+      <c r="X17" t="s">
+        <v>178</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>38426</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E18" t="s">
+        <v>43</v>
+      </c>
+      <c r="F18" t="s">
+        <v>180</v>
+      </c>
+      <c r="G18" t="s">
+        <v>45</v>
+      </c>
+      <c r="H18" t="s">
+        <v>46</v>
+      </c>
+      <c r="I18" t="s">
+        <v>181</v>
+      </c>
+      <c r="J18" t="s">
+        <v>182</v>
+      </c>
+      <c r="K18" t="s">
+        <v>183</v>
+      </c>
+      <c r="L18" t="s">
+        <v>184</v>
+      </c>
+      <c r="M18" t="n">
+        <v>5</v>
+      </c>
+      <c r="N18" t="s">
+        <v>185</v>
+      </c>
+      <c r="O18" t="s">
+        <v>68</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="n">
+        <v>4</v>
+      </c>
+      <c r="R18" t="s"/>
+      <c r="S18" t="s"/>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>5</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s">
+        <v>186</v>
+      </c>
+      <c r="X18" t="s">
+        <v>187</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>38426</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
         <v>18</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E19" t="s">
+        <v>43</v>
+      </c>
+      <c r="F19" t="s">
+        <v>189</v>
+      </c>
+      <c r="G19" t="s">
+        <v>45</v>
+      </c>
+      <c r="H19" t="s">
+        <v>46</v>
+      </c>
+      <c r="I19" t="s">
+        <v>190</v>
+      </c>
+      <c r="J19" t="s">
+        <v>191</v>
+      </c>
+      <c r="K19" t="s">
+        <v>192</v>
+      </c>
+      <c r="L19" t="s">
+        <v>193</v>
+      </c>
+      <c r="M19" t="n">
+        <v>4</v>
+      </c>
+      <c r="N19" t="s">
+        <v>176</v>
+      </c>
+      <c r="O19" t="s">
+        <v>143</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="n">
+        <v>4</v>
+      </c>
+      <c r="R19" t="s"/>
+      <c r="S19" t="s"/>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>5</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s">
+        <v>194</v>
+      </c>
+      <c r="X19" t="s">
+        <v>195</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>38426</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
         <v>19</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E20" t="s">
+        <v>43</v>
+      </c>
+      <c r="F20" t="s">
+        <v>197</v>
+      </c>
+      <c r="G20" t="s">
+        <v>45</v>
+      </c>
+      <c r="H20" t="s">
+        <v>46</v>
+      </c>
+      <c r="I20" t="s">
+        <v>198</v>
+      </c>
+      <c r="J20" t="s">
+        <v>199</v>
+      </c>
+      <c r="K20" t="s">
+        <v>200</v>
+      </c>
+      <c r="L20" t="s">
+        <v>201</v>
+      </c>
+      <c r="M20" t="n">
+        <v>5</v>
+      </c>
+      <c r="N20" t="s">
+        <v>176</v>
+      </c>
+      <c r="O20" t="s">
+        <v>68</v>
+      </c>
+      <c r="P20" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="n">
+        <v>5</v>
+      </c>
+      <c r="S20" t="s"/>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>5</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s">
+        <v>202</v>
+      </c>
+      <c r="X20" t="s">
+        <v>203</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>38426</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
         <v>20</v>
       </c>
-      <c r="F1" t="s">
+      <c r="E21" t="s">
+        <v>43</v>
+      </c>
+      <c r="F21" t="s">
+        <v>205</v>
+      </c>
+      <c r="G21" t="s">
+        <v>45</v>
+      </c>
+      <c r="H21" t="s">
+        <v>46</v>
+      </c>
+      <c r="I21" t="s">
+        <v>206</v>
+      </c>
+      <c r="J21" t="s">
+        <v>207</v>
+      </c>
+      <c r="K21" t="s">
+        <v>208</v>
+      </c>
+      <c r="L21" t="s">
+        <v>209</v>
+      </c>
+      <c r="M21" t="n">
+        <v>4</v>
+      </c>
+      <c r="N21" t="s">
+        <v>176</v>
+      </c>
+      <c r="O21" t="s">
+        <v>68</v>
+      </c>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="n">
+        <v>4</v>
+      </c>
+      <c r="R21" t="s"/>
+      <c r="S21" t="s"/>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>5</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s"/>
+      <c r="X21" t="s"/>
+      <c r="Y21" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>38426</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
         <v>21</v>
       </c>
-      <c r="G1" t="s">
+      <c r="E22" t="s">
+        <v>43</v>
+      </c>
+      <c r="F22" t="s">
+        <v>210</v>
+      </c>
+      <c r="G22" t="s">
+        <v>45</v>
+      </c>
+      <c r="H22" t="s">
+        <v>46</v>
+      </c>
+      <c r="I22" t="s">
+        <v>211</v>
+      </c>
+      <c r="J22" t="s">
+        <v>212</v>
+      </c>
+      <c r="K22" t="s">
+        <v>213</v>
+      </c>
+      <c r="L22" t="s">
+        <v>214</v>
+      </c>
+      <c r="M22" t="n">
+        <v>5</v>
+      </c>
+      <c r="N22" t="s">
+        <v>185</v>
+      </c>
+      <c r="O22" t="s">
+        <v>143</v>
+      </c>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="n">
+        <v>4</v>
+      </c>
+      <c r="R22" t="s"/>
+      <c r="S22" t="n">
+        <v>5</v>
+      </c>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>5</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s">
+        <v>215</v>
+      </c>
+      <c r="X22" t="s">
+        <v>216</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>38426</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
         <v>22</v>
       </c>
-      <c r="H1" t="s">
+      <c r="E23" t="s">
+        <v>43</v>
+      </c>
+      <c r="F23" t="s">
+        <v>218</v>
+      </c>
+      <c r="G23" t="s">
+        <v>45</v>
+      </c>
+      <c r="H23" t="s">
+        <v>46</v>
+      </c>
+      <c r="I23" t="s">
+        <v>219</v>
+      </c>
+      <c r="J23" t="s">
+        <v>220</v>
+      </c>
+      <c r="K23" t="s">
+        <v>221</v>
+      </c>
+      <c r="L23" t="s">
+        <v>222</v>
+      </c>
+      <c r="M23" t="n">
+        <v>4</v>
+      </c>
+      <c r="N23" t="s">
+        <v>223</v>
+      </c>
+      <c r="O23" t="s">
+        <v>68</v>
+      </c>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="s"/>
+      <c r="R23" t="s"/>
+      <c r="S23" t="s"/>
+      <c r="T23" t="s"/>
+      <c r="U23" t="s"/>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s">
+        <v>224</v>
+      </c>
+      <c r="X23" t="s">
+        <v>225</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>38426</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
         <v>23</v>
       </c>
-      <c r="I1" t="s">
+      <c r="E24" t="s">
+        <v>43</v>
+      </c>
+      <c r="F24" t="s">
+        <v>227</v>
+      </c>
+      <c r="G24" t="s">
+        <v>45</v>
+      </c>
+      <c r="H24" t="s">
+        <v>46</v>
+      </c>
+      <c r="I24" t="s">
+        <v>228</v>
+      </c>
+      <c r="J24" t="s">
+        <v>229</v>
+      </c>
+      <c r="K24" t="s">
+        <v>230</v>
+      </c>
+      <c r="L24" t="s">
+        <v>231</v>
+      </c>
+      <c r="M24" t="n">
+        <v>5</v>
+      </c>
+      <c r="N24" t="s">
+        <v>232</v>
+      </c>
+      <c r="O24" t="s">
+        <v>68</v>
+      </c>
+      <c r="P24" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>5</v>
+      </c>
+      <c r="R24" t="s"/>
+      <c r="S24" t="s"/>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>5</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s">
+        <v>233</v>
+      </c>
+      <c r="X24" t="s">
+        <v>234</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>38426</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
         <v>24</v>
       </c>
-      <c r="J1" t="s">
+      <c r="E25" t="s">
+        <v>43</v>
+      </c>
+      <c r="F25" t="s">
+        <v>236</v>
+      </c>
+      <c r="G25" t="s">
+        <v>45</v>
+      </c>
+      <c r="H25" t="s">
+        <v>46</v>
+      </c>
+      <c r="I25" t="s">
+        <v>237</v>
+      </c>
+      <c r="J25" t="s">
+        <v>238</v>
+      </c>
+      <c r="K25" t="s">
+        <v>239</v>
+      </c>
+      <c r="L25" t="s">
+        <v>240</v>
+      </c>
+      <c r="M25" t="n">
+        <v>3</v>
+      </c>
+      <c r="N25" t="s">
+        <v>241</v>
+      </c>
+      <c r="O25" t="s">
+        <v>242</v>
+      </c>
+      <c r="P25" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="s"/>
+      <c r="S25" t="s"/>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>5</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s">
+        <v>243</v>
+      </c>
+      <c r="X25" t="s">
+        <v>244</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>38426</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
         <v>25</v>
       </c>
-      <c r="K1" t="s">
+      <c r="E26" t="s">
+        <v>43</v>
+      </c>
+      <c r="F26" t="s">
+        <v>246</v>
+      </c>
+      <c r="G26" t="s">
+        <v>45</v>
+      </c>
+      <c r="H26" t="s">
+        <v>46</v>
+      </c>
+      <c r="I26" t="s">
+        <v>247</v>
+      </c>
+      <c r="J26" t="s">
+        <v>248</v>
+      </c>
+      <c r="K26" t="s">
+        <v>249</v>
+      </c>
+      <c r="L26" t="s">
+        <v>250</v>
+      </c>
+      <c r="M26" t="n">
+        <v>5</v>
+      </c>
+      <c r="N26" t="s">
+        <v>251</v>
+      </c>
+      <c r="O26" t="s">
+        <v>68</v>
+      </c>
+      <c r="P26" t="s"/>
+      <c r="Q26" t="s"/>
+      <c r="R26" t="n">
+        <v>5</v>
+      </c>
+      <c r="S26" t="s"/>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>5</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s">
+        <v>252</v>
+      </c>
+      <c r="X26" t="s">
+        <v>253</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>38426</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
         <v>26</v>
       </c>
-      <c r="L1" t="s">
+      <c r="E27" t="s">
+        <v>43</v>
+      </c>
+      <c r="F27" t="s">
+        <v>255</v>
+      </c>
+      <c r="G27" t="s">
+        <v>45</v>
+      </c>
+      <c r="H27" t="s">
+        <v>46</v>
+      </c>
+      <c r="I27" t="s">
+        <v>256</v>
+      </c>
+      <c r="J27" t="s">
+        <v>257</v>
+      </c>
+      <c r="K27" t="s">
+        <v>258</v>
+      </c>
+      <c r="L27" t="s">
+        <v>259</v>
+      </c>
+      <c r="M27" t="n">
+        <v>5</v>
+      </c>
+      <c r="N27" t="s">
+        <v>260</v>
+      </c>
+      <c r="O27" t="s">
+        <v>143</v>
+      </c>
+      <c r="P27" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>5</v>
+      </c>
+      <c r="R27" t="s"/>
+      <c r="S27" t="s"/>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>5</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s"/>
+      <c r="X27" t="s"/>
+      <c r="Y27" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>38426</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
         <v>27</v>
       </c>
-      <c r="M1" t="s">
+      <c r="E28" t="s">
+        <v>43</v>
+      </c>
+      <c r="F28" t="s">
+        <v>262</v>
+      </c>
+      <c r="G28" t="s">
+        <v>45</v>
+      </c>
+      <c r="H28" t="s">
+        <v>46</v>
+      </c>
+      <c r="I28" t="s">
+        <v>263</v>
+      </c>
+      <c r="J28" t="s">
+        <v>264</v>
+      </c>
+      <c r="K28" t="s">
+        <v>265</v>
+      </c>
+      <c r="L28" t="s">
+        <v>266</v>
+      </c>
+      <c r="M28" t="n">
+        <v>5</v>
+      </c>
+      <c r="N28" t="s">
+        <v>267</v>
+      </c>
+      <c r="O28" t="s">
+        <v>52</v>
+      </c>
+      <c r="P28" t="s"/>
+      <c r="Q28" t="s"/>
+      <c r="R28" t="n">
+        <v>5</v>
+      </c>
+      <c r="S28" t="s"/>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>5</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s">
+        <v>268</v>
+      </c>
+      <c r="X28" t="s">
+        <v>269</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>38426</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
         <v>28</v>
       </c>
-      <c r="N1" t="s">
+      <c r="E29" t="s">
+        <v>43</v>
+      </c>
+      <c r="F29" t="s">
+        <v>271</v>
+      </c>
+      <c r="G29" t="s">
+        <v>45</v>
+      </c>
+      <c r="H29" t="s">
+        <v>46</v>
+      </c>
+      <c r="I29" t="s">
+        <v>272</v>
+      </c>
+      <c r="J29" t="s">
+        <v>273</v>
+      </c>
+      <c r="K29" t="s">
+        <v>274</v>
+      </c>
+      <c r="L29" t="s">
+        <v>275</v>
+      </c>
+      <c r="M29" t="n">
+        <v>2</v>
+      </c>
+      <c r="N29" t="s">
+        <v>276</v>
+      </c>
+      <c r="O29" t="s">
+        <v>143</v>
+      </c>
+      <c r="P29" t="s"/>
+      <c r="Q29" t="s"/>
+      <c r="R29" t="n">
+        <v>5</v>
+      </c>
+      <c r="S29" t="n">
+        <v>2</v>
+      </c>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>2</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s">
+        <v>277</v>
+      </c>
+      <c r="X29" t="s">
+        <v>278</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>38426</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
         <v>29</v>
       </c>
-      <c r="O1" t="s">
+      <c r="E30" t="s">
+        <v>43</v>
+      </c>
+      <c r="F30" t="s">
+        <v>280</v>
+      </c>
+      <c r="G30" t="s">
+        <v>45</v>
+      </c>
+      <c r="H30" t="s">
+        <v>46</v>
+      </c>
+      <c r="I30" t="s">
+        <v>281</v>
+      </c>
+      <c r="J30" t="s">
+        <v>282</v>
+      </c>
+      <c r="K30" t="s">
+        <v>283</v>
+      </c>
+      <c r="L30" t="s">
+        <v>284</v>
+      </c>
+      <c r="M30" t="n">
+        <v>4</v>
+      </c>
+      <c r="N30" t="s">
+        <v>285</v>
+      </c>
+      <c r="O30" t="s">
+        <v>242</v>
+      </c>
+      <c r="P30" t="s"/>
+      <c r="Q30" t="n">
+        <v>3</v>
+      </c>
+      <c r="R30" t="n">
+        <v>3</v>
+      </c>
+      <c r="S30" t="s"/>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>4</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s">
+        <v>286</v>
+      </c>
+      <c r="X30" t="s">
+        <v>287</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>38426</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
         <v>30</v>
       </c>
-      <c r="P1" t="s">
+      <c r="E31" t="s">
+        <v>43</v>
+      </c>
+      <c r="F31" t="s">
+        <v>289</v>
+      </c>
+      <c r="G31" t="s">
+        <v>45</v>
+      </c>
+      <c r="H31" t="s">
+        <v>46</v>
+      </c>
+      <c r="I31" t="s">
+        <v>290</v>
+      </c>
+      <c r="J31" t="s">
+        <v>291</v>
+      </c>
+      <c r="K31" t="s">
+        <v>292</v>
+      </c>
+      <c r="L31" t="s">
+        <v>293</v>
+      </c>
+      <c r="M31" t="n">
+        <v>4</v>
+      </c>
+      <c r="N31" t="s">
+        <v>294</v>
+      </c>
+      <c r="O31" t="s">
+        <v>242</v>
+      </c>
+      <c r="P31" t="s"/>
+      <c r="Q31" t="s"/>
+      <c r="R31" t="s"/>
+      <c r="S31" t="s"/>
+      <c r="T31" t="s"/>
+      <c r="U31" t="s"/>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s">
+        <v>295</v>
+      </c>
+      <c r="X31" t="s">
+        <v>296</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>38426</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
         <v>31</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="E32" t="s">
+        <v>43</v>
+      </c>
+      <c r="F32" t="s">
+        <v>298</v>
+      </c>
+      <c r="G32" t="s">
+        <v>45</v>
+      </c>
+      <c r="H32" t="s">
+        <v>46</v>
+      </c>
+      <c r="I32" t="s">
+        <v>299</v>
+      </c>
+      <c r="J32" t="s">
+        <v>300</v>
+      </c>
+      <c r="K32" t="s">
+        <v>301</v>
+      </c>
+      <c r="L32" t="s">
+        <v>302</v>
+      </c>
+      <c r="M32" t="n">
+        <v>2</v>
+      </c>
+      <c r="N32" t="s"/>
+      <c r="O32" t="s"/>
+      <c r="P32" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>3</v>
+      </c>
+      <c r="R32" t="n">
+        <v>3</v>
+      </c>
+      <c r="S32" t="n">
+        <v>1</v>
+      </c>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>1</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s">
+        <v>303</v>
+      </c>
+      <c r="X32" t="s">
+        <v>304</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>38426</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
         <v>32</v>
       </c>
-      <c r="R1" t="s">
+      <c r="E33" t="s">
+        <v>43</v>
+      </c>
+      <c r="F33" t="s">
+        <v>306</v>
+      </c>
+      <c r="G33" t="s">
+        <v>45</v>
+      </c>
+      <c r="H33" t="s">
+        <v>46</v>
+      </c>
+      <c r="I33" t="s">
+        <v>307</v>
+      </c>
+      <c r="J33" t="s">
+        <v>308</v>
+      </c>
+      <c r="K33" t="s">
+        <v>309</v>
+      </c>
+      <c r="L33" t="s">
+        <v>310</v>
+      </c>
+      <c r="M33" t="n">
+        <v>4</v>
+      </c>
+      <c r="N33" t="s">
+        <v>311</v>
+      </c>
+      <c r="O33" t="s">
+        <v>68</v>
+      </c>
+      <c r="P33" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>4</v>
+      </c>
+      <c r="R33" t="n">
+        <v>4</v>
+      </c>
+      <c r="S33" t="n">
+        <v>5</v>
+      </c>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>4</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s">
+        <v>312</v>
+      </c>
+      <c r="X33" t="s">
+        <v>313</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>38426</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
         <v>33</v>
       </c>
-      <c r="S1" t="s">
+      <c r="E34" t="s">
+        <v>43</v>
+      </c>
+      <c r="F34" t="s">
+        <v>315</v>
+      </c>
+      <c r="G34" t="s">
+        <v>45</v>
+      </c>
+      <c r="H34" t="s">
+        <v>46</v>
+      </c>
+      <c r="I34" t="s">
+        <v>316</v>
+      </c>
+      <c r="J34" t="s">
+        <v>317</v>
+      </c>
+      <c r="K34" t="s">
+        <v>318</v>
+      </c>
+      <c r="L34" t="s">
+        <v>319</v>
+      </c>
+      <c r="M34" t="n">
+        <v>3</v>
+      </c>
+      <c r="N34" t="s">
+        <v>320</v>
+      </c>
+      <c r="O34" t="s">
+        <v>68</v>
+      </c>
+      <c r="P34" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>3</v>
+      </c>
+      <c r="R34" t="n">
+        <v>3</v>
+      </c>
+      <c r="S34" t="n">
+        <v>3</v>
+      </c>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>3</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s">
+        <v>321</v>
+      </c>
+      <c r="X34" t="s">
+        <v>322</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>38426</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
         <v>34</v>
       </c>
-      <c r="T1" t="s">
+      <c r="E35" t="s">
+        <v>43</v>
+      </c>
+      <c r="F35" t="s">
+        <v>324</v>
+      </c>
+      <c r="G35" t="s">
+        <v>45</v>
+      </c>
+      <c r="H35" t="s">
+        <v>46</v>
+      </c>
+      <c r="I35" t="s">
+        <v>325</v>
+      </c>
+      <c r="J35" t="s">
+        <v>326</v>
+      </c>
+      <c r="K35" t="s">
+        <v>327</v>
+      </c>
+      <c r="L35" t="s">
+        <v>328</v>
+      </c>
+      <c r="M35" t="n">
+        <v>5</v>
+      </c>
+      <c r="N35" t="s">
+        <v>329</v>
+      </c>
+      <c r="O35" t="s">
+        <v>52</v>
+      </c>
+      <c r="P35" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>5</v>
+      </c>
+      <c r="R35" t="n">
+        <v>5</v>
+      </c>
+      <c r="S35" t="n">
+        <v>5</v>
+      </c>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>5</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s">
+        <v>330</v>
+      </c>
+      <c r="X35" t="s">
+        <v>331</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>38426</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
         <v>35</v>
       </c>
-      <c r="U1" t="s">
+      <c r="E36" t="s">
+        <v>43</v>
+      </c>
+      <c r="F36" t="s">
+        <v>333</v>
+      </c>
+      <c r="G36" t="s">
+        <v>45</v>
+      </c>
+      <c r="H36" t="s">
+        <v>46</v>
+      </c>
+      <c r="I36" t="s">
+        <v>334</v>
+      </c>
+      <c r="J36" t="s">
+        <v>335</v>
+      </c>
+      <c r="K36" t="s">
+        <v>336</v>
+      </c>
+      <c r="L36" t="s">
+        <v>337</v>
+      </c>
+      <c r="M36" t="n">
+        <v>5</v>
+      </c>
+      <c r="N36" t="s">
+        <v>338</v>
+      </c>
+      <c r="O36" t="s">
+        <v>242</v>
+      </c>
+      <c r="P36" t="s"/>
+      <c r="Q36" t="s"/>
+      <c r="R36" t="s"/>
+      <c r="S36" t="s"/>
+      <c r="T36" t="s"/>
+      <c r="U36" t="s"/>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s">
+        <v>339</v>
+      </c>
+      <c r="X36" t="s">
+        <v>340</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>38426</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
         <v>36</v>
       </c>
-      <c r="V1" t="s">
+      <c r="E37" t="s">
+        <v>43</v>
+      </c>
+      <c r="F37" t="s">
+        <v>342</v>
+      </c>
+      <c r="G37" t="s">
+        <v>45</v>
+      </c>
+      <c r="H37" t="s">
+        <v>46</v>
+      </c>
+      <c r="I37" t="s">
+        <v>343</v>
+      </c>
+      <c r="J37" t="s">
+        <v>344</v>
+      </c>
+      <c r="K37" t="s">
+        <v>345</v>
+      </c>
+      <c r="L37" t="s">
+        <v>346</v>
+      </c>
+      <c r="M37" t="n">
+        <v>5</v>
+      </c>
+      <c r="N37" t="s">
+        <v>347</v>
+      </c>
+      <c r="O37" t="s">
+        <v>143</v>
+      </c>
+      <c r="P37" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>5</v>
+      </c>
+      <c r="R37" t="n">
+        <v>5</v>
+      </c>
+      <c r="S37" t="n">
+        <v>5</v>
+      </c>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>4</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s">
+        <v>348</v>
+      </c>
+      <c r="X37" t="s">
+        <v>349</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>38426</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
         <v>37</v>
       </c>
-      <c r="W1" t="s">
+      <c r="E38" t="s">
+        <v>43</v>
+      </c>
+      <c r="F38" t="s">
+        <v>351</v>
+      </c>
+      <c r="G38" t="s">
+        <v>45</v>
+      </c>
+      <c r="H38" t="s">
+        <v>46</v>
+      </c>
+      <c r="I38" t="s">
+        <v>352</v>
+      </c>
+      <c r="J38" t="s">
+        <v>353</v>
+      </c>
+      <c r="K38" t="s">
+        <v>354</v>
+      </c>
+      <c r="L38" t="s">
+        <v>355</v>
+      </c>
+      <c r="M38" t="n">
+        <v>5</v>
+      </c>
+      <c r="N38" t="s">
+        <v>356</v>
+      </c>
+      <c r="O38" t="s">
+        <v>68</v>
+      </c>
+      <c r="P38" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>5</v>
+      </c>
+      <c r="R38" t="n">
+        <v>5</v>
+      </c>
+      <c r="S38" t="n">
+        <v>5</v>
+      </c>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>5</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s">
+        <v>357</v>
+      </c>
+      <c r="X38" t="s">
+        <v>358</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>38426</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
         <v>38</v>
       </c>
-      <c r="X1" t="s">
+      <c r="E39" t="s">
+        <v>43</v>
+      </c>
+      <c r="F39" t="s">
+        <v>360</v>
+      </c>
+      <c r="G39" t="s">
+        <v>45</v>
+      </c>
+      <c r="H39" t="s">
+        <v>46</v>
+      </c>
+      <c r="I39" t="s">
+        <v>361</v>
+      </c>
+      <c r="J39" t="s">
+        <v>362</v>
+      </c>
+      <c r="K39" t="s">
+        <v>363</v>
+      </c>
+      <c r="L39" t="s">
+        <v>364</v>
+      </c>
+      <c r="M39" t="n">
+        <v>5</v>
+      </c>
+      <c r="N39" t="s">
+        <v>365</v>
+      </c>
+      <c r="O39" t="s">
+        <v>242</v>
+      </c>
+      <c r="P39" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>4</v>
+      </c>
+      <c r="R39" t="n">
+        <v>3</v>
+      </c>
+      <c r="S39" t="n">
+        <v>5</v>
+      </c>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>5</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s">
+        <v>366</v>
+      </c>
+      <c r="X39" t="s">
+        <v>367</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>38426</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
         <v>39</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="E40" t="s">
+        <v>43</v>
+      </c>
+      <c r="F40" t="s">
+        <v>369</v>
+      </c>
+      <c r="G40" t="s">
+        <v>45</v>
+      </c>
+      <c r="H40" t="s">
+        <v>46</v>
+      </c>
+      <c r="I40" t="s">
+        <v>370</v>
+      </c>
+      <c r="J40" t="s">
+        <v>371</v>
+      </c>
+      <c r="K40" t="s">
+        <v>372</v>
+      </c>
+      <c r="L40" t="s">
+        <v>373</v>
+      </c>
+      <c r="M40" t="n">
+        <v>3</v>
+      </c>
+      <c r="N40" t="s">
+        <v>374</v>
+      </c>
+      <c r="O40" t="s">
+        <v>242</v>
+      </c>
+      <c r="P40" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>4</v>
+      </c>
+      <c r="R40" t="n">
+        <v>4</v>
+      </c>
+      <c r="S40" t="n">
+        <v>4</v>
+      </c>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>3</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s">
+        <v>375</v>
+      </c>
+      <c r="X40" t="s">
+        <v>376</v>
+      </c>
+      <c r="Y40" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>38426</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
         <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>43</v>
+      </c>
+      <c r="F41" t="s">
+        <v>378</v>
+      </c>
+      <c r="G41" t="s">
+        <v>45</v>
+      </c>
+      <c r="H41" t="s">
+        <v>46</v>
+      </c>
+      <c r="I41" t="s">
+        <v>379</v>
+      </c>
+      <c r="J41" t="s">
+        <v>380</v>
+      </c>
+      <c r="K41" t="s">
+        <v>381</v>
+      </c>
+      <c r="L41" t="s">
+        <v>382</v>
+      </c>
+      <c r="M41" t="n">
+        <v>5</v>
+      </c>
+      <c r="N41" t="s">
+        <v>383</v>
+      </c>
+      <c r="O41" t="s">
+        <v>52</v>
+      </c>
+      <c r="P41" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>5</v>
+      </c>
+      <c r="R41" t="n">
+        <v>5</v>
+      </c>
+      <c r="S41" t="n">
+        <v>5</v>
+      </c>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>5</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s">
+        <v>384</v>
+      </c>
+      <c r="X41" t="s">
+        <v>385</v>
+      </c>
+      <c r="Y41" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>38426</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>43</v>
+      </c>
+      <c r="F42" t="s">
+        <v>387</v>
+      </c>
+      <c r="G42" t="s">
+        <v>45</v>
+      </c>
+      <c r="H42" t="s">
+        <v>46</v>
+      </c>
+      <c r="I42" t="s">
+        <v>388</v>
+      </c>
+      <c r="J42" t="s">
+        <v>389</v>
+      </c>
+      <c r="K42" t="s">
+        <v>390</v>
+      </c>
+      <c r="L42" t="s">
+        <v>391</v>
+      </c>
+      <c r="M42" t="n">
+        <v>4</v>
+      </c>
+      <c r="N42" t="s">
+        <v>392</v>
+      </c>
+      <c r="O42" t="s">
+        <v>242</v>
+      </c>
+      <c r="P42" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>4</v>
+      </c>
+      <c r="R42" t="n">
+        <v>2</v>
+      </c>
+      <c r="S42" t="n">
+        <v>4</v>
+      </c>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>5</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s">
+        <v>393</v>
+      </c>
+      <c r="X42" t="s">
+        <v>394</v>
+      </c>
+      <c r="Y42" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>38426</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>43</v>
+      </c>
+      <c r="F43" t="s">
+        <v>396</v>
+      </c>
+      <c r="G43" t="s">
+        <v>45</v>
+      </c>
+      <c r="H43" t="s">
+        <v>46</v>
+      </c>
+      <c r="I43" t="s">
+        <v>397</v>
+      </c>
+      <c r="J43" t="s">
+        <v>398</v>
+      </c>
+      <c r="K43" t="s">
+        <v>399</v>
+      </c>
+      <c r="L43" t="s">
+        <v>400</v>
+      </c>
+      <c r="M43" t="n">
+        <v>5</v>
+      </c>
+      <c r="N43" t="s">
+        <v>401</v>
+      </c>
+      <c r="O43" t="s">
+        <v>242</v>
+      </c>
+      <c r="P43" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>5</v>
+      </c>
+      <c r="R43" t="n">
+        <v>4</v>
+      </c>
+      <c r="S43" t="n">
+        <v>5</v>
+      </c>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>5</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s">
+        <v>402</v>
+      </c>
+      <c r="X43" t="s">
+        <v>403</v>
+      </c>
+      <c r="Y43" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>38426</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>43</v>
+      </c>
+      <c r="F44" t="s">
+        <v>405</v>
+      </c>
+      <c r="G44" t="s">
+        <v>45</v>
+      </c>
+      <c r="H44" t="s">
+        <v>46</v>
+      </c>
+      <c r="I44" t="s">
+        <v>406</v>
+      </c>
+      <c r="J44" t="s">
+        <v>407</v>
+      </c>
+      <c r="K44" t="s">
+        <v>408</v>
+      </c>
+      <c r="L44" t="s">
+        <v>409</v>
+      </c>
+      <c r="M44" t="n">
+        <v>4</v>
+      </c>
+      <c r="N44" t="s">
+        <v>410</v>
+      </c>
+      <c r="O44" t="s">
+        <v>242</v>
+      </c>
+      <c r="P44" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>5</v>
+      </c>
+      <c r="R44" t="n">
+        <v>4</v>
+      </c>
+      <c r="S44" t="n">
+        <v>4</v>
+      </c>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>4</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s"/>
+      <c r="X44" t="s"/>
+      <c r="Y44" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>38426</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>43</v>
+      </c>
+      <c r="F45" t="s">
+        <v>411</v>
+      </c>
+      <c r="G45" t="s">
+        <v>45</v>
+      </c>
+      <c r="H45" t="s">
+        <v>46</v>
+      </c>
+      <c r="I45" t="s">
+        <v>412</v>
+      </c>
+      <c r="J45" t="s">
+        <v>413</v>
+      </c>
+      <c r="K45" t="s">
+        <v>414</v>
+      </c>
+      <c r="L45" t="s">
+        <v>415</v>
+      </c>
+      <c r="M45" t="n">
+        <v>4</v>
+      </c>
+      <c r="N45" t="s">
+        <v>416</v>
+      </c>
+      <c r="O45" t="s">
+        <v>242</v>
+      </c>
+      <c r="P45" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>4</v>
+      </c>
+      <c r="R45" t="n">
+        <v>3</v>
+      </c>
+      <c r="S45" t="n">
+        <v>4</v>
+      </c>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>3</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s"/>
+      <c r="X45" t="s"/>
+      <c r="Y45" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>38426</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>43</v>
+      </c>
+      <c r="F46" t="s">
+        <v>418</v>
+      </c>
+      <c r="G46" t="s">
+        <v>45</v>
+      </c>
+      <c r="H46" t="s">
+        <v>46</v>
+      </c>
+      <c r="I46" t="s">
+        <v>419</v>
+      </c>
+      <c r="J46" t="s">
+        <v>420</v>
+      </c>
+      <c r="K46" t="s">
+        <v>421</v>
+      </c>
+      <c r="L46" t="s">
+        <v>422</v>
+      </c>
+      <c r="M46" t="n">
+        <v>4</v>
+      </c>
+      <c r="N46" t="s">
+        <v>423</v>
+      </c>
+      <c r="O46" t="s">
+        <v>242</v>
+      </c>
+      <c r="P46" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>4</v>
+      </c>
+      <c r="R46" t="n">
+        <v>4</v>
+      </c>
+      <c r="S46" t="n">
+        <v>5</v>
+      </c>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>4</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s"/>
+      <c r="X46" t="s"/>
+      <c r="Y46" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>38426</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>43</v>
+      </c>
+      <c r="F47" t="s">
+        <v>424</v>
+      </c>
+      <c r="G47" t="s">
+        <v>45</v>
+      </c>
+      <c r="H47" t="s">
+        <v>46</v>
+      </c>
+      <c r="I47" t="s">
+        <v>425</v>
+      </c>
+      <c r="J47" t="s">
+        <v>426</v>
+      </c>
+      <c r="K47" t="s">
+        <v>427</v>
+      </c>
+      <c r="L47" t="s">
+        <v>428</v>
+      </c>
+      <c r="M47" t="n">
+        <v>4</v>
+      </c>
+      <c r="N47" t="s">
+        <v>429</v>
+      </c>
+      <c r="O47" t="s">
+        <v>68</v>
+      </c>
+      <c r="P47" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>4</v>
+      </c>
+      <c r="R47" t="n">
+        <v>5</v>
+      </c>
+      <c r="S47" t="n">
+        <v>5</v>
+      </c>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>4</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s"/>
+      <c r="X47" t="s"/>
+      <c r="Y47" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>38426</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>43</v>
+      </c>
+      <c r="F48" t="s">
+        <v>431</v>
+      </c>
+      <c r="G48" t="s">
+        <v>45</v>
+      </c>
+      <c r="H48" t="s">
+        <v>46</v>
+      </c>
+      <c r="I48" t="s">
+        <v>432</v>
+      </c>
+      <c r="J48" t="s">
+        <v>433</v>
+      </c>
+      <c r="K48" t="s">
+        <v>434</v>
+      </c>
+      <c r="L48" t="s">
+        <v>435</v>
+      </c>
+      <c r="M48" t="n">
+        <v>5</v>
+      </c>
+      <c r="N48" t="s">
+        <v>436</v>
+      </c>
+      <c r="O48" t="s">
+        <v>52</v>
+      </c>
+      <c r="P48" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>5</v>
+      </c>
+      <c r="R48" t="n">
+        <v>5</v>
+      </c>
+      <c r="S48" t="n">
+        <v>5</v>
+      </c>
+      <c r="T48" t="s"/>
+      <c r="U48" t="s"/>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s"/>
+      <c r="X48" t="s"/>
+      <c r="Y48" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>38426</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>43</v>
+      </c>
+      <c r="F49" t="s">
+        <v>438</v>
+      </c>
+      <c r="G49" t="s">
+        <v>45</v>
+      </c>
+      <c r="H49" t="s">
+        <v>46</v>
+      </c>
+      <c r="I49" t="s">
+        <v>439</v>
+      </c>
+      <c r="J49" t="s">
+        <v>440</v>
+      </c>
+      <c r="K49" t="s">
+        <v>441</v>
+      </c>
+      <c r="L49" t="s">
+        <v>442</v>
+      </c>
+      <c r="M49" t="n">
+        <v>4</v>
+      </c>
+      <c r="N49" t="s">
+        <v>443</v>
+      </c>
+      <c r="O49" t="s">
+        <v>68</v>
+      </c>
+      <c r="P49" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>5</v>
+      </c>
+      <c r="R49" t="n">
+        <v>4</v>
+      </c>
+      <c r="S49" t="n">
+        <v>3</v>
+      </c>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>4</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s"/>
+      <c r="X49" t="s"/>
+      <c r="Y49" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>38426</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>43</v>
+      </c>
+      <c r="F50" t="s">
+        <v>444</v>
+      </c>
+      <c r="G50" t="s">
+        <v>45</v>
+      </c>
+      <c r="H50" t="s">
+        <v>46</v>
+      </c>
+      <c r="I50" t="s">
+        <v>445</v>
+      </c>
+      <c r="J50" t="s">
+        <v>446</v>
+      </c>
+      <c r="K50" t="s">
+        <v>447</v>
+      </c>
+      <c r="L50" t="s">
+        <v>448</v>
+      </c>
+      <c r="M50" t="n">
+        <v>5</v>
+      </c>
+      <c r="N50" t="s"/>
+      <c r="O50" t="s"/>
+      <c r="P50" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>5</v>
+      </c>
+      <c r="R50" t="s"/>
+      <c r="S50" t="n">
+        <v>5</v>
+      </c>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>5</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s"/>
+      <c r="X50" t="s"/>
+      <c r="Y50" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>38426</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>43</v>
+      </c>
+      <c r="F51" t="s">
+        <v>450</v>
+      </c>
+      <c r="G51" t="s">
+        <v>45</v>
+      </c>
+      <c r="H51" t="s">
+        <v>46</v>
+      </c>
+      <c r="I51" t="s">
+        <v>451</v>
+      </c>
+      <c r="J51" t="s">
+        <v>452</v>
+      </c>
+      <c r="K51" t="s">
+        <v>453</v>
+      </c>
+      <c r="L51" t="s">
+        <v>454</v>
+      </c>
+      <c r="M51" t="n">
+        <v>4</v>
+      </c>
+      <c r="N51" t="s"/>
+      <c r="O51" t="s"/>
+      <c r="P51" t="s"/>
+      <c r="Q51" t="s"/>
+      <c r="R51" t="s"/>
+      <c r="S51" t="s"/>
+      <c r="T51" t="s"/>
+      <c r="U51" t="s"/>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s"/>
+      <c r="X51" t="s"/>
+      <c r="Y51" t="s">
+        <v>454</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Houston/Houston_shard_117.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_117.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="455">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="716">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -147,18 +147,69 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>08/06/2018</t>
+    <t>09/03/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d106758-r602500172-Comfort_Suites-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>56110</t>
+  </si>
+  <si>
+    <t>106758</t>
+  </si>
+  <si>
+    <t>602500172</t>
+  </si>
+  <si>
+    <t>08/03/2018</t>
+  </si>
+  <si>
+    <t>Impressed and satisfied</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We stayed here for 4 nights to visit local attractions like NASA, USS Texas, Zoo, Aquarium, Boardwalk, Natural History Museum, and Galveston.  The room was very big and clean.  The bathroom was large and always well stocked with essentials.  The staff was always friendly and helpful.  A hot breakfast of scrambled eggs, sausage or bacon, and grits were offered daily.  They also had waffles, cereal, yogurt, toast, donuts, and fruit.  They also have a gazebo on the property which people seemed to enjoy.  </t>
+  </si>
+  <si>
+    <t>August 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d106758-r567503968-Comfort_Suites-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>567503968</t>
+  </si>
+  <si>
+    <t>03/19/2018</t>
+  </si>
+  <si>
+    <t>Great Hotel!</t>
+  </si>
+  <si>
+    <t>This hotel is a gem of a find! It's a little drive from there to most points of interest but our room was very clean and HUGE! Breakfast was good, the staff was great and it was a great value over all. We would definitely stay here again! Highly recommend it!MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>cathy m, General Manager at Comfort Suites, responded to this reviewResponded March 26, 2018</t>
+  </si>
+  <si>
+    <t>Responded March 26, 2018</t>
+  </si>
+  <si>
+    <t>This hotel is a gem of a find! It's a little drive from there to most points of interest but our room was very clean and HUGE! Breakfast was good, the staff was great and it was a great value over all. We would definitely stay here again! Highly recommend it!More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d106758-r564302328-Comfort_Suites-La_Porte_Texas.html</t>
   </si>
   <si>
-    <t>56110</t>
-  </si>
-  <si>
-    <t>106758</t>
-  </si>
-  <si>
     <t>564302328</t>
   </si>
   <si>
@@ -171,12 +222,6 @@
     <t>Stayed with another couple prior too going on a cruise 3/4/18. Place was clean. Bed was comfortable as well as room. Front desk lacked information about restaurants in the area, nor, did we find it in the folder marked guest information in the room. Ordered pizza had it delivered. MoreShow less</t>
   </si>
   <si>
-    <t>March 2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> traveled as a couple</t>
-  </si>
-  <si>
     <t>cathy m, General Manager at Comfort Suites, responded to this reviewResponded March 5, 2018</t>
   </si>
   <si>
@@ -222,9 +267,6 @@
     <t>January 2018</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled with family</t>
-  </si>
-  <si>
     <t>Cathy Krupski M, General Manager at Comfort Suites, responded to this reviewResponded January 17, 2018</t>
   </si>
   <si>
@@ -234,6 +276,60 @@
     <t>First thing one notices inside the room is that the fit and fixtures are a bit tired and dated, especially in the case of the bathtub (yucky grout).Room is nice enough, and fridge and microwave are plenty large. Surprisingly, there's no bottle opener, and even the front desk had to search a long time to find one - I didn't even try to ask for a wine key - bring your own or buy a screw top, lol.Breakfast is fine. Best part of the property is that if you travel with a large group, there's a nice conference room you can eat and meet in, no charge if it's available. Very nice staff. Price seemed high considering the state of the property, but the other suite hotels were full on these dates so this was OK.Within easy walking distance to the local high school football stadium.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d106758-r550735994-Comfort_Suites-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>550735994</t>
+  </si>
+  <si>
+    <t>01/01/2018</t>
+  </si>
+  <si>
+    <t>Very pleasant stay, nice room, clean, quiet, nice breakfast--excellent value</t>
+  </si>
+  <si>
+    <t>I stayed here for one night in December 2017.Check-in was quick and easy.Staff was very competent and professional.The room was spacious and very comfortable.  Had a great night's sleep.  I was concerned that being so close to Hwy 146 it might be noisy, but the room was quiet and peaceful.Breakfast was really quite good, better than I expected.Overall, this hotel compared favorable to a Hampton Inn, and much more affordable.  I would definitely stay here again, and hope to do so.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2017</t>
+  </si>
+  <si>
+    <t>cathy m, General Manager at Comfort Suites, responded to this reviewResponded January 3, 2018</t>
+  </si>
+  <si>
+    <t>Responded January 3, 2018</t>
+  </si>
+  <si>
+    <t>I stayed here for one night in December 2017.Check-in was quick and easy.Staff was very competent and professional.The room was spacious and very comfortable.  Had a great night's sleep.  I was concerned that being so close to Hwy 146 it might be noisy, but the room was quiet and peaceful.Breakfast was really quite good, better than I expected.Overall, this hotel compared favorable to a Hampton Inn, and much more affordable.  I would definitely stay here again, and hope to do so.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d106758-r529235052-Comfort_Suites-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>529235052</t>
+  </si>
+  <si>
+    <t>10/02/2017</t>
+  </si>
+  <si>
+    <t>Convenient Overnight Stay Before a Cruise</t>
+  </si>
+  <si>
+    <t>This hotel is in a great location coming from Oklahoma on the way to Galveston.  We were able to use the turnpike system and avoid traffic on a Friday afternoon. The hotel is very nice, has an above average breakfast and there were plenty of dinner choices nearby.  Our room was clean, the bed was comfortable and the air conditioning was awesome.  Have already booked return stays.  MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2017</t>
+  </si>
+  <si>
+    <t>cathy m, General Manager at Comfort Suites, responded to this reviewResponded October 4, 2017</t>
+  </si>
+  <si>
+    <t>Responded October 4, 2017</t>
+  </si>
+  <si>
+    <t>This hotel is in a great location coming from Oklahoma on the way to Galveston.  We were able to use the turnpike system and avoid traffic on a Friday afternoon. The hotel is very nice, has an above average breakfast and there were plenty of dinner choices nearby.  Our room was clean, the bed was comfortable and the air conditioning was awesome.  Have already booked return stays.  More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d106758-r516005449-Comfort_Suites-La_Porte_Texas.html</t>
   </si>
   <si>
@@ -315,6 +411,57 @@
     <t>Yes, this place has a year round pool and in La Porte Texas in the spring is wonderful. Good eats at 7-10 and the staff is dedicated to care for guests. Fast check in with a room upgrade was well appreciated. Clean rooms with housekeeping available when needed. No wonder Major Dan will return.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d106758-r467863932-Comfort_Suites-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>467863932</t>
+  </si>
+  <si>
+    <t>03/16/2017</t>
+  </si>
+  <si>
+    <t>It's Good Enough</t>
+  </si>
+  <si>
+    <t>The room was fine, and large, but a bit dated.  Had a fridge and microwave.  One one elevator for the whole place. There were stains on the curtains, carpet and furniture, but nothing gross.  Everything was a bit worn and nothing. Tub looked hodge-podged together.  But the worst part was the terrible shower pressure (on 3rd floor), hot water that would only get barely warm, and the apathetic night-time front desk staff.MoreShow less</t>
+  </si>
+  <si>
+    <t>Cathy M, General Manager at Comfort Suites, responded to this reviewResponded March 20, 2017</t>
+  </si>
+  <si>
+    <t>Responded March 20, 2017</t>
+  </si>
+  <si>
+    <t>The room was fine, and large, but a bit dated.  Had a fridge and microwave.  One one elevator for the whole place. There were stains on the curtains, carpet and furniture, but nothing gross.  Everything was a bit worn and nothing. Tub looked hodge-podged together.  But the worst part was the terrible shower pressure (on 3rd floor), hot water that would only get barely warm, and the apathetic night-time front desk staff.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d106758-r457026650-Comfort_Suites-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>457026650</t>
+  </si>
+  <si>
+    <t>02/03/2017</t>
+  </si>
+  <si>
+    <t>nice hotel, clean room</t>
+  </si>
+  <si>
+    <t>My wife and I enjoyed our stay at this hotel. It was clean, quiet and had a nice breakfast. Check-in was quick and carried out by friendly staff. If you do stay here be sure to visit the USS Texas battleship memorial and the San Jacinto monument. Both are fantastic.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2017</t>
+  </si>
+  <si>
+    <t>Cathy Krupski M, General Manager at Comfort Suites, responded to this reviewResponded February 6, 2017</t>
+  </si>
+  <si>
+    <t>Responded February 6, 2017</t>
+  </si>
+  <si>
+    <t>My wife and I enjoyed our stay at this hotel. It was clean, quiet and had a nice breakfast. Check-in was quick and carried out by friendly staff. If you do stay here be sure to visit the USS Texas battleship memorial and the San Jacinto monument. Both are fantastic.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d106758-r432671297-Comfort_Suites-La_Porte_Texas.html</t>
   </si>
   <si>
@@ -384,6 +531,60 @@
     <t>We booked here to be visit the San Jacinto Monument and the Battleship Texas.  We found it a very easy and pleasant drive to both of these locations.The approach to the hotel is through a run down neighborhood that had us a bit concerned.  However the hotel was looked very fresh and welcoming inside and out.  The staff was very friendly and helpful.  The open lobby was very attractive and ice cold lemon water was always available.We had booked a room with 2 queen beds but when we walked into our room we found 1 king bed.  As we looked around we saw an open side door into an entire separate bedroom.  We thought this arrangement would have been perfect for families with children or grandparents traveling with children.  The second bedroom had only a bed and dresser but it was its own room with separate air conditioning.  The main bedroom also had a couch which was a pull out bed. There were 2 areas to hang clothes.  Very roomy and will appointed.The bathroom was very big and well lit. We loved the location of the hotel.  Very quiet.  Only 2 blocks from the beach.  Easy access to highways.  We would definitely book again.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d106758-r422032013-Comfort_Suites-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>422032013</t>
+  </si>
+  <si>
+    <t>09/25/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wonderful staff! </t>
+  </si>
+  <si>
+    <t>We arrived after 9pm and had a very welcoming front desk clerk. She told us we could use the hot tub after 10:30 if we were quiet and, when my husband learned she had been to the hotel where Stephen King wrote the book, "The Shining" , he asked if they had any ghosts there! Well...  I'll let you ask about that but it was a great welcome and the hotel is very comfy and clean. I recommend it and will stop here again on my next visit to the coast! MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2016</t>
+  </si>
+  <si>
+    <t>Cathy M, General Manager at Comfort Suites, responded to this reviewResponded September 26, 2016</t>
+  </si>
+  <si>
+    <t>Responded September 26, 2016</t>
+  </si>
+  <si>
+    <t>We arrived after 9pm and had a very welcoming front desk clerk. She told us we could use the hot tub after 10:30 if we were quiet and, when my husband learned she had been to the hotel where Stephen King wrote the book, "The Shining" , he asked if they had any ghosts there! Well...  I'll let you ask about that but it was a great welcome and the hotel is very comfy and clean. I recommend it and will stop here again on my next visit to the coast! More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d106758-r421042549-Comfort_Suites-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>421042549</t>
+  </si>
+  <si>
+    <t>09/21/2016</t>
+  </si>
+  <si>
+    <t>Great place to stay!</t>
+  </si>
+  <si>
+    <t>We stayed in an accessable room on the 2nd floor and every thing was fine! They have an elevator that made everthing easy! We stayed a couple of nights before our cruise out of Galveston! I am constantly impressed with choice hotels!MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t>Cathy M, General Manager at Comfort Suites, responded to this reviewResponded September 23, 2016</t>
+  </si>
+  <si>
+    <t>Responded September 23, 2016</t>
+  </si>
+  <si>
+    <t>We stayed in an accessable room on the 2nd floor and every thing was fine! They have an elevator that made everthing easy! We stayed a couple of nights before our cruise out of Galveston! I am constantly impressed with choice hotels!More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d106758-r415091897-Comfort_Suites-La_Porte_Texas.html</t>
   </si>
   <si>
@@ -399,9 +600,6 @@
     <t>This hotel was great. It was clean,  breakfast was ok, the pool needed some attention,  but overall we enjoyed our stay.  The staff were very nice and accommodating. We have stayed in another one across the highway,  and not as nice.  This was fit our family perfectly.  Great location. MoreShow less</t>
   </si>
   <si>
-    <t>September 2016</t>
-  </si>
-  <si>
     <t>Cathy Krupski M, General Manager at Comfort Suites, responded to this reviewResponded September 7, 2016</t>
   </si>
   <si>
@@ -444,9 +642,6 @@
     <t>We had a great time at the hotel, it was clean, the beds were comfortable, the staff was very friendly and the size of the rooms was excellent for our stay. I agree the hotel may show some age, but it was VERY clean! A priority for all of us. I have to compliment the lady responsible for the breakfast area, she stayed on it! The food was fresh and she worked to keep it supplied and the tables clean. There are 4 of us that get together on a regular basis and usually stay at a hotel closer to Kemah or Galveston. We made the decision to stay here due to the summer rates at other locations and the ratings from other guests. No doubt, we will be back!MoreShow less</t>
   </si>
   <si>
-    <t>July 2016</t>
-  </si>
-  <si>
     <t xml:space="preserve"> traveled with friends</t>
   </si>
   <si>
@@ -459,6 +654,51 @@
     <t>We had a great time at the hotel, it was clean, the beds were comfortable, the staff was very friendly and the size of the rooms was excellent for our stay. I agree the hotel may show some age, but it was VERY clean! A priority for all of us. I have to compliment the lady responsible for the breakfast area, she stayed on it! The food was fresh and she worked to keep it supplied and the tables clean. There are 4 of us that get together on a regular basis and usually stay at a hotel closer to Kemah or Galveston. We made the decision to stay here due to the summer rates at other locations and the ratings from other guests. No doubt, we will be back!More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d106758-r393256545-Comfort_Suites-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>393256545</t>
+  </si>
+  <si>
+    <t>07/16/2016</t>
+  </si>
+  <si>
+    <t>Location Location Location!!!</t>
+  </si>
+  <si>
+    <t>Great modest B&amp;B located in an strategic area on East Texas!  We enjoy a day trip to NASA's Johnson Space Center, stay the night at this Comfort Inn and then continue to the San Jacinto Battleground &amp; Battleship Texas Monuments!  The staff was great, the rooms were big/clean and the breakfast way better than expected!  Good job guys, keep it up!MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2016</t>
+  </si>
+  <si>
+    <t>Great modest B&amp;B located in an strategic area on East Texas!  We enjoy a day trip to NASA's Johnson Space Center, stay the night at this Comfort Inn and then continue to the San Jacinto Battleground &amp; Battleship Texas Monuments!  The staff was great, the rooms were big/clean and the breakfast way better than expected!  Good job guys, keep it up!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d106758-r381847027-Comfort_Suites-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>381847027</t>
+  </si>
+  <si>
+    <t>06/12/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nice staff in a worn hotel </t>
+  </si>
+  <si>
+    <t>Super welcoming and nice staff. Breakfast was good for a traditional continental hotel one. The room was clean but very dated and worn. Carpeting and furniture could use an overhaul.  The bedding was nice, clean, and newer. But overall this place really needs an update. MoreShow less</t>
+  </si>
+  <si>
+    <t>Cathy Krupski M, General Manager at Comfort Suites, responded to this reviewResponded June 13, 2016</t>
+  </si>
+  <si>
+    <t>Responded June 13, 2016</t>
+  </si>
+  <si>
+    <t>Super welcoming and nice staff. Breakfast was good for a traditional continental hotel one. The room was clean but very dated and worn. Carpeting and furniture could use an overhaul.  The bedding was nice, clean, and newer. But overall this place really needs an update. More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d106758-r381749161-Comfort_Suites-La_Porte_Texas.html</t>
   </si>
   <si>
@@ -468,9 +708,6 @@
     <t>06/11/2016</t>
   </si>
   <si>
-    <t>Great place to stay!</t>
-  </si>
-  <si>
     <t>My family and I were looking for a nice, clean place to stay before we boarded our cruise ship in Galveston a couple of weeks ago.  Hotel prices closer to the port were a little more than we wanted to pay, and the money we saved staying 30 minutes away was well worth the extra few minutes' drive on departure day.  The staff at Comfort Suites was friendly, check in was hassle free, and -- most importantly -- our room was clean and quiet.  The only down side was that our television didn't work, but after being in the car all day and needing to rest, we didn't really mind too much.  Didn't use the pool, but it looked very clean and well maintained. The complementary breakfast was decent, not the best we've had but certainly not the worst either. Overall, would highly recommend this hotel and will plan to stay there again for any future cruises out of Galveston.MoreShow less</t>
   </si>
   <si>
@@ -529,6 +766,51 @@
   </si>
   <si>
     <t>The comfort suites offers large rooms with a sitting area/ sofa bed and one or two main beds.  This is great for a family of 5-6, which we were.  There was ample room for everyone's things as well as plenty of blankets and pillows.  The staff were especially friendly.  Breakfast was not spectacular, but it was more than a grab and go muffin, which was fine with us. Wifi had a good signal. The pool was clean and well kept.  The property does appear to be quite old and some things were in disrepair and the beds were not all that comfortable. For the price we paid and for only 2 nights, it was just fine and close enough to the Kemah attractions.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d106758-r363059147-Comfort_Suites-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>363059147</t>
+  </si>
+  <si>
+    <t>04/10/2016</t>
+  </si>
+  <si>
+    <t>Unacceptable breakfast</t>
+  </si>
+  <si>
+    <t>The motel was clean and beds were comfortable.  Breakfast was empty a half hour before the time it was to end.  When asked for items to be replenished they did not put enough out to feed the 6 guests of our party and there were others that came in after we did.  No rolls, no waffle batter, no yogurt, no milk for cereal and very little else.They would have received 5 stars had the breakfast not been so under supplied.MoreShow less</t>
+  </si>
+  <si>
+    <t>Cathy5, General Manager at Comfort Suites, responded to this reviewResponded April 11, 2016</t>
+  </si>
+  <si>
+    <t>Responded April 11, 2016</t>
+  </si>
+  <si>
+    <t>The motel was clean and beds were comfortable.  Breakfast was empty a half hour before the time it was to end.  When asked for items to be replenished they did not put enough out to feed the 6 guests of our party and there were others that came in after we did.  No rolls, no waffle batter, no yogurt, no milk for cereal and very little else.They would have received 5 stars had the breakfast not been so under supplied.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d106758-r362407233-Comfort_Suites-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>362407233</t>
+  </si>
+  <si>
+    <t>04/07/2016</t>
+  </si>
+  <si>
+    <t>Good Choice for a one night stay!</t>
+  </si>
+  <si>
+    <t>I arrived after dark and it was a bit tricky to find.  Check in was easy.  The staff are all very friendly.  My room was clean and comfortable. Bed was nice.   I would certainly stay here again for a business trip.  Breakfast was plentiful and placed nicely.MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>I arrived after dark and it was a bit tricky to find.  Check in was easy.  The staff are all very friendly.  My room was clean and comfortable. Bed was nice.   I would certainly stay here again for a business trip.  Breakfast was plentiful and placed nicely.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d106758-r358709997-Comfort_Suites-La_Porte_Texas.html</t>
@@ -611,6 +893,45 @@
     <t>This hotel is simple and nice. The rooms were clean with a large bathroom and lots of towels. The bed was very comfortable and the wifi was solid. The room included breakfast in the morning, which was basic but good. Eggs, meats, waffles, fresh fruit, biscuits/gravy, muffins/breads and coffee. All in all we had a good experience here.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d106758-r357000578-Comfort_Suites-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>357000578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Very disappointing </t>
+  </si>
+  <si>
+    <t>Upon our arrival for three o'clock check in our room was not ready. We had to wait another 45 minutes! This was after we requested early check in. Disappointing for sure! Room could definitely use a good vacuum. Carpets definitely need replace. Mold around tub in bathroom. I still would stay...just disappointing!MoreShow less</t>
+  </si>
+  <si>
+    <t>Upon our arrival for three o'clock check in our room was not ready. We had to wait another 45 minutes! This was after we requested early check in. Disappointing for sure! Room could definitely use a good vacuum. Carpets definitely need replace. Mold around tub in bathroom. I still would stay...just disappointing!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d106758-r355760039-Comfort_Suites-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>355760039</t>
+  </si>
+  <si>
+    <t>03/15/2016</t>
+  </si>
+  <si>
+    <t>Clean</t>
+  </si>
+  <si>
+    <t>Nice clean rooms. Left our vehicle there while we went on cruise. They do not charge extra for leaving your vehicle you just have to let them know in advance. Rooms were reasonably priced. The also have a decent breakfast.MoreShow less</t>
+  </si>
+  <si>
+    <t>Cathy Krupski M, General Manager at Comfort Suites, responded to this reviewResponded March 19, 2016</t>
+  </si>
+  <si>
+    <t>Responded March 19, 2016</t>
+  </si>
+  <si>
+    <t>Nice clean rooms. Left our vehicle there while we went on cruise. They do not charge extra for leaving your vehicle you just have to let them know in advance. Rooms were reasonably priced. The also have a decent breakfast.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d106758-r355407645-Comfort_Suites-La_Porte_Texas.html</t>
   </si>
   <si>
@@ -674,6 +995,57 @@
     <t>Just spent 2 nights at Comfort Suites La Porte, TX before starting a cruise. We were able to leave our car there the whole week we were cruising for no extra cost. That was a great savings! The room was nice, the staff helpful, &amp; the breakfast was good. I'd stay there again.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d106758-r344036901-Comfort_Suites-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>344036901</t>
+  </si>
+  <si>
+    <t>01/31/2016</t>
+  </si>
+  <si>
+    <t>Nice place to stay</t>
+  </si>
+  <si>
+    <t>We enjoyed this hotel very much. Our room was very nice and spacious, the bathroom is big enough for two to get ready at a time (water pressure in the shower was very low), and breakfast was hot and delicious.   We would recommend this hotel for overnight or extended stay. MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2016</t>
+  </si>
+  <si>
+    <t>Cathy5, General Manager at Comfort Suites, responded to this reviewResponded February 1, 2016</t>
+  </si>
+  <si>
+    <t>Responded February 1, 2016</t>
+  </si>
+  <si>
+    <t>We enjoyed this hotel very much. Our room was very nice and spacious, the bathroom is big enough for two to get ready at a time (water pressure in the shower was very low), and breakfast was hot and delicious.   We would recommend this hotel for overnight or extended stay. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d106758-r342619420-Comfort_Suites-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>342619420</t>
+  </si>
+  <si>
+    <t>01/25/2016</t>
+  </si>
+  <si>
+    <t>Good location, okay breakfast</t>
+  </si>
+  <si>
+    <t>This was just a quick overnight stop for us, since the location was right off the highway and close to where we needed to go. The room was fine, although our boys said that the pull out bed was not very comfortable, nor were extra pillows provided for it. Breakfast was well stocked and a decent variety of choices, but we did not really care for the quality of the food. Everybody in our party of 6 thought that the sausage tasted funny, and only the apple juice did not taste watered down. Overall, the hotel was fine for a quick one night stay, and we would probably still stay there again.MoreShow less</t>
+  </si>
+  <si>
+    <t>Cathy5, General Manager at Comfort Suites, responded to this reviewResponded January 26, 2016</t>
+  </si>
+  <si>
+    <t>Responded January 26, 2016</t>
+  </si>
+  <si>
+    <t>This was just a quick overnight stop for us, since the location was right off the highway and close to where we needed to go. The room was fine, although our boys said that the pull out bed was not very comfortable, nor were extra pillows provided for it. Breakfast was well stocked and a decent variety of choices, but we did not really care for the quality of the food. Everybody in our party of 6 thought that the sausage tasted funny, and only the apple juice did not taste watered down. Overall, the hotel was fine for a quick one night stay, and we would probably still stay there again.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d106758-r342355334-Comfort_Suites-La_Porte_Texas.html</t>
   </si>
   <si>
@@ -689,15 +1061,6 @@
     <t>Clean comfortable and very affordable. Minutes from the port in Galveston, Texas we stayed the night before our cruise down to Honduras, Belize and Mexico. Full breakfast to hold you over. Marie was our hostess at breakfast and made sure you had what you needed.MoreShow less</t>
   </si>
   <si>
-    <t>January 2016</t>
-  </si>
-  <si>
-    <t>Cathy5, General Manager at Comfort Suites, responded to this reviewResponded January 26, 2016</t>
-  </si>
-  <si>
-    <t>Responded January 26, 2016</t>
-  </si>
-  <si>
     <t>Clean comfortable and very affordable. Minutes from the port in Galveston, Texas we stayed the night before our cruise down to Honduras, Belize and Mexico. Full breakfast to hold you over. Marie was our hostess at breakfast and made sure you had what you needed.More</t>
   </si>
   <si>
@@ -746,9 +1109,6 @@
     <t>October 2015</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled on business</t>
-  </si>
-  <si>
     <t>Cathy5, General Manager at Comfort Suites, responded to this reviewResponded October 19, 2015</t>
   </si>
   <si>
@@ -758,6 +1118,60 @@
     <t>I called the same day as when I wanted to check in.  I spoke with a real wonderful lady named Cathy.  I told her that I and my husband were going to need a room for 1 night, non-smoking and always I wanted to see if they had breakfast.  Ms. Cathy got me a room that was a King sized bed, sofa, fridge and microwave.  She informed me that if I was ready to check in I had a room waiting on me.  I got to the hotel and checked in.  The young guy that checked me in was not professional.  When he asked me for my card he looked at it, I have no idea what he did with my card, but when sufficient time passed I asked him where my card was and he gave it back to me.  Then he didn't give me my key and told me that the wi-fi password was on the card envelope.  I said, "Well that would be nice if I even had my cards!".  He gave me my room cards and I got in the elevator and proceded to floor 2.  I got room 206 directly in front of the elevator.  Fine with me.  As I opened the door and turned all of the lights on, I noticed that the room was clean but out of date compaired to newer hotels.  As always I checked the bed for Bed Bugs, I...I called the same day as when I wanted to check in.  I spoke with a real wonderful lady named Cathy.  I told her that I and my husband were going to need a room for 1 night, non-smoking and always I wanted to see if they had breakfast.  Ms. Cathy got me a room that was a King sized bed, sofa, fridge and microwave.  She informed me that if I was ready to check in I had a room waiting on me.  I got to the hotel and checked in.  The young guy that checked me in was not professional.  When he asked me for my card he looked at it, I have no idea what he did with my card, but when sufficient time passed I asked him where my card was and he gave it back to me.  Then he didn't give me my key and told me that the wi-fi password was on the card envelope.  I said, "Well that would be nice if I even had my cards!".  He gave me my room cards and I got in the elevator and proceded to floor 2.  I got room 206 directly in front of the elevator.  Fine with me.  As I opened the door and turned all of the lights on, I noticed that the room was clean but out of date compaired to newer hotels.  As always I checked the bed for Bed Bugs, I didn't come across any, GREAT! So becides everything being out dated, we had a pretty good room.  This morning, 10/14/15, I went down to breakfast.  I fixed my coffee and my food and ate.  After I got done, since I was not in a rush, I stayed in the breakfast area on my phone talking to my sister.  I noticed something moving out of the corner of my eye, a tiny cockaroach!!!  I jumped up and killed it with my napkin.  And told the breakfast attendant Mary.  She apologized.  In the entire stay I didn't notice anything until breakfast.  It was only 1 roach but it was not an outdoor roach!  I do hope the hotel sprays for this because it's a place that serves food.  The location was not horrible.  It is located right next to some apartments.  Way better than staying in Bay Town.  Not too bad of a price but I had a discount.  I would say if you want to pay more stay at a newer hotel, if it's just one night it's fine, don't book for Honeymoons (not romantic), but is good if you want comfy bed and quiet night rest.  I would recomend this if they can make sure there are no roaches.  One last thing,  GREAT CUSTOMER SREVICE!!!  Except for the young guy.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d106758-r297152333-Comfort_Suites-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>297152333</t>
+  </si>
+  <si>
+    <t>08/09/2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vacation </t>
+  </si>
+  <si>
+    <t>Great hotel. Check in easy, friendly staff, clean rooms and a good breakfast. The hostess Marie for breakfast did her job beyond expectations. She was so friendly and helpful. Always made sure food was full and hot. I only gave 4 stars cause they had no blankets or pillows for the pull out couch that the kids we're sleeping on. MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2015</t>
+  </si>
+  <si>
+    <t>Cathy5, General Manager at Comfort Suites, responded to this reviewResponded August 11, 2015</t>
+  </si>
+  <si>
+    <t>Responded August 11, 2015</t>
+  </si>
+  <si>
+    <t>Great hotel. Check in easy, friendly staff, clean rooms and a good breakfast. The hostess Marie for breakfast did her job beyond expectations. She was so friendly and helpful. Always made sure food was full and hot. I only gave 4 stars cause they had no blankets or pillows for the pull out couch that the kids we're sleeping on. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d106758-r290219071-Comfort_Suites-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>290219071</t>
+  </si>
+  <si>
+    <t>07/18/2015</t>
+  </si>
+  <si>
+    <t>Great front staff, housekeepers &amp; maintanence. Great breakfast &amp; breakfast Hostess.</t>
+  </si>
+  <si>
+    <t>Great breakfast every morning &amp; a super great breakfast hostess, Joan. Cathy, the manager &amp; the entire staff was freindly &amp; very helpful. The rooms was very nice w/ great comfortable beds. Thanks again La Porte Comfort Suite.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t>Cathy5, General Manager at Comfort Suites, responded to this reviewResponded July 22, 2015</t>
+  </si>
+  <si>
+    <t>Responded July 22, 2015</t>
+  </si>
+  <si>
+    <t>Great breakfast every morning &amp; a super great breakfast hostess, Joan. Cathy, the manager &amp; the entire staff was freindly &amp; very helpful. The rooms was very nice w/ great comfortable beds. Thanks again La Porte Comfort Suite.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d106758-r282089440-Comfort_Suites-La_Porte_Texas.html</t>
   </si>
   <si>
@@ -833,6 +1247,57 @@
     <t>This is the perfect place!!We walked into the Lobby thinking this was a recently constructed property.  Imagine my surprise when I learned it was built in 1999.  It is impeccably maintained and spotlessly clean.  This is probably due to the pride of ownership by the staff.  The property manager worked her way through the ranks and has been there since opening day.  Also the head of housekeeping has been there since it opened as well.  The front desk ladies were welcoming and helpful as well.  Their pride shows!Our room was very comfortable and, again, very clean.  There is free wi-fi and a free breakfast.  Also, you can leave your car parked there free for the duration of your cruise.  We did that and arranged for a van for the four of us to the ship.  The driver picked up us a few minutes early.  We had made complicated plans for the return until we learned that he would be available to pick us up. After carrying our own bags we were off the Princess Emerald at 7:20am.  Cortney was there waiting for us.  Call 281-785-4155 to book the transportation.  Comfort Suites only accepts a limited amount of cruise passengers wishing to leave cars so book early!  The rate was excellent and, as I said, the property was terrific.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d106758-r242919715-Comfort_Suites-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>242919715</t>
+  </si>
+  <si>
+    <t>12/04/2014</t>
+  </si>
+  <si>
+    <t>Comfortable Stay</t>
+  </si>
+  <si>
+    <t>Great place to stay with a Wonderful staff.I don't like being out of town, but the people and accomodations at Comfort Suites have helped make my two and a half month stay as cmfortable as possible. I will stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2014</t>
+  </si>
+  <si>
+    <t>Cathy5, General Manager at Comfort Suites, responded to this reviewResponded December 5, 2014</t>
+  </si>
+  <si>
+    <t>Responded December 5, 2014</t>
+  </si>
+  <si>
+    <t>Great place to stay with a Wonderful staff.I don't like being out of town, but the people and accomodations at Comfort Suites have helped make my two and a half month stay as cmfortable as possible. I will stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d106758-r240235423-Comfort_Suites-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>240235423</t>
+  </si>
+  <si>
+    <t>11/17/2014</t>
+  </si>
+  <si>
+    <t>painful to check in.</t>
+  </si>
+  <si>
+    <t>I arrived late at the hotel after booking online.  Apparently no one checked for late arrivals  -so my stay was booked as a no show.  When I arrived at 3am, the clerk could not find the reservation - and finally realized it was a booked as a no show.  She had to manually enter all the information again.  After 30 minutes, the reservation was once again in system [I thought about booking online again because it takes me 5 minutes].  During the entire process the clerk seemed miffed and acted like it was my fault  At checkout I brought it to the attention of the clerk and she was dismissive as if it was no big deal - but it was a big deal - enough that I said something - which I never do in all my stays.MoreShow less</t>
+  </si>
+  <si>
+    <t>Cathy5, General Manager at Comfort Suites, responded to this reviewResponded November 20, 2014</t>
+  </si>
+  <si>
+    <t>Responded November 20, 2014</t>
+  </si>
+  <si>
+    <t>I arrived late at the hotel after booking online.  Apparently no one checked for late arrivals  -so my stay was booked as a no show.  When I arrived at 3am, the clerk could not find the reservation - and finally realized it was a booked as a no show.  She had to manually enter all the information again.  After 30 minutes, the reservation was once again in system [I thought about booking online again because it takes me 5 minutes].  During the entire process the clerk seemed miffed and acted like it was my fault  At checkout I brought it to the attention of the clerk and she was dismissive as if it was no big deal - but it was a big deal - enough that I said something - which I never do in all my stays.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d106758-r232877068-Comfort_Suites-La_Porte_Texas.html</t>
   </si>
   <si>
@@ -914,6 +1379,57 @@
     <t>After a disaster at a different hotel, I was released to find this one so nice for the price. The front desk was very friendly at check in. The room was a very spacious 2 queen room and was very clean. The beds were very comfortable and it was a good night's sleep.  A great value for the price. If you're looking to stay in the area,  I recommend this place.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d106758-r220975779-Comfort_Suites-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>220975779</t>
+  </si>
+  <si>
+    <t>08/10/2014</t>
+  </si>
+  <si>
+    <t>LOVED THIS HOTEL</t>
+  </si>
+  <si>
+    <t>Me and my family will definitely be staying here again loved the area everything was nice and hotel staff were very friendly, helpful,and courteous. I give this hotel and staff a two thumbs up. Also breakfast delicious..MoreShow less</t>
+  </si>
+  <si>
+    <t>Cathy5, General Manager at Comfort Suites, responded to this reviewResponded August 12, 2014</t>
+  </si>
+  <si>
+    <t>Responded August 12, 2014</t>
+  </si>
+  <si>
+    <t>Me and my family will definitely be staying here again loved the area everything was nice and hotel staff were very friendly, helpful,and courteous. I give this hotel and staff a two thumbs up. Also breakfast delicious..More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d106758-r217464057-Comfort_Suites-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>217464057</t>
+  </si>
+  <si>
+    <t>07/25/2014</t>
+  </si>
+  <si>
+    <t>Worn Out Room</t>
+  </si>
+  <si>
+    <t>My group did not have as bad a room as me, they were OK with their amenities.  My room had thread bare carpet, broken tile near the toilet, large wall with small TV.  The room was large so if you had any welder, tools, or personal belongings you could not leave in the back of the work truck you could put it in the room.  It was the type of room where the blue collar guys stay in as they work outages at the local industrial plants.  The fold out couch was dirty.  For a working man's room it was OK, as a family or business traveler it was poor.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2014</t>
+  </si>
+  <si>
+    <t>Cathy5, General Manager at Comfort Suites, responded to this reviewResponded July 28, 2014</t>
+  </si>
+  <si>
+    <t>Responded July 28, 2014</t>
+  </si>
+  <si>
+    <t>My group did not have as bad a room as me, they were OK with their amenities.  My room had thread bare carpet, broken tile near the toilet, large wall with small TV.  The room was large so if you had any welder, tools, or personal belongings you could not leave in the back of the work truck you could put it in the room.  It was the type of room where the blue collar guys stay in as they work outages at the local industrial plants.  The fold out couch was dirty.  For a working man's room it was OK, as a family or business traveler it was poor.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d106758-r211483732-Comfort_Suites-La_Porte_Texas.html</t>
   </si>
   <si>
@@ -992,6 +1508,57 @@
     <t>We booked 2 suites on our way to our cruise.  It's about 20 minutes to the port and 45 minutes from Hobby Airport.  The breakfast was standard fare, nothing special.  Many other reviews say the hotel provides a shuttle to the port, however they do not have hotel shuttles.  They did help us contact a transportation service that gave good service.  Our rooms could hold a max of 6 people but they only provided one small shampoo (enough for one person).  We also had to ask for a blanket for the pull out bed.  I would stay again but only one night.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d106758-r197339921-Comfort_Suites-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>197339921</t>
+  </si>
+  <si>
+    <t>03/13/2014</t>
+  </si>
+  <si>
+    <t>Chairs and floors spot, smell like mold.</t>
+  </si>
+  <si>
+    <t>This picture on line is very miss leading. Floors dirty, chairs, and soft. As a mold smell, if you have allergy problems STAY away. You do not get what you see.Especially when you paid $100 a night. Alot of straight looking mens. Looks like a stop for working men. This not an environment for your family. Wish holiday inn had an open.MoreShow less</t>
+  </si>
+  <si>
+    <t>Cathy5, General Manager at Comfort Suites, responded to this reviewResponded March 15, 2014</t>
+  </si>
+  <si>
+    <t>Responded March 15, 2014</t>
+  </si>
+  <si>
+    <t>This picture on line is very miss leading. Floors dirty, chairs, and soft. As a mold smell, if you have allergy problems STAY away. You do not get what you see.Especially when you paid $100 a night. Alot of straight looking mens. Looks like a stop for working men. This not an environment for your family. Wish holiday inn had an open.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d106758-r194321136-Comfort_Suites-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>194321136</t>
+  </si>
+  <si>
+    <t>02/16/2014</t>
+  </si>
+  <si>
+    <t>Cruise ship stay</t>
+  </si>
+  <si>
+    <t>We stayed at the Comfort Suites in La Porte on a Friday night before leaving on a cruise.  The hotel gave us a paper with information on our cruise line and allowed us to leave our car at their parking lot during the cruise with no additional charge.  The shuttle service to the pier they recommended cost $8 per person, and it worked out very well.  The shuttle arrived at the hotel about 15 minutes before our scheduled time.  After the cruise we took a taxi back to the hotel for $20, used the hotel restrooms and headed home.  In all, it was a very good stay.  Both the morning &amp; evening clerks were very friendly and helpful. The hotel was clean with no odor.  The lobby &amp; breakfast area were large.  The breakfast was certainly adequate with eggs &amp; ham and all the items you find at a free continental hotel breakfast.  There is a fast food and and another restaurant within walking distance.  We will stay there again if we go on another cruise and certainly recommend this hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2014</t>
+  </si>
+  <si>
+    <t>Cathy5, General Manager at Comfort Suites, responded to this reviewResponded February 18, 2014</t>
+  </si>
+  <si>
+    <t>Responded February 18, 2014</t>
+  </si>
+  <si>
+    <t>We stayed at the Comfort Suites in La Porte on a Friday night before leaving on a cruise.  The hotel gave us a paper with information on our cruise line and allowed us to leave our car at their parking lot during the cruise with no additional charge.  The shuttle service to the pier they recommended cost $8 per person, and it worked out very well.  The shuttle arrived at the hotel about 15 minutes before our scheduled time.  After the cruise we took a taxi back to the hotel for $20, used the hotel restrooms and headed home.  In all, it was a very good stay.  Both the morning &amp; evening clerks were very friendly and helpful. The hotel was clean with no odor.  The lobby &amp; breakfast area were large.  The breakfast was certainly adequate with eggs &amp; ham and all the items you find at a free continental hotel breakfast.  There is a fast food and and another restaurant within walking distance.  We will stay there again if we go on another cruise and certainly recommend this hotel.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d106758-r189904147-Comfort_Suites-La_Porte_Texas.html</t>
   </si>
   <si>
@@ -1073,6 +1640,57 @@
     <t>Close location to HYC for regatta.  Very nice large rooms.  Excellant breakfast and staff. Part of group that stayed for HYC event and enjoyed seeing the other competitors there in the morning.  Easy access off highway.  Perfect location and amenities for HYC event.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d106758-r177179779-Comfort_Suites-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>177179779</t>
+  </si>
+  <si>
+    <t>09/14/2013</t>
+  </si>
+  <si>
+    <t>Great Place</t>
+  </si>
+  <si>
+    <t>My husband's work was moving us into this area.  His company recommended we stay here during our transtition time.  It was a great place to stay.  The staff was very friendly and helpful -with all sorts of information. Our rooms were clean as well as the rest of the hotel.  It was safe and well maintained.  The free hot breakfast was WONDERFUL!! I am a breakfast eater and it was always ready on time and well prepared.  Hot coffee was available throughout the day in the breakfast room as well as individual coffee makers in the rooms.  We appreciated the free cocktail times on Tuesdays - Thursday.  My husband spent 6 weeks there. Did not have a reason to change hotels.  Recommend this hotel to anyone staying in this area.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2013</t>
+  </si>
+  <si>
+    <t>Cathy5, General Manager at Comfort Suites, responded to this reviewResponded September 16, 2013</t>
+  </si>
+  <si>
+    <t>Responded September 16, 2013</t>
+  </si>
+  <si>
+    <t>My husband's work was moving us into this area.  His company recommended we stay here during our transtition time.  It was a great place to stay.  The staff was very friendly and helpful -with all sorts of information. Our rooms were clean as well as the rest of the hotel.  It was safe and well maintained.  The free hot breakfast was WONDERFUL!! I am a breakfast eater and it was always ready on time and well prepared.  Hot coffee was available throughout the day in the breakfast room as well as individual coffee makers in the rooms.  We appreciated the free cocktail times on Tuesdays - Thursday.  My husband spent 6 weeks there. Did not have a reason to change hotels.  Recommend this hotel to anyone staying in this area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d106758-r175553695-Comfort_Suites-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>175553695</t>
+  </si>
+  <si>
+    <t>09/03/2013</t>
+  </si>
+  <si>
+    <t>Good for the money</t>
+  </si>
+  <si>
+    <t>Hotel is in a very industrial part of town, I would imagine most of their business comes from traveling contractors. Room was very clean, has decent size gym with newer machines, outdoor pool and jacuzzi. Breakfast was free with the stay, the food was better than most. Some restaurants nearby.MoreShow less</t>
+  </si>
+  <si>
+    <t>Cathy5, General Manager at Comfort Suites, responded to this reviewResponded September 5, 2013</t>
+  </si>
+  <si>
+    <t>Responded September 5, 2013</t>
+  </si>
+  <si>
+    <t>Hotel is in a very industrial part of town, I would imagine most of their business comes from traveling contractors. Room was very clean, has decent size gym with newer machines, outdoor pool and jacuzzi. Breakfast was free with the stay, the food was better than most. Some restaurants nearby.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d106758-r168039953-Comfort_Suites-La_Porte_Texas.html</t>
   </si>
   <si>
@@ -1154,6 +1772,57 @@
     <t>Got to hotel a 8pm. Non smoking hotel but when we  got to room it had horrible smoke smell. Changed rooms and could tell neighbors in next room were smoking. Put towels under doors to keep out smoke. Apparently area workers use this hotel for extended stay and don't care about rules. They tried (management) to accommodate use as best they could.    The king room was large, bed was very comfortable. The AC fan ran quietly. Not to much noise. We slept well. Breakfast was average for a hot breakfast the breakfast lady Miss Johnson was very nice. She made our stay.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d106758-r142575388-Comfort_Suites-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>142575388</t>
+  </si>
+  <si>
+    <t>10/11/2012</t>
+  </si>
+  <si>
+    <t>Great for area</t>
+  </si>
+  <si>
+    <t>The La Porte area seems to be over crowded these days and it is difficult to find a propety that is friendly and clean.  The carpet is worn in the hall and in the room but the room was clean.  The staff was friendly and accommodating when we requested a late check out.  They had a very nice full breakfast.  The only negative was a heavy mildew smell which the air conditioner seemed able to dissipate.  I will definately stay at this location again when visiting family in the area.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2012</t>
+  </si>
+  <si>
+    <t>Cathy5, General Manager at Comfort Suites, responded to this reviewResponded October 13, 2012</t>
+  </si>
+  <si>
+    <t>Responded October 13, 2012</t>
+  </si>
+  <si>
+    <t>The La Porte area seems to be over crowded these days and it is difficult to find a propety that is friendly and clean.  The carpet is worn in the hall and in the room but the room was clean.  The staff was friendly and accommodating when we requested a late check out.  They had a very nice full breakfast.  The only negative was a heavy mildew smell which the air conditioner seemed able to dissipate.  I will definately stay at this location again when visiting family in the area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d106758-r142209646-Comfort_Suites-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>142209646</t>
+  </si>
+  <si>
+    <t>10/07/2012</t>
+  </si>
+  <si>
+    <t>Well worth a stop by.</t>
+  </si>
+  <si>
+    <t>Very well developed hotel. Literally couldn't find anything wrong with this place. Huge nice clean rooms. Huge breakfast. Definitely staying again when i come back to visit. Thanks staff and management you have done an outstanding job on this property. Even took a few ideas for my hotel back home. MoreShow less</t>
+  </si>
+  <si>
+    <t>Cathy5, General Manager at Comfort Suites, responded to this reviewResponded October 10, 2012</t>
+  </si>
+  <si>
+    <t>Responded October 10, 2012</t>
+  </si>
+  <si>
+    <t>Very well developed hotel. Literally couldn't find anything wrong with this place. Huge nice clean rooms. Huge breakfast. Definitely staying again when i come back to visit. Thanks staff and management you have done an outstanding job on this property. Even took a few ideas for my hotel back home. More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d106758-r141675992-Comfort_Suites-La_Porte_Texas.html</t>
   </si>
   <si>
@@ -1235,6 +1904,42 @@
     <t>This hotel is in good shape and a great price compared to other hotels in the area. Alot of bang for the buck. The staff was really helpful finding things to do and places to go.Very spacious rooms and very clean with a great breakfast.I would defiantly come back here again and recommend to my family and friends.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d106758-r116341305-Comfort_Suites-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>116341305</t>
+  </si>
+  <si>
+    <t>08/06/2011</t>
+  </si>
+  <si>
+    <t>Rip Off - Sad Excuse for a Hotel</t>
+  </si>
+  <si>
+    <t>Please Avoid, its in the worst neighbor at first, the first night police came due to car break in. The rooms are disgusting,you need to get your shoes on, the carpet is very old and damp. My daughters feet got black just from taking a couple of steps. The room is also falling apart. Apart from the bad TV with horrible reception, the beds are so hard and lumpy you won't be able to go to sleep until morning. Again Please AVOID!!</t>
+  </si>
+  <si>
+    <t>July 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d106758-r71644976-Comfort_Suites-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>71644976</t>
+  </si>
+  <si>
+    <t>07/20/2010</t>
+  </si>
+  <si>
+    <t>Great comfort</t>
+  </si>
+  <si>
+    <t>My four teenagers and I spent the weekend at Comfort Inn and Suites in LaPorte, TX. The rooms were large and clean. The lobby was beautiful and spacious. The employees were kind and helpful. The breakfast was assume. We had a great stay. We were comfortable and felt safe. The hotel was in a great location, right off of Hwy 146S. We travelled that Hwy alot to our destinations. Very pleased with everything.</t>
+  </si>
+  <si>
+    <t>July 2010</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d106758-r42007930-Comfort_Suites-La_Porte_Texas.html</t>
   </si>
   <si>
@@ -1292,6 +1997,54 @@
     <t>August 2008</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d106758-r13863840-Comfort_Suites-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>13863840</t>
+  </si>
+  <si>
+    <t>02/26/2008</t>
+  </si>
+  <si>
+    <t>Good hotel for business or pre-cruise</t>
+  </si>
+  <si>
+    <t>This was a clean, convenient hotel with a friendly staff.  Excellent starter breakfast with eggs, breakfast meats, waffles, juices, gourmet coffee and more.  Safe and secure parking. The king room was spacious with all the amenities - fridge, coffee, microwave, dining table, jetted tub, separate living room with sofa bed, desk, tv and data ports. Bedding was clean and comfortable. Good free wi-fi.  We were there for business and used points from reward program, but the Senior rate is around $98 which is very reasonable for the service and style.  Other guests were pre-cruise guests and this is indeed convenient to the ports.  Just around the corner is Baytown Seafood for a good seafood dinner.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2008</t>
+  </si>
+  <si>
+    <t>Cathy5, Manager at Comfort Suites, responded to this reviewResponded June 24, 2008</t>
+  </si>
+  <si>
+    <t>Responded June 24, 2008</t>
+  </si>
+  <si>
+    <t>This was a clean, convenient hotel with a friendly staff.  Excellent starter breakfast with eggs, breakfast meats, waffles, juices, gourmet coffee and more.  Safe and secure parking. The king room was spacious with all the amenities - fridge, coffee, microwave, dining table, jetted tub, separate living room with sofa bed, desk, tv and data ports. Bedding was clean and comfortable. Good free wi-fi.  We were there for business and used points from reward program, but the Senior rate is around $98 which is very reasonable for the service and style.  Other guests were pre-cruise guests and this is indeed convenient to the ports.  Just around the corner is Baytown Seafood for a good seafood dinner.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d106758-r8740434-Comfort_Suites-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>8740434</t>
+  </si>
+  <si>
+    <t>09/16/2007</t>
+  </si>
+  <si>
+    <t>Nice, comfortable hotel</t>
+  </si>
+  <si>
+    <t>Comfort Suites is a very nice property. The hotel can be a little tricky to get to from the exit but it is convenient to the highway. The lobby is impressive and the hot breakfast bar is excellent. They change the menu day to day and they even have bold coffee with the regular coffee. The business center had two PCs with Internet access plus a printer available.The rooms are huge. As far as being a suite it is more than just a sleeper sofa smashed in a regular room. It has a distinct living and sleeping area. The beds are very comfy and the pillows are good. The TV had just a bit of interference on the audio but they had plenty of channels (though HBO was blacked out). Overall the rooms were very clean. The bathroom was just fine. I could tell it was remodeled but that's a good thing because it feels like it was remodeled the right way. I'd definitely stay at this hotel again.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2007</t>
+  </si>
+  <si>
+    <t>Comfort Suites is a very nice property. The hotel can be a little tricky to get to from the exit but it is convenient to the highway. The lobby is impressive and the hot breakfast bar is excellent. They change the menu day to day and they even have bold coffee with the regular coffee. The business center had two PCs with Internet access plus a printer available.The rooms are huge. As far as being a suite it is more than just a sleeper sofa smashed in a regular room. It has a distinct living and sleeping area. The beds are very comfy and the pillows are good. The TV had just a bit of interference on the audio but they had plenty of channels (though HBO was blacked out). Overall the rooms were very clean. The bathroom was just fine. I could tell it was remodeled but that's a good thing because it feels like it was remodeled the right way. I'd definitely stay at this hotel again.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d106758-r7752171-Comfort_Suites-La_Porte_Texas.html</t>
   </si>
   <si>
@@ -1350,6 +2103,36 @@
   </si>
   <si>
     <t>December 2006</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d106758-r6648294-Comfort_Suites-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>6648294</t>
+  </si>
+  <si>
+    <t>01/22/2007</t>
+  </si>
+  <si>
+    <t>Reasonable Place</t>
+  </si>
+  <si>
+    <t>i have stayed here before with my wife and kids, but have only had one problem that i had more then once, i was checked into a smoking room when i requested a nonsmoking room, also i was once checked into a room that was not made yet.  however the hotel is nice, the front desk attendant was pleasant, but she swore to me that the room was made and that my wife or i messed it up when going into the room</t>
+  </si>
+  <si>
+    <t>January 2007</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d106758-r4580854-Comfort_Suites-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>4580854</t>
+  </si>
+  <si>
+    <t>03/03/2006</t>
+  </si>
+  <si>
+    <t>We stayed here one night before leaving out on our cruise. You can leave your car there and shuttles run back and forth from the ship. This is probably the best motel we have ever stayed in for the price. The hot breakfast, (eggs, bacon, sausage, toast, biscuits and gravey), well, it was just great! I would recommend it to anyone and will stay there again if I go that way.  The rooms were spaceious and very clean and the staff was wonderful.  AAAAAAAAAAA+++++++++++++++</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d106758-r4119681-Comfort_Suites-La_Porte_Texas.html</t>
@@ -1917,7 +2700,7 @@
         <v>50</v>
       </c>
       <c r="M2" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N2" t="s">
         <v>51</v>
@@ -1934,14 +2717,10 @@
       <c r="V2" t="n">
         <v>0</v>
       </c>
-      <c r="W2" t="s">
-        <v>53</v>
-      </c>
-      <c r="X2" t="s">
-        <v>54</v>
-      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -1957,48 +2736,56 @@
         <v>43</v>
       </c>
       <c r="F3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3" t="s">
+        <v>54</v>
+      </c>
+      <c r="J3" t="s">
+        <v>55</v>
+      </c>
+      <c r="K3" t="s">
         <v>56</v>
       </c>
-      <c r="G3" t="s">
-        <v>45</v>
-      </c>
-      <c r="H3" t="s">
-        <v>46</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="L3" t="s">
         <v>57</v>
       </c>
-      <c r="J3" t="s">
+      <c r="M3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s">
         <v>58</v>
       </c>
-      <c r="K3" t="s">
+      <c r="O3" t="s">
         <v>59</v>
       </c>
-      <c r="L3" t="s">
-        <v>60</v>
-      </c>
-      <c r="M3" t="n">
-        <v>4</v>
-      </c>
-      <c r="N3" t="s"/>
-      <c r="O3" t="s"/>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
-      <c r="R3" t="s"/>
+      <c r="R3" t="n">
+        <v>4</v>
+      </c>
       <c r="S3" t="s"/>
       <c r="T3" t="s"/>
-      <c r="U3" t="s"/>
+      <c r="U3" t="n">
+        <v>5</v>
+      </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="X3" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="Y3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4">
@@ -2014,7 +2801,7 @@
         <v>43</v>
       </c>
       <c r="F4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G4" t="s">
         <v>45</v>
@@ -2023,49 +2810,43 @@
         <v>46</v>
       </c>
       <c r="I4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="J4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="M4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N4" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="O4" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="P4" t="s"/>
-      <c r="Q4" t="n">
-        <v>3</v>
-      </c>
-      <c r="R4" t="n">
-        <v>3</v>
-      </c>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
       <c r="S4" t="s"/>
       <c r="T4" t="s"/>
-      <c r="U4" t="n">
-        <v>4</v>
-      </c>
+      <c r="U4" t="s"/>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="s">
+        <v>68</v>
+      </c>
+      <c r="X4" t="s">
         <v>69</v>
       </c>
-      <c r="X4" t="s">
+      <c r="Y4" t="s">
         <v>70</v>
-      </c>
-      <c r="Y4" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="5">
@@ -2081,58 +2862,48 @@
         <v>43</v>
       </c>
       <c r="F5" t="s">
+        <v>71</v>
+      </c>
+      <c r="G5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I5" t="s">
         <v>72</v>
       </c>
-      <c r="G5" t="s">
-        <v>45</v>
-      </c>
-      <c r="H5" t="s">
-        <v>46</v>
-      </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>73</v>
       </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
         <v>74</v>
       </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
         <v>75</v>
       </c>
-      <c r="L5" t="s">
+      <c r="M5" t="n">
+        <v>4</v>
+      </c>
+      <c r="N5" t="s"/>
+      <c r="O5" t="s"/>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="s"/>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s">
+        <v>68</v>
+      </c>
+      <c r="X5" t="s">
+        <v>69</v>
+      </c>
+      <c r="Y5" t="s">
         <v>76</v>
-      </c>
-      <c r="M5" t="n">
-        <v>5</v>
-      </c>
-      <c r="N5" t="s">
-        <v>77</v>
-      </c>
-      <c r="O5" t="s">
-        <v>52</v>
-      </c>
-      <c r="P5" t="s"/>
-      <c r="Q5" t="n">
-        <v>4</v>
-      </c>
-      <c r="R5" t="s"/>
-      <c r="S5" t="n">
-        <v>4</v>
-      </c>
-      <c r="T5" t="s"/>
-      <c r="U5" t="n">
-        <v>4</v>
-      </c>
-      <c r="V5" t="n">
-        <v>0</v>
-      </c>
-      <c r="W5" t="s">
-        <v>78</v>
-      </c>
-      <c r="X5" t="s">
-        <v>79</v>
-      </c>
-      <c r="Y5" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="6">
@@ -2148,58 +2919,58 @@
         <v>43</v>
       </c>
       <c r="F6" t="s">
+        <v>77</v>
+      </c>
+      <c r="G6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I6" t="s">
+        <v>78</v>
+      </c>
+      <c r="J6" t="s">
+        <v>79</v>
+      </c>
+      <c r="K6" t="s">
+        <v>80</v>
+      </c>
+      <c r="L6" t="s">
         <v>81</v>
       </c>
-      <c r="G6" t="s">
-        <v>45</v>
-      </c>
-      <c r="H6" t="s">
-        <v>46</v>
-      </c>
-      <c r="I6" t="s">
+      <c r="M6" t="n">
+        <v>4</v>
+      </c>
+      <c r="N6" t="s">
         <v>82</v>
       </c>
-      <c r="J6" t="s">
-        <v>83</v>
-      </c>
-      <c r="K6" t="s">
-        <v>84</v>
-      </c>
-      <c r="L6" t="s">
-        <v>85</v>
-      </c>
-      <c r="M6" t="n">
-        <v>5</v>
-      </c>
-      <c r="N6" t="s">
-        <v>77</v>
-      </c>
       <c r="O6" t="s">
-        <v>86</v>
-      </c>
-      <c r="P6" t="n">
-        <v>5</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="P6" t="s"/>
       <c r="Q6" t="n">
-        <v>5</v>
-      </c>
-      <c r="R6" t="s"/>
+        <v>3</v>
+      </c>
+      <c r="R6" t="n">
+        <v>3</v>
+      </c>
       <c r="S6" t="s"/>
       <c r="T6" t="s"/>
       <c r="U6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="X6" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="Y6" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="7">
@@ -2215,52 +2986,56 @@
         <v>43</v>
       </c>
       <c r="F7" t="s">
+        <v>86</v>
+      </c>
+      <c r="G7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" t="s">
+        <v>46</v>
+      </c>
+      <c r="I7" t="s">
+        <v>87</v>
+      </c>
+      <c r="J7" t="s">
+        <v>88</v>
+      </c>
+      <c r="K7" t="s">
+        <v>89</v>
+      </c>
+      <c r="L7" t="s">
         <v>90</v>
       </c>
-      <c r="G7" t="s">
-        <v>45</v>
-      </c>
-      <c r="H7" t="s">
-        <v>46</v>
-      </c>
-      <c r="I7" t="s">
+      <c r="M7" t="n">
+        <v>5</v>
+      </c>
+      <c r="N7" t="s">
         <v>91</v>
       </c>
-      <c r="J7" t="s">
-        <v>92</v>
-      </c>
-      <c r="K7" t="s">
-        <v>93</v>
-      </c>
-      <c r="L7" t="s">
-        <v>94</v>
-      </c>
-      <c r="M7" t="n">
-        <v>5</v>
-      </c>
-      <c r="N7" t="s">
-        <v>95</v>
-      </c>
       <c r="O7" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
-      <c r="R7" t="s"/>
+      <c r="R7" t="n">
+        <v>5</v>
+      </c>
       <c r="S7" t="s"/>
       <c r="T7" t="s"/>
-      <c r="U7" t="s"/>
+      <c r="U7" t="n">
+        <v>5</v>
+      </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="X7" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="Y7" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="8">
@@ -2276,34 +3051,34 @@
         <v>43</v>
       </c>
       <c r="F8" t="s">
+        <v>95</v>
+      </c>
+      <c r="G8" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" t="s">
+        <v>46</v>
+      </c>
+      <c r="I8" t="s">
+        <v>96</v>
+      </c>
+      <c r="J8" t="s">
+        <v>97</v>
+      </c>
+      <c r="K8" t="s">
+        <v>98</v>
+      </c>
+      <c r="L8" t="s">
         <v>99</v>
       </c>
-      <c r="G8" t="s">
-        <v>45</v>
-      </c>
-      <c r="H8" t="s">
-        <v>46</v>
-      </c>
-      <c r="I8" t="s">
+      <c r="M8" t="n">
+        <v>4</v>
+      </c>
+      <c r="N8" t="s">
         <v>100</v>
       </c>
-      <c r="J8" t="s">
-        <v>101</v>
-      </c>
-      <c r="K8" t="s">
-        <v>102</v>
-      </c>
-      <c r="L8" t="s">
-        <v>103</v>
-      </c>
-      <c r="M8" t="n">
-        <v>4</v>
-      </c>
-      <c r="N8" t="s">
-        <v>104</v>
-      </c>
       <c r="O8" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="s"/>
@@ -2315,13 +3090,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="X8" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="Y8" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="9">
@@ -2337,52 +3112,58 @@
         <v>43</v>
       </c>
       <c r="F9" t="s">
+        <v>104</v>
+      </c>
+      <c r="G9" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9" t="s">
+        <v>46</v>
+      </c>
+      <c r="I9" t="s">
+        <v>105</v>
+      </c>
+      <c r="J9" t="s">
+        <v>106</v>
+      </c>
+      <c r="K9" t="s">
+        <v>107</v>
+      </c>
+      <c r="L9" t="s">
         <v>108</v>
       </c>
-      <c r="G9" t="s">
-        <v>45</v>
-      </c>
-      <c r="H9" t="s">
-        <v>46</v>
-      </c>
-      <c r="I9" t="s">
+      <c r="M9" t="n">
+        <v>5</v>
+      </c>
+      <c r="N9" t="s">
         <v>109</v>
       </c>
-      <c r="J9" t="s">
+      <c r="O9" t="s">
+        <v>59</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="n">
+        <v>4</v>
+      </c>
+      <c r="R9" t="s"/>
+      <c r="S9" t="n">
+        <v>4</v>
+      </c>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>4</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s">
         <v>110</v>
       </c>
-      <c r="K9" t="s">
+      <c r="X9" t="s">
         <v>111</v>
       </c>
-      <c r="L9" t="s">
+      <c r="Y9" t="s">
         <v>112</v>
-      </c>
-      <c r="M9" t="n">
-        <v>4</v>
-      </c>
-      <c r="N9" t="s">
-        <v>104</v>
-      </c>
-      <c r="O9" t="s">
-        <v>68</v>
-      </c>
-      <c r="P9" t="s"/>
-      <c r="Q9" t="s"/>
-      <c r="R9" t="s"/>
-      <c r="S9" t="s"/>
-      <c r="T9" t="s"/>
-      <c r="U9" t="s"/>
-      <c r="V9" t="n">
-        <v>0</v>
-      </c>
-      <c r="W9" t="s">
-        <v>105</v>
-      </c>
-      <c r="X9" t="s">
-        <v>106</v>
-      </c>
-      <c r="Y9" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="10">
@@ -2398,40 +3179,40 @@
         <v>43</v>
       </c>
       <c r="F10" t="s">
+        <v>113</v>
+      </c>
+      <c r="G10" t="s">
+        <v>45</v>
+      </c>
+      <c r="H10" t="s">
+        <v>46</v>
+      </c>
+      <c r="I10" t="s">
         <v>114</v>
       </c>
-      <c r="G10" t="s">
-        <v>45</v>
-      </c>
-      <c r="H10" t="s">
-        <v>46</v>
-      </c>
-      <c r="I10" t="s">
+      <c r="J10" t="s">
         <v>115</v>
       </c>
-      <c r="J10" t="s">
+      <c r="K10" t="s">
         <v>116</v>
       </c>
-      <c r="K10" t="s">
+      <c r="L10" t="s">
         <v>117</v>
       </c>
-      <c r="L10" t="s">
+      <c r="M10" t="n">
+        <v>5</v>
+      </c>
+      <c r="N10" t="s">
+        <v>109</v>
+      </c>
+      <c r="O10" t="s">
         <v>118</v>
       </c>
-      <c r="M10" t="n">
-        <v>4</v>
-      </c>
-      <c r="N10" t="s">
-        <v>104</v>
-      </c>
-      <c r="O10" t="s">
-        <v>52</v>
-      </c>
       <c r="P10" t="n">
         <v>5</v>
       </c>
       <c r="Q10" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R10" t="s"/>
       <c r="S10" t="s"/>
@@ -2492,7 +3273,7 @@
         <v>127</v>
       </c>
       <c r="O11" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="P11" t="s"/>
       <c r="Q11" t="s"/>
@@ -2547,27 +3328,37 @@
         <v>135</v>
       </c>
       <c r="M12" t="n">
-        <v>5</v>
-      </c>
-      <c r="N12" t="s"/>
-      <c r="O12" t="s"/>
-      <c r="P12" t="s"/>
+        <v>3</v>
+      </c>
+      <c r="N12" t="s">
+        <v>127</v>
+      </c>
+      <c r="O12" t="s">
+        <v>59</v>
+      </c>
+      <c r="P12" t="n">
+        <v>3</v>
+      </c>
       <c r="Q12" t="s"/>
-      <c r="R12" t="s"/>
+      <c r="R12" t="n">
+        <v>3</v>
+      </c>
       <c r="S12" t="s"/>
       <c r="T12" t="s"/>
-      <c r="U12" t="s"/>
+      <c r="U12" t="n">
+        <v>2</v>
+      </c>
       <c r="V12" t="n">
         <v>0</v>
       </c>
       <c r="W12" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="X12" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="Y12" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="13">
@@ -2583,7 +3374,7 @@
         <v>43</v>
       </c>
       <c r="F13" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="G13" t="s">
         <v>45</v>
@@ -2592,25 +3383,25 @@
         <v>46</v>
       </c>
       <c r="I13" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="J13" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="K13" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="L13" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="M13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N13" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="O13" t="s">
-        <v>143</v>
+        <v>59</v>
       </c>
       <c r="P13" t="s"/>
       <c r="Q13" t="n">
@@ -2628,13 +3419,13 @@
         <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="X13" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Y13" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="14">
@@ -2650,7 +3441,7 @@
         <v>43</v>
       </c>
       <c r="F14" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="G14" t="s">
         <v>45</v>
@@ -2659,47 +3450,43 @@
         <v>46</v>
       </c>
       <c r="I14" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="J14" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="K14" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="L14" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="M14" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N14" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="O14" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="P14" t="s"/>
       <c r="Q14" t="s"/>
-      <c r="R14" t="n">
-        <v>5</v>
-      </c>
+      <c r="R14" t="s"/>
       <c r="S14" t="s"/>
       <c r="T14" t="s"/>
-      <c r="U14" t="n">
-        <v>5</v>
-      </c>
+      <c r="U14" t="s"/>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="s">
-        <v>128</v>
+        <v>154</v>
       </c>
       <c r="X14" t="s">
-        <v>129</v>
+        <v>155</v>
       </c>
       <c r="Y14" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
     </row>
     <row r="15">
@@ -2715,7 +3502,7 @@
         <v>43</v>
       </c>
       <c r="F15" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="G15" t="s">
         <v>45</v>
@@ -2724,49 +3511,43 @@
         <v>46</v>
       </c>
       <c r="I15" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="J15" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="K15" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="L15" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="M15" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N15" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="O15" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="P15" t="s"/>
-      <c r="Q15" t="n">
-        <v>5</v>
-      </c>
-      <c r="R15" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="s"/>
       <c r="S15" t="s"/>
       <c r="T15" t="s"/>
-      <c r="U15" t="n">
-        <v>5</v>
-      </c>
+      <c r="U15" t="s"/>
       <c r="V15" t="n">
         <v>0</v>
       </c>
       <c r="W15" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="X15" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="Y15" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="16">
@@ -2782,7 +3563,7 @@
         <v>43</v>
       </c>
       <c r="F16" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="G16" t="s">
         <v>45</v>
@@ -2791,35 +3572,37 @@
         <v>46</v>
       </c>
       <c r="I16" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="J16" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="K16" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="L16" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="M16" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N16" t="s">
-        <v>167</v>
+        <v>153</v>
       </c>
       <c r="O16" t="s">
-        <v>143</v>
-      </c>
-      <c r="P16" t="s"/>
+        <v>59</v>
+      </c>
+      <c r="P16" t="n">
+        <v>5</v>
+      </c>
       <c r="Q16" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R16" t="s"/>
       <c r="S16" t="s"/>
       <c r="T16" t="s"/>
       <c r="U16" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -2868,26 +3651,20 @@
         <v>175</v>
       </c>
       <c r="M17" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N17" t="s">
         <v>176</v>
       </c>
       <c r="O17" t="s">
-        <v>52</v>
-      </c>
-      <c r="P17" t="n">
-        <v>3</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="P17" t="s"/>
       <c r="Q17" t="s"/>
       <c r="R17" t="s"/>
-      <c r="S17" t="n">
-        <v>2</v>
-      </c>
+      <c r="S17" t="s"/>
       <c r="T17" t="s"/>
-      <c r="U17" t="n">
-        <v>3</v>
-      </c>
+      <c r="U17" t="s"/>
       <c r="V17" t="n">
         <v>0</v>
       </c>
@@ -2941,14 +3718,14 @@
         <v>185</v>
       </c>
       <c r="O18" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="P18" t="s"/>
-      <c r="Q18" t="n">
-        <v>4</v>
-      </c>
+      <c r="Q18" t="s"/>
       <c r="R18" t="s"/>
-      <c r="S18" t="s"/>
+      <c r="S18" t="n">
+        <v>5</v>
+      </c>
       <c r="T18" t="s"/>
       <c r="U18" t="n">
         <v>5</v>
@@ -3000,24 +3777,20 @@
         <v>193</v>
       </c>
       <c r="M19" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N19" t="s">
         <v>176</v>
       </c>
       <c r="O19" t="s">
-        <v>143</v>
+        <v>52</v>
       </c>
       <c r="P19" t="s"/>
-      <c r="Q19" t="n">
-        <v>4</v>
-      </c>
+      <c r="Q19" t="s"/>
       <c r="R19" t="s"/>
       <c r="S19" t="s"/>
       <c r="T19" t="s"/>
-      <c r="U19" t="n">
-        <v>5</v>
-      </c>
+      <c r="U19" t="s"/>
       <c r="V19" t="n">
         <v>0</v>
       </c>
@@ -3067,35 +3840,25 @@
       <c r="M20" t="n">
         <v>5</v>
       </c>
-      <c r="N20" t="s">
-        <v>176</v>
-      </c>
-      <c r="O20" t="s">
-        <v>68</v>
-      </c>
-      <c r="P20" t="n">
-        <v>5</v>
-      </c>
+      <c r="N20" t="s"/>
+      <c r="O20" t="s"/>
+      <c r="P20" t="s"/>
       <c r="Q20" t="s"/>
-      <c r="R20" t="n">
-        <v>5</v>
-      </c>
+      <c r="R20" t="s"/>
       <c r="S20" t="s"/>
       <c r="T20" t="s"/>
-      <c r="U20" t="n">
-        <v>5</v>
-      </c>
+      <c r="U20" t="s"/>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="s">
+        <v>194</v>
+      </c>
+      <c r="X20" t="s">
+        <v>195</v>
+      </c>
+      <c r="Y20" t="s">
         <v>202</v>
-      </c>
-      <c r="X20" t="s">
-        <v>203</v>
-      </c>
-      <c r="Y20" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="21">
@@ -3111,40 +3874,42 @@
         <v>43</v>
       </c>
       <c r="F21" t="s">
+        <v>203</v>
+      </c>
+      <c r="G21" t="s">
+        <v>45</v>
+      </c>
+      <c r="H21" t="s">
+        <v>46</v>
+      </c>
+      <c r="I21" t="s">
+        <v>204</v>
+      </c>
+      <c r="J21" t="s">
         <v>205</v>
       </c>
-      <c r="G21" t="s">
-        <v>45</v>
-      </c>
-      <c r="H21" t="s">
-        <v>46</v>
-      </c>
-      <c r="I21" t="s">
+      <c r="K21" t="s">
         <v>206</v>
       </c>
-      <c r="J21" t="s">
+      <c r="L21" t="s">
         <v>207</v>
       </c>
-      <c r="K21" t="s">
+      <c r="M21" t="n">
+        <v>4</v>
+      </c>
+      <c r="N21" t="s">
+        <v>185</v>
+      </c>
+      <c r="O21" t="s">
         <v>208</v>
-      </c>
-      <c r="L21" t="s">
-        <v>209</v>
-      </c>
-      <c r="M21" t="n">
-        <v>4</v>
-      </c>
-      <c r="N21" t="s">
-        <v>176</v>
-      </c>
-      <c r="O21" t="s">
-        <v>68</v>
       </c>
       <c r="P21" t="s"/>
       <c r="Q21" t="n">
-        <v>4</v>
-      </c>
-      <c r="R21" t="s"/>
+        <v>5</v>
+      </c>
+      <c r="R21" t="n">
+        <v>5</v>
+      </c>
       <c r="S21" t="s"/>
       <c r="T21" t="s"/>
       <c r="U21" t="n">
@@ -3153,10 +3918,14 @@
       <c r="V21" t="n">
         <v>0</v>
       </c>
-      <c r="W21" t="s"/>
-      <c r="X21" t="s"/>
+      <c r="W21" t="s">
+        <v>209</v>
+      </c>
+      <c r="X21" t="s">
+        <v>210</v>
+      </c>
       <c r="Y21" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="22">
@@ -3172,7 +3941,7 @@
         <v>43</v>
       </c>
       <c r="F22" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="G22" t="s">
         <v>45</v>
@@ -3181,34 +3950,34 @@
         <v>46</v>
       </c>
       <c r="I22" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="J22" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="K22" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="L22" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="M22" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N22" t="s">
-        <v>185</v>
+        <v>217</v>
       </c>
       <c r="O22" t="s">
-        <v>143</v>
-      </c>
-      <c r="P22" t="s"/>
-      <c r="Q22" t="n">
-        <v>4</v>
-      </c>
-      <c r="R22" t="s"/>
-      <c r="S22" t="n">
-        <v>5</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="P22" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="n">
+        <v>5</v>
+      </c>
+      <c r="S22" t="s"/>
       <c r="T22" t="s"/>
       <c r="U22" t="n">
         <v>5</v>
@@ -3217,13 +3986,13 @@
         <v>0</v>
       </c>
       <c r="W22" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="X22" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="Y22" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="23">
@@ -3239,7 +4008,7 @@
         <v>43</v>
       </c>
       <c r="F23" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="G23" t="s">
         <v>45</v>
@@ -3248,25 +4017,25 @@
         <v>46</v>
       </c>
       <c r="I23" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="J23" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="K23" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="L23" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="M23" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N23" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="O23" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="P23" t="s"/>
       <c r="Q23" t="s"/>
@@ -3315,27 +4084,25 @@
         <v>229</v>
       </c>
       <c r="K24" t="s">
+        <v>183</v>
+      </c>
+      <c r="L24" t="s">
         <v>230</v>
       </c>
-      <c r="L24" t="s">
+      <c r="M24" t="n">
+        <v>5</v>
+      </c>
+      <c r="N24" t="s">
         <v>231</v>
       </c>
-      <c r="M24" t="n">
-        <v>5</v>
-      </c>
-      <c r="N24" t="s">
-        <v>232</v>
-      </c>
       <c r="O24" t="s">
-        <v>68</v>
-      </c>
-      <c r="P24" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>5</v>
-      </c>
-      <c r="R24" t="s"/>
+        <v>52</v>
+      </c>
+      <c r="P24" t="s"/>
+      <c r="Q24" t="s"/>
+      <c r="R24" t="n">
+        <v>5</v>
+      </c>
       <c r="S24" t="s"/>
       <c r="T24" t="s"/>
       <c r="U24" t="n">
@@ -3345,13 +4112,13 @@
         <v>0</v>
       </c>
       <c r="W24" t="s">
-        <v>233</v>
+        <v>194</v>
       </c>
       <c r="X24" t="s">
-        <v>234</v>
+        <v>195</v>
       </c>
       <c r="Y24" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
     </row>
     <row r="25">
@@ -3367,40 +4134,42 @@
         <v>43</v>
       </c>
       <c r="F25" t="s">
+        <v>233</v>
+      </c>
+      <c r="G25" t="s">
+        <v>45</v>
+      </c>
+      <c r="H25" t="s">
+        <v>46</v>
+      </c>
+      <c r="I25" t="s">
+        <v>234</v>
+      </c>
+      <c r="J25" t="s">
+        <v>235</v>
+      </c>
+      <c r="K25" t="s">
         <v>236</v>
       </c>
-      <c r="G25" t="s">
-        <v>45</v>
-      </c>
-      <c r="H25" t="s">
-        <v>46</v>
-      </c>
-      <c r="I25" t="s">
+      <c r="L25" t="s">
         <v>237</v>
       </c>
-      <c r="J25" t="s">
-        <v>238</v>
-      </c>
-      <c r="K25" t="s">
-        <v>239</v>
-      </c>
-      <c r="L25" t="s">
-        <v>240</v>
-      </c>
       <c r="M25" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N25" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="O25" t="s">
-        <v>242</v>
-      </c>
-      <c r="P25" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q25" t="s"/>
-      <c r="R25" t="s"/>
+        <v>52</v>
+      </c>
+      <c r="P25" t="s"/>
+      <c r="Q25" t="n">
+        <v>5</v>
+      </c>
+      <c r="R25" t="n">
+        <v>5</v>
+      </c>
       <c r="S25" t="s"/>
       <c r="T25" t="s"/>
       <c r="U25" t="n">
@@ -3410,13 +4179,13 @@
         <v>0</v>
       </c>
       <c r="W25" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="X25" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="Y25" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
     </row>
     <row r="26">
@@ -3432,56 +4201,56 @@
         <v>43</v>
       </c>
       <c r="F26" t="s">
+        <v>241</v>
+      </c>
+      <c r="G26" t="s">
+        <v>45</v>
+      </c>
+      <c r="H26" t="s">
+        <v>46</v>
+      </c>
+      <c r="I26" t="s">
+        <v>242</v>
+      </c>
+      <c r="J26" t="s">
+        <v>243</v>
+      </c>
+      <c r="K26" t="s">
+        <v>244</v>
+      </c>
+      <c r="L26" t="s">
+        <v>245</v>
+      </c>
+      <c r="M26" t="n">
+        <v>3</v>
+      </c>
+      <c r="N26" t="s">
         <v>246</v>
       </c>
-      <c r="G26" t="s">
-        <v>45</v>
-      </c>
-      <c r="H26" t="s">
-        <v>46</v>
-      </c>
-      <c r="I26" t="s">
-        <v>247</v>
-      </c>
-      <c r="J26" t="s">
-        <v>248</v>
-      </c>
-      <c r="K26" t="s">
-        <v>249</v>
-      </c>
-      <c r="L26" t="s">
-        <v>250</v>
-      </c>
-      <c r="M26" t="n">
-        <v>5</v>
-      </c>
-      <c r="N26" t="s">
-        <v>251</v>
-      </c>
       <c r="O26" t="s">
-        <v>68</v>
+        <v>208</v>
       </c>
       <c r="P26" t="s"/>
-      <c r="Q26" t="s"/>
-      <c r="R26" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q26" t="n">
+        <v>3</v>
+      </c>
+      <c r="R26" t="s"/>
       <c r="S26" t="s"/>
       <c r="T26" t="s"/>
       <c r="U26" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
       </c>
       <c r="W26" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="X26" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="Y26" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
     </row>
     <row r="27">
@@ -3497,7 +4266,7 @@
         <v>43</v>
       </c>
       <c r="F27" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="G27" t="s">
         <v>45</v>
@@ -3506,45 +4275,43 @@
         <v>46</v>
       </c>
       <c r="I27" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="J27" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="K27" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="L27" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="M27" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N27" t="s">
-        <v>260</v>
+        <v>246</v>
       </c>
       <c r="O27" t="s">
-        <v>143</v>
-      </c>
-      <c r="P27" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q27" t="n">
-        <v>5</v>
-      </c>
+        <v>208</v>
+      </c>
+      <c r="P27" t="s"/>
+      <c r="Q27" t="s"/>
       <c r="R27" t="s"/>
       <c r="S27" t="s"/>
       <c r="T27" t="s"/>
-      <c r="U27" t="n">
-        <v>5</v>
-      </c>
+      <c r="U27" t="s"/>
       <c r="V27" t="n">
         <v>0</v>
       </c>
-      <c r="W27" t="s"/>
-      <c r="X27" t="s"/>
+      <c r="W27" t="s">
+        <v>255</v>
+      </c>
+      <c r="X27" t="s">
+        <v>256</v>
+      </c>
       <c r="Y27" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
     </row>
     <row r="28">
@@ -3560,41 +4327,43 @@
         <v>43</v>
       </c>
       <c r="F28" t="s">
+        <v>258</v>
+      </c>
+      <c r="G28" t="s">
+        <v>45</v>
+      </c>
+      <c r="H28" t="s">
+        <v>46</v>
+      </c>
+      <c r="I28" t="s">
+        <v>259</v>
+      </c>
+      <c r="J28" t="s">
+        <v>260</v>
+      </c>
+      <c r="K28" t="s">
+        <v>261</v>
+      </c>
+      <c r="L28" t="s">
         <v>262</v>
       </c>
-      <c r="G28" t="s">
-        <v>45</v>
-      </c>
-      <c r="H28" t="s">
-        <v>46</v>
-      </c>
-      <c r="I28" t="s">
+      <c r="M28" t="n">
+        <v>4</v>
+      </c>
+      <c r="N28" t="s">
+        <v>246</v>
+      </c>
+      <c r="O28" t="s">
         <v>263</v>
-      </c>
-      <c r="J28" t="s">
-        <v>264</v>
-      </c>
-      <c r="K28" t="s">
-        <v>265</v>
-      </c>
-      <c r="L28" t="s">
-        <v>266</v>
-      </c>
-      <c r="M28" t="n">
-        <v>5</v>
-      </c>
-      <c r="N28" t="s">
-        <v>267</v>
-      </c>
-      <c r="O28" t="s">
-        <v>52</v>
       </c>
       <c r="P28" t="s"/>
       <c r="Q28" t="s"/>
       <c r="R28" t="n">
-        <v>5</v>
-      </c>
-      <c r="S28" t="s"/>
+        <v>4</v>
+      </c>
+      <c r="S28" t="n">
+        <v>5</v>
+      </c>
       <c r="T28" t="s"/>
       <c r="U28" t="n">
         <v>5</v>
@@ -3603,13 +4372,13 @@
         <v>0</v>
       </c>
       <c r="W28" t="s">
-        <v>268</v>
+        <v>255</v>
       </c>
       <c r="X28" t="s">
-        <v>269</v>
+        <v>256</v>
       </c>
       <c r="Y28" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
     </row>
     <row r="29">
@@ -3625,7 +4394,7 @@
         <v>43</v>
       </c>
       <c r="F29" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="G29" t="s">
         <v>45</v>
@@ -3634,49 +4403,49 @@
         <v>46</v>
       </c>
       <c r="I29" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="J29" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="K29" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="L29" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="M29" t="n">
         <v>2</v>
       </c>
       <c r="N29" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="O29" t="s">
-        <v>143</v>
-      </c>
-      <c r="P29" t="s"/>
+        <v>59</v>
+      </c>
+      <c r="P29" t="n">
+        <v>3</v>
+      </c>
       <c r="Q29" t="s"/>
-      <c r="R29" t="n">
-        <v>5</v>
-      </c>
+      <c r="R29" t="s"/>
       <c r="S29" t="n">
         <v>2</v>
       </c>
       <c r="T29" t="s"/>
       <c r="U29" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
       </c>
       <c r="W29" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="X29" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="Y29" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
     </row>
     <row r="30">
@@ -3692,7 +4461,7 @@
         <v>43</v>
       </c>
       <c r="F30" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="G30" t="s">
         <v>45</v>
@@ -3701,49 +4470,47 @@
         <v>46</v>
       </c>
       <c r="I30" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="J30" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="K30" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="L30" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="M30" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N30" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="O30" t="s">
-        <v>242</v>
+        <v>52</v>
       </c>
       <c r="P30" t="s"/>
       <c r="Q30" t="n">
-        <v>3</v>
-      </c>
-      <c r="R30" t="n">
-        <v>3</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="R30" t="s"/>
       <c r="S30" t="s"/>
       <c r="T30" t="s"/>
       <c r="U30" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
       </c>
       <c r="W30" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="X30" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="Y30" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
     </row>
     <row r="31">
@@ -3759,7 +4526,7 @@
         <v>43</v>
       </c>
       <c r="F31" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="G31" t="s">
         <v>45</v>
@@ -3768,43 +4535,47 @@
         <v>46</v>
       </c>
       <c r="I31" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="J31" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="K31" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="L31" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="M31" t="n">
         <v>4</v>
       </c>
       <c r="N31" t="s">
-        <v>294</v>
+        <v>270</v>
       </c>
       <c r="O31" t="s">
-        <v>242</v>
+        <v>208</v>
       </c>
       <c r="P31" t="s"/>
-      <c r="Q31" t="s"/>
+      <c r="Q31" t="n">
+        <v>4</v>
+      </c>
       <c r="R31" t="s"/>
       <c r="S31" t="s"/>
       <c r="T31" t="s"/>
-      <c r="U31" t="s"/>
+      <c r="U31" t="n">
+        <v>5</v>
+      </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="X31" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="Y31" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
     </row>
     <row r="32">
@@ -3820,7 +4591,7 @@
         <v>43</v>
       </c>
       <c r="F32" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="G32" t="s">
         <v>45</v>
@@ -3829,49 +4600,43 @@
         <v>46</v>
       </c>
       <c r="I32" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="J32" t="s">
-        <v>300</v>
+        <v>285</v>
       </c>
       <c r="K32" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="L32" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="M32" t="n">
         <v>2</v>
       </c>
-      <c r="N32" t="s"/>
-      <c r="O32" t="s"/>
-      <c r="P32" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>3</v>
-      </c>
-      <c r="R32" t="n">
-        <v>3</v>
-      </c>
-      <c r="S32" t="n">
-        <v>1</v>
-      </c>
+      <c r="N32" t="s">
+        <v>270</v>
+      </c>
+      <c r="O32" t="s">
+        <v>208</v>
+      </c>
+      <c r="P32" t="s"/>
+      <c r="Q32" t="s"/>
+      <c r="R32" t="s"/>
+      <c r="S32" t="s"/>
       <c r="T32" t="s"/>
-      <c r="U32" t="n">
-        <v>1</v>
-      </c>
+      <c r="U32" t="s"/>
       <c r="V32" t="n">
         <v>0</v>
       </c>
       <c r="W32" t="s">
-        <v>303</v>
+        <v>288</v>
       </c>
       <c r="X32" t="s">
-        <v>304</v>
+        <v>289</v>
       </c>
       <c r="Y32" t="s">
-        <v>305</v>
+        <v>295</v>
       </c>
     </row>
     <row r="33">
@@ -3887,7 +4652,7 @@
         <v>43</v>
       </c>
       <c r="F33" t="s">
-        <v>306</v>
+        <v>296</v>
       </c>
       <c r="G33" t="s">
         <v>45</v>
@@ -3896,37 +4661,33 @@
         <v>46</v>
       </c>
       <c r="I33" t="s">
-        <v>307</v>
+        <v>297</v>
       </c>
       <c r="J33" t="s">
-        <v>308</v>
+        <v>298</v>
       </c>
       <c r="K33" t="s">
-        <v>309</v>
+        <v>299</v>
       </c>
       <c r="L33" t="s">
-        <v>310</v>
+        <v>300</v>
       </c>
       <c r="M33" t="n">
         <v>4</v>
       </c>
       <c r="N33" t="s">
-        <v>311</v>
+        <v>279</v>
       </c>
       <c r="O33" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="P33" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q33" t="n">
-        <v>4</v>
-      </c>
-      <c r="R33" t="n">
-        <v>4</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="Q33" t="s"/>
+      <c r="R33" t="s"/>
       <c r="S33" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T33" t="s"/>
       <c r="U33" t="n">
@@ -3936,13 +4697,13 @@
         <v>0</v>
       </c>
       <c r="W33" t="s">
-        <v>312</v>
+        <v>301</v>
       </c>
       <c r="X33" t="s">
-        <v>313</v>
+        <v>302</v>
       </c>
       <c r="Y33" t="s">
-        <v>314</v>
+        <v>303</v>
       </c>
     </row>
     <row r="34">
@@ -3958,7 +4719,7 @@
         <v>43</v>
       </c>
       <c r="F34" t="s">
-        <v>315</v>
+        <v>304</v>
       </c>
       <c r="G34" t="s">
         <v>45</v>
@@ -3967,53 +4728,49 @@
         <v>46</v>
       </c>
       <c r="I34" t="s">
-        <v>316</v>
+        <v>305</v>
       </c>
       <c r="J34" t="s">
-        <v>317</v>
+        <v>306</v>
       </c>
       <c r="K34" t="s">
-        <v>318</v>
+        <v>307</v>
       </c>
       <c r="L34" t="s">
-        <v>319</v>
+        <v>308</v>
       </c>
       <c r="M34" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N34" t="s">
-        <v>320</v>
+        <v>270</v>
       </c>
       <c r="O34" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="P34" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>3</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="Q34" t="s"/>
       <c r="R34" t="n">
-        <v>3</v>
-      </c>
-      <c r="S34" t="n">
-        <v>3</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="S34" t="s"/>
       <c r="T34" t="s"/>
       <c r="U34" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="s">
-        <v>321</v>
+        <v>309</v>
       </c>
       <c r="X34" t="s">
-        <v>322</v>
+        <v>310</v>
       </c>
       <c r="Y34" t="s">
-        <v>323</v>
+        <v>311</v>
       </c>
     </row>
     <row r="35">
@@ -4029,7 +4786,7 @@
         <v>43</v>
       </c>
       <c r="F35" t="s">
-        <v>324</v>
+        <v>312</v>
       </c>
       <c r="G35" t="s">
         <v>45</v>
@@ -4038,38 +4795,32 @@
         <v>46</v>
       </c>
       <c r="I35" t="s">
-        <v>325</v>
+        <v>313</v>
       </c>
       <c r="J35" t="s">
-        <v>326</v>
+        <v>314</v>
       </c>
       <c r="K35" t="s">
-        <v>327</v>
+        <v>315</v>
       </c>
       <c r="L35" t="s">
-        <v>328</v>
+        <v>316</v>
       </c>
       <c r="M35" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N35" t="s">
-        <v>329</v>
+        <v>270</v>
       </c>
       <c r="O35" t="s">
         <v>52</v>
       </c>
-      <c r="P35" t="n">
-        <v>5</v>
-      </c>
+      <c r="P35" t="s"/>
       <c r="Q35" t="n">
-        <v>5</v>
-      </c>
-      <c r="R35" t="n">
-        <v>5</v>
-      </c>
-      <c r="S35" t="n">
-        <v>5</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="R35" t="s"/>
+      <c r="S35" t="s"/>
       <c r="T35" t="s"/>
       <c r="U35" t="n">
         <v>5</v>
@@ -4077,14 +4828,10 @@
       <c r="V35" t="n">
         <v>0</v>
       </c>
-      <c r="W35" t="s">
-        <v>330</v>
-      </c>
-      <c r="X35" t="s">
-        <v>331</v>
-      </c>
+      <c r="W35" t="s"/>
+      <c r="X35" t="s"/>
       <c r="Y35" t="s">
-        <v>332</v>
+        <v>316</v>
       </c>
     </row>
     <row r="36">
@@ -4100,7 +4847,7 @@
         <v>43</v>
       </c>
       <c r="F36" t="s">
-        <v>333</v>
+        <v>317</v>
       </c>
       <c r="G36" t="s">
         <v>45</v>
@@ -4109,43 +4856,49 @@
         <v>46</v>
       </c>
       <c r="I36" t="s">
-        <v>334</v>
+        <v>318</v>
       </c>
       <c r="J36" t="s">
-        <v>335</v>
+        <v>319</v>
       </c>
       <c r="K36" t="s">
-        <v>336</v>
+        <v>320</v>
       </c>
       <c r="L36" t="s">
-        <v>337</v>
+        <v>321</v>
       </c>
       <c r="M36" t="n">
         <v>5</v>
       </c>
       <c r="N36" t="s">
-        <v>338</v>
+        <v>279</v>
       </c>
       <c r="O36" t="s">
-        <v>242</v>
+        <v>208</v>
       </c>
       <c r="P36" t="s"/>
-      <c r="Q36" t="s"/>
+      <c r="Q36" t="n">
+        <v>4</v>
+      </c>
       <c r="R36" t="s"/>
-      <c r="S36" t="s"/>
+      <c r="S36" t="n">
+        <v>5</v>
+      </c>
       <c r="T36" t="s"/>
-      <c r="U36" t="s"/>
+      <c r="U36" t="n">
+        <v>5</v>
+      </c>
       <c r="V36" t="n">
         <v>0</v>
       </c>
       <c r="W36" t="s">
-        <v>339</v>
+        <v>322</v>
       </c>
       <c r="X36" t="s">
-        <v>340</v>
+        <v>323</v>
       </c>
       <c r="Y36" t="s">
-        <v>341</v>
+        <v>324</v>
       </c>
     </row>
     <row r="37">
@@ -4161,7 +4914,7 @@
         <v>43</v>
       </c>
       <c r="F37" t="s">
-        <v>342</v>
+        <v>325</v>
       </c>
       <c r="G37" t="s">
         <v>45</v>
@@ -4170,53 +4923,43 @@
         <v>46</v>
       </c>
       <c r="I37" t="s">
-        <v>343</v>
+        <v>326</v>
       </c>
       <c r="J37" t="s">
-        <v>344</v>
+        <v>327</v>
       </c>
       <c r="K37" t="s">
-        <v>345</v>
+        <v>328</v>
       </c>
       <c r="L37" t="s">
-        <v>346</v>
+        <v>329</v>
       </c>
       <c r="M37" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N37" t="s">
-        <v>347</v>
+        <v>330</v>
       </c>
       <c r="O37" t="s">
-        <v>143</v>
-      </c>
-      <c r="P37" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>5</v>
-      </c>
-      <c r="R37" t="n">
-        <v>5</v>
-      </c>
-      <c r="S37" t="n">
-        <v>5</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="P37" t="s"/>
+      <c r="Q37" t="s"/>
+      <c r="R37" t="s"/>
+      <c r="S37" t="s"/>
       <c r="T37" t="s"/>
-      <c r="U37" t="n">
-        <v>4</v>
-      </c>
+      <c r="U37" t="s"/>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="s">
-        <v>348</v>
+        <v>331</v>
       </c>
       <c r="X37" t="s">
-        <v>349</v>
+        <v>332</v>
       </c>
       <c r="Y37" t="s">
-        <v>350</v>
+        <v>333</v>
       </c>
     </row>
     <row r="38">
@@ -4232,7 +4975,7 @@
         <v>43</v>
       </c>
       <c r="F38" t="s">
-        <v>351</v>
+        <v>334</v>
       </c>
       <c r="G38" t="s">
         <v>45</v>
@@ -4241,53 +4984,49 @@
         <v>46</v>
       </c>
       <c r="I38" t="s">
-        <v>352</v>
+        <v>335</v>
       </c>
       <c r="J38" t="s">
-        <v>353</v>
+        <v>336</v>
       </c>
       <c r="K38" t="s">
-        <v>354</v>
+        <v>337</v>
       </c>
       <c r="L38" t="s">
-        <v>355</v>
+        <v>338</v>
       </c>
       <c r="M38" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N38" t="s">
-        <v>356</v>
+        <v>330</v>
       </c>
       <c r="O38" t="s">
-        <v>68</v>
-      </c>
-      <c r="P38" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>5</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="P38" t="s"/>
+      <c r="Q38" t="s"/>
       <c r="R38" t="n">
         <v>5</v>
       </c>
       <c r="S38" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T38" t="s"/>
       <c r="U38" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
       </c>
       <c r="W38" t="s">
-        <v>357</v>
+        <v>339</v>
       </c>
       <c r="X38" t="s">
-        <v>358</v>
+        <v>340</v>
       </c>
       <c r="Y38" t="s">
-        <v>359</v>
+        <v>341</v>
       </c>
     </row>
     <row r="39">
@@ -4303,7 +5042,7 @@
         <v>43</v>
       </c>
       <c r="F39" t="s">
-        <v>360</v>
+        <v>342</v>
       </c>
       <c r="G39" t="s">
         <v>45</v>
@@ -4312,53 +5051,43 @@
         <v>46</v>
       </c>
       <c r="I39" t="s">
-        <v>361</v>
+        <v>343</v>
       </c>
       <c r="J39" t="s">
-        <v>362</v>
+        <v>344</v>
       </c>
       <c r="K39" t="s">
-        <v>363</v>
+        <v>345</v>
       </c>
       <c r="L39" t="s">
-        <v>364</v>
+        <v>346</v>
       </c>
       <c r="M39" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N39" t="s">
-        <v>365</v>
+        <v>330</v>
       </c>
       <c r="O39" t="s">
-        <v>242</v>
-      </c>
-      <c r="P39" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q39" t="n">
-        <v>4</v>
-      </c>
-      <c r="R39" t="n">
-        <v>3</v>
-      </c>
-      <c r="S39" t="n">
-        <v>5</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="P39" t="s"/>
+      <c r="Q39" t="s"/>
+      <c r="R39" t="s"/>
+      <c r="S39" t="s"/>
       <c r="T39" t="s"/>
-      <c r="U39" t="n">
-        <v>5</v>
-      </c>
+      <c r="U39" t="s"/>
       <c r="V39" t="n">
         <v>0</v>
       </c>
       <c r="W39" t="s">
-        <v>366</v>
+        <v>339</v>
       </c>
       <c r="X39" t="s">
-        <v>367</v>
+        <v>340</v>
       </c>
       <c r="Y39" t="s">
-        <v>368</v>
+        <v>347</v>
       </c>
     </row>
     <row r="40">
@@ -4374,7 +5103,7 @@
         <v>43</v>
       </c>
       <c r="F40" t="s">
-        <v>369</v>
+        <v>348</v>
       </c>
       <c r="G40" t="s">
         <v>45</v>
@@ -4383,53 +5112,49 @@
         <v>46</v>
       </c>
       <c r="I40" t="s">
-        <v>370</v>
+        <v>349</v>
       </c>
       <c r="J40" t="s">
-        <v>371</v>
+        <v>350</v>
       </c>
       <c r="K40" t="s">
-        <v>372</v>
+        <v>351</v>
       </c>
       <c r="L40" t="s">
-        <v>373</v>
+        <v>352</v>
       </c>
       <c r="M40" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N40" t="s">
-        <v>374</v>
+        <v>353</v>
       </c>
       <c r="O40" t="s">
-        <v>242</v>
+        <v>52</v>
       </c>
       <c r="P40" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q40" t="n">
-        <v>4</v>
-      </c>
-      <c r="R40" t="n">
-        <v>4</v>
-      </c>
-      <c r="S40" t="n">
-        <v>4</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="R40" t="s"/>
+      <c r="S40" t="s"/>
       <c r="T40" t="s"/>
       <c r="U40" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="s">
-        <v>375</v>
+        <v>354</v>
       </c>
       <c r="X40" t="s">
-        <v>376</v>
+        <v>355</v>
       </c>
       <c r="Y40" t="s">
-        <v>377</v>
+        <v>356</v>
       </c>
     </row>
     <row r="41">
@@ -4445,7 +5170,7 @@
         <v>43</v>
       </c>
       <c r="F41" t="s">
-        <v>378</v>
+        <v>357</v>
       </c>
       <c r="G41" t="s">
         <v>45</v>
@@ -4454,38 +5179,32 @@
         <v>46</v>
       </c>
       <c r="I41" t="s">
-        <v>379</v>
+        <v>358</v>
       </c>
       <c r="J41" t="s">
-        <v>380</v>
+        <v>359</v>
       </c>
       <c r="K41" t="s">
-        <v>381</v>
+        <v>360</v>
       </c>
       <c r="L41" t="s">
-        <v>382</v>
+        <v>361</v>
       </c>
       <c r="M41" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N41" t="s">
-        <v>383</v>
+        <v>362</v>
       </c>
       <c r="O41" t="s">
-        <v>52</v>
+        <v>263</v>
       </c>
       <c r="P41" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>5</v>
-      </c>
-      <c r="R41" t="n">
-        <v>5</v>
-      </c>
-      <c r="S41" t="n">
-        <v>5</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="Q41" t="s"/>
+      <c r="R41" t="s"/>
+      <c r="S41" t="s"/>
       <c r="T41" t="s"/>
       <c r="U41" t="n">
         <v>5</v>
@@ -4494,13 +5213,13 @@
         <v>0</v>
       </c>
       <c r="W41" t="s">
-        <v>384</v>
+        <v>363</v>
       </c>
       <c r="X41" t="s">
-        <v>385</v>
+        <v>364</v>
       </c>
       <c r="Y41" t="s">
-        <v>386</v>
+        <v>365</v>
       </c>
     </row>
     <row r="42">
@@ -4516,7 +5235,7 @@
         <v>43</v>
       </c>
       <c r="F42" t="s">
-        <v>387</v>
+        <v>366</v>
       </c>
       <c r="G42" t="s">
         <v>45</v>
@@ -4525,53 +5244,43 @@
         <v>46</v>
       </c>
       <c r="I42" t="s">
-        <v>388</v>
+        <v>367</v>
       </c>
       <c r="J42" t="s">
-        <v>389</v>
+        <v>368</v>
       </c>
       <c r="K42" t="s">
-        <v>390</v>
+        <v>369</v>
       </c>
       <c r="L42" t="s">
-        <v>391</v>
+        <v>370</v>
       </c>
       <c r="M42" t="n">
         <v>4</v>
       </c>
       <c r="N42" t="s">
-        <v>392</v>
+        <v>371</v>
       </c>
       <c r="O42" t="s">
-        <v>242</v>
-      </c>
-      <c r="P42" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q42" t="n">
-        <v>4</v>
-      </c>
-      <c r="R42" t="n">
-        <v>2</v>
-      </c>
-      <c r="S42" t="n">
-        <v>4</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="P42" t="s"/>
+      <c r="Q42" t="s"/>
+      <c r="R42" t="s"/>
+      <c r="S42" t="s"/>
       <c r="T42" t="s"/>
-      <c r="U42" t="n">
-        <v>5</v>
-      </c>
+      <c r="U42" t="s"/>
       <c r="V42" t="n">
         <v>0</v>
       </c>
       <c r="W42" t="s">
-        <v>393</v>
+        <v>372</v>
       </c>
       <c r="X42" t="s">
-        <v>394</v>
+        <v>373</v>
       </c>
       <c r="Y42" t="s">
-        <v>395</v>
+        <v>374</v>
       </c>
     </row>
     <row r="43">
@@ -4587,7 +5296,7 @@
         <v>43</v>
       </c>
       <c r="F43" t="s">
-        <v>396</v>
+        <v>375</v>
       </c>
       <c r="G43" t="s">
         <v>45</v>
@@ -4596,38 +5305,32 @@
         <v>46</v>
       </c>
       <c r="I43" t="s">
-        <v>397</v>
+        <v>376</v>
       </c>
       <c r="J43" t="s">
-        <v>398</v>
+        <v>377</v>
       </c>
       <c r="K43" t="s">
-        <v>399</v>
+        <v>378</v>
       </c>
       <c r="L43" t="s">
-        <v>400</v>
+        <v>379</v>
       </c>
       <c r="M43" t="n">
         <v>5</v>
       </c>
       <c r="N43" t="s">
-        <v>401</v>
+        <v>380</v>
       </c>
       <c r="O43" t="s">
-        <v>242</v>
-      </c>
-      <c r="P43" t="n">
-        <v>5</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="P43" t="s"/>
       <c r="Q43" t="n">
         <v>5</v>
       </c>
-      <c r="R43" t="n">
-        <v>4</v>
-      </c>
-      <c r="S43" t="n">
-        <v>5</v>
-      </c>
+      <c r="R43" t="s"/>
+      <c r="S43" t="s"/>
       <c r="T43" t="s"/>
       <c r="U43" t="n">
         <v>5</v>
@@ -4636,13 +5339,13 @@
         <v>0</v>
       </c>
       <c r="W43" t="s">
-        <v>402</v>
+        <v>381</v>
       </c>
       <c r="X43" t="s">
-        <v>403</v>
+        <v>382</v>
       </c>
       <c r="Y43" t="s">
-        <v>404</v>
+        <v>383</v>
       </c>
     </row>
     <row r="44">
@@ -4658,7 +5361,7 @@
         <v>43</v>
       </c>
       <c r="F44" t="s">
-        <v>405</v>
+        <v>384</v>
       </c>
       <c r="G44" t="s">
         <v>45</v>
@@ -4667,49 +5370,47 @@
         <v>46</v>
       </c>
       <c r="I44" t="s">
-        <v>406</v>
+        <v>385</v>
       </c>
       <c r="J44" t="s">
-        <v>407</v>
+        <v>386</v>
       </c>
       <c r="K44" t="s">
-        <v>408</v>
+        <v>387</v>
       </c>
       <c r="L44" t="s">
-        <v>409</v>
+        <v>388</v>
       </c>
       <c r="M44" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N44" t="s">
-        <v>410</v>
+        <v>389</v>
       </c>
       <c r="O44" t="s">
-        <v>242</v>
-      </c>
-      <c r="P44" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q44" t="n">
-        <v>5</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="P44" t="s"/>
+      <c r="Q44" t="s"/>
       <c r="R44" t="n">
-        <v>4</v>
-      </c>
-      <c r="S44" t="n">
-        <v>4</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="S44" t="s"/>
       <c r="T44" t="s"/>
       <c r="U44" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
       </c>
-      <c r="W44" t="s"/>
-      <c r="X44" t="s"/>
+      <c r="W44" t="s">
+        <v>390</v>
+      </c>
+      <c r="X44" t="s">
+        <v>391</v>
+      </c>
       <c r="Y44" t="s">
-        <v>409</v>
+        <v>392</v>
       </c>
     </row>
     <row r="45">
@@ -4725,7 +5426,7 @@
         <v>43</v>
       </c>
       <c r="F45" t="s">
-        <v>411</v>
+        <v>393</v>
       </c>
       <c r="G45" t="s">
         <v>45</v>
@@ -4734,41 +5435,37 @@
         <v>46</v>
       </c>
       <c r="I45" t="s">
-        <v>412</v>
+        <v>394</v>
       </c>
       <c r="J45" t="s">
-        <v>413</v>
+        <v>395</v>
       </c>
       <c r="K45" t="s">
-        <v>414</v>
+        <v>396</v>
       </c>
       <c r="L45" t="s">
-        <v>415</v>
+        <v>397</v>
       </c>
       <c r="M45" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N45" t="s">
-        <v>416</v>
+        <v>398</v>
       </c>
       <c r="O45" t="s">
-        <v>242</v>
+        <v>208</v>
       </c>
       <c r="P45" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q45" t="n">
-        <v>4</v>
-      </c>
-      <c r="R45" t="n">
-        <v>3</v>
-      </c>
-      <c r="S45" t="n">
-        <v>4</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="R45" t="s"/>
+      <c r="S45" t="s"/>
       <c r="T45" t="s"/>
       <c r="U45" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -4776,7 +5473,7 @@
       <c r="W45" t="s"/>
       <c r="X45" t="s"/>
       <c r="Y45" t="s">
-        <v>417</v>
+        <v>399</v>
       </c>
     </row>
     <row r="46">
@@ -4792,7 +5489,7 @@
         <v>43</v>
       </c>
       <c r="F46" t="s">
-        <v>418</v>
+        <v>400</v>
       </c>
       <c r="G46" t="s">
         <v>45</v>
@@ -4801,49 +5498,47 @@
         <v>46</v>
       </c>
       <c r="I46" t="s">
-        <v>419</v>
+        <v>401</v>
       </c>
       <c r="J46" t="s">
-        <v>420</v>
+        <v>402</v>
       </c>
       <c r="K46" t="s">
-        <v>421</v>
+        <v>403</v>
       </c>
       <c r="L46" t="s">
-        <v>422</v>
+        <v>404</v>
       </c>
       <c r="M46" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N46" t="s">
-        <v>423</v>
+        <v>405</v>
       </c>
       <c r="O46" t="s">
-        <v>242</v>
-      </c>
-      <c r="P46" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q46" t="n">
-        <v>4</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="P46" t="s"/>
+      <c r="Q46" t="s"/>
       <c r="R46" t="n">
-        <v>4</v>
-      </c>
-      <c r="S46" t="n">
-        <v>5</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="S46" t="s"/>
       <c r="T46" t="s"/>
       <c r="U46" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
-      <c r="W46" t="s"/>
-      <c r="X46" t="s"/>
+      <c r="W46" t="s">
+        <v>406</v>
+      </c>
+      <c r="X46" t="s">
+        <v>407</v>
+      </c>
       <c r="Y46" t="s">
-        <v>422</v>
+        <v>408</v>
       </c>
     </row>
     <row r="47">
@@ -4859,7 +5554,7 @@
         <v>43</v>
       </c>
       <c r="F47" t="s">
-        <v>424</v>
+        <v>409</v>
       </c>
       <c r="G47" t="s">
         <v>45</v>
@@ -4868,49 +5563,47 @@
         <v>46</v>
       </c>
       <c r="I47" t="s">
-        <v>425</v>
+        <v>410</v>
       </c>
       <c r="J47" t="s">
-        <v>426</v>
+        <v>411</v>
       </c>
       <c r="K47" t="s">
-        <v>427</v>
+        <v>412</v>
       </c>
       <c r="L47" t="s">
-        <v>428</v>
+        <v>413</v>
       </c>
       <c r="M47" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N47" t="s">
-        <v>429</v>
+        <v>414</v>
       </c>
       <c r="O47" t="s">
-        <v>68</v>
+        <v>263</v>
       </c>
       <c r="P47" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q47" t="n">
-        <v>4</v>
-      </c>
-      <c r="R47" t="n">
-        <v>5</v>
-      </c>
-      <c r="S47" t="n">
-        <v>5</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="Q47" t="s"/>
+      <c r="R47" t="s"/>
+      <c r="S47" t="s"/>
       <c r="T47" t="s"/>
       <c r="U47" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V47" t="n">
         <v>0</v>
       </c>
-      <c r="W47" t="s"/>
-      <c r="X47" t="s"/>
+      <c r="W47" t="s">
+        <v>415</v>
+      </c>
+      <c r="X47" t="s">
+        <v>416</v>
+      </c>
       <c r="Y47" t="s">
-        <v>430</v>
+        <v>417</v>
       </c>
     </row>
     <row r="48">
@@ -4926,7 +5619,7 @@
         <v>43</v>
       </c>
       <c r="F48" t="s">
-        <v>431</v>
+        <v>418</v>
       </c>
       <c r="G48" t="s">
         <v>45</v>
@@ -4935,47 +5628,53 @@
         <v>46</v>
       </c>
       <c r="I48" t="s">
-        <v>432</v>
+        <v>419</v>
       </c>
       <c r="J48" t="s">
-        <v>433</v>
+        <v>420</v>
       </c>
       <c r="K48" t="s">
-        <v>434</v>
+        <v>421</v>
       </c>
       <c r="L48" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="M48" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N48" t="s">
-        <v>436</v>
+        <v>414</v>
       </c>
       <c r="O48" t="s">
-        <v>52</v>
+        <v>263</v>
       </c>
       <c r="P48" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q48" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R48" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S48" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T48" t="s"/>
-      <c r="U48" t="s"/>
+      <c r="U48" t="n">
+        <v>1</v>
+      </c>
       <c r="V48" t="n">
         <v>0</v>
       </c>
-      <c r="W48" t="s"/>
-      <c r="X48" t="s"/>
+      <c r="W48" t="s">
+        <v>423</v>
+      </c>
+      <c r="X48" t="s">
+        <v>424</v>
+      </c>
       <c r="Y48" t="s">
-        <v>437</v>
+        <v>425</v>
       </c>
     </row>
     <row r="49">
@@ -4991,7 +5690,7 @@
         <v>43</v>
       </c>
       <c r="F49" t="s">
-        <v>438</v>
+        <v>426</v>
       </c>
       <c r="G49" t="s">
         <v>45</v>
@@ -5000,49 +5699,49 @@
         <v>46</v>
       </c>
       <c r="I49" t="s">
-        <v>439</v>
+        <v>427</v>
       </c>
       <c r="J49" t="s">
-        <v>440</v>
+        <v>428</v>
       </c>
       <c r="K49" t="s">
-        <v>441</v>
+        <v>429</v>
       </c>
       <c r="L49" t="s">
-        <v>442</v>
+        <v>430</v>
       </c>
       <c r="M49" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N49" t="s">
-        <v>443</v>
+        <v>431</v>
       </c>
       <c r="O49" t="s">
-        <v>68</v>
-      </c>
-      <c r="P49" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q49" t="n">
-        <v>5</v>
-      </c>
+        <v>208</v>
+      </c>
+      <c r="P49" t="s"/>
+      <c r="Q49" t="s"/>
       <c r="R49" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S49" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T49" t="s"/>
       <c r="U49" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="V49" t="n">
         <v>0</v>
       </c>
-      <c r="W49" t="s"/>
-      <c r="X49" t="s"/>
+      <c r="W49" t="s">
+        <v>432</v>
+      </c>
+      <c r="X49" t="s">
+        <v>433</v>
+      </c>
       <c r="Y49" t="s">
-        <v>442</v>
+        <v>434</v>
       </c>
     </row>
     <row r="50">
@@ -5058,7 +5757,7 @@
         <v>43</v>
       </c>
       <c r="F50" t="s">
-        <v>444</v>
+        <v>435</v>
       </c>
       <c r="G50" t="s">
         <v>45</v>
@@ -5067,43 +5766,49 @@
         <v>46</v>
       </c>
       <c r="I50" t="s">
-        <v>445</v>
+        <v>436</v>
       </c>
       <c r="J50" t="s">
-        <v>446</v>
+        <v>437</v>
       </c>
       <c r="K50" t="s">
-        <v>447</v>
+        <v>438</v>
       </c>
       <c r="L50" t="s">
-        <v>448</v>
+        <v>439</v>
       </c>
       <c r="M50" t="n">
-        <v>5</v>
-      </c>
-      <c r="N50" t="s"/>
-      <c r="O50" t="s"/>
-      <c r="P50" t="n">
-        <v>5</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="N50" t="s">
+        <v>440</v>
+      </c>
+      <c r="O50" t="s">
+        <v>263</v>
+      </c>
+      <c r="P50" t="s"/>
       <c r="Q50" t="n">
-        <v>5</v>
-      </c>
-      <c r="R50" t="s"/>
-      <c r="S50" t="n">
-        <v>5</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="R50" t="n">
+        <v>3</v>
+      </c>
+      <c r="S50" t="s"/>
       <c r="T50" t="s"/>
       <c r="U50" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V50" t="n">
         <v>0</v>
       </c>
-      <c r="W50" t="s"/>
-      <c r="X50" t="s"/>
+      <c r="W50" t="s">
+        <v>441</v>
+      </c>
+      <c r="X50" t="s">
+        <v>442</v>
+      </c>
       <c r="Y50" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
     </row>
     <row r="51">
@@ -5119,7 +5824,7 @@
         <v>43</v>
       </c>
       <c r="F51" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="G51" t="s">
         <v>45</v>
@@ -5128,22 +5833,26 @@
         <v>46</v>
       </c>
       <c r="I51" t="s">
-        <v>451</v>
+        <v>445</v>
       </c>
       <c r="J51" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="K51" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="L51" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
       <c r="M51" t="n">
         <v>4</v>
       </c>
-      <c r="N51" t="s"/>
-      <c r="O51" t="s"/>
+      <c r="N51" t="s">
+        <v>449</v>
+      </c>
+      <c r="O51" t="s">
+        <v>263</v>
+      </c>
       <c r="P51" t="s"/>
       <c r="Q51" t="s"/>
       <c r="R51" t="s"/>
@@ -5153,10 +5862,2312 @@
       <c r="V51" t="n">
         <v>0</v>
       </c>
-      <c r="W51" t="s"/>
-      <c r="X51" t="s"/>
+      <c r="W51" t="s">
+        <v>450</v>
+      </c>
+      <c r="X51" t="s">
+        <v>451</v>
+      </c>
       <c r="Y51" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>38426</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>43</v>
+      </c>
+      <c r="F52" t="s">
+        <v>453</v>
+      </c>
+      <c r="G52" t="s">
+        <v>45</v>
+      </c>
+      <c r="H52" t="s">
+        <v>46</v>
+      </c>
+      <c r="I52" t="s">
         <v>454</v>
+      </c>
+      <c r="J52" t="s">
+        <v>455</v>
+      </c>
+      <c r="K52" t="s">
+        <v>456</v>
+      </c>
+      <c r="L52" t="s">
+        <v>457</v>
+      </c>
+      <c r="M52" t="n">
+        <v>5</v>
+      </c>
+      <c r="N52" t="s">
+        <v>449</v>
+      </c>
+      <c r="O52" t="s">
+        <v>52</v>
+      </c>
+      <c r="P52" t="s"/>
+      <c r="Q52" t="n">
+        <v>5</v>
+      </c>
+      <c r="R52" t="n">
+        <v>5</v>
+      </c>
+      <c r="S52" t="s"/>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>5</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s">
+        <v>458</v>
+      </c>
+      <c r="X52" t="s">
+        <v>459</v>
+      </c>
+      <c r="Y52" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>38426</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>43</v>
+      </c>
+      <c r="F53" t="s">
+        <v>461</v>
+      </c>
+      <c r="G53" t="s">
+        <v>45</v>
+      </c>
+      <c r="H53" t="s">
+        <v>46</v>
+      </c>
+      <c r="I53" t="s">
+        <v>462</v>
+      </c>
+      <c r="J53" t="s">
+        <v>463</v>
+      </c>
+      <c r="K53" t="s">
+        <v>464</v>
+      </c>
+      <c r="L53" t="s">
+        <v>465</v>
+      </c>
+      <c r="M53" t="n">
+        <v>2</v>
+      </c>
+      <c r="N53" t="s">
+        <v>466</v>
+      </c>
+      <c r="O53" t="s">
+        <v>263</v>
+      </c>
+      <c r="P53" t="s"/>
+      <c r="Q53" t="n">
+        <v>2</v>
+      </c>
+      <c r="R53" t="n">
+        <v>3</v>
+      </c>
+      <c r="S53" t="s"/>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>3</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s">
+        <v>467</v>
+      </c>
+      <c r="X53" t="s">
+        <v>468</v>
+      </c>
+      <c r="Y53" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>38426</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>43</v>
+      </c>
+      <c r="F54" t="s">
+        <v>470</v>
+      </c>
+      <c r="G54" t="s">
+        <v>45</v>
+      </c>
+      <c r="H54" t="s">
+        <v>46</v>
+      </c>
+      <c r="I54" t="s">
+        <v>471</v>
+      </c>
+      <c r="J54" t="s">
+        <v>472</v>
+      </c>
+      <c r="K54" t="s">
+        <v>473</v>
+      </c>
+      <c r="L54" t="s">
+        <v>474</v>
+      </c>
+      <c r="M54" t="n">
+        <v>2</v>
+      </c>
+      <c r="N54" t="s"/>
+      <c r="O54" t="s"/>
+      <c r="P54" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>3</v>
+      </c>
+      <c r="R54" t="n">
+        <v>3</v>
+      </c>
+      <c r="S54" t="n">
+        <v>1</v>
+      </c>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>1</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s">
+        <v>475</v>
+      </c>
+      <c r="X54" t="s">
+        <v>476</v>
+      </c>
+      <c r="Y54" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>38426</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>43</v>
+      </c>
+      <c r="F55" t="s">
+        <v>478</v>
+      </c>
+      <c r="G55" t="s">
+        <v>45</v>
+      </c>
+      <c r="H55" t="s">
+        <v>46</v>
+      </c>
+      <c r="I55" t="s">
+        <v>479</v>
+      </c>
+      <c r="J55" t="s">
+        <v>480</v>
+      </c>
+      <c r="K55" t="s">
+        <v>481</v>
+      </c>
+      <c r="L55" t="s">
+        <v>482</v>
+      </c>
+      <c r="M55" t="n">
+        <v>4</v>
+      </c>
+      <c r="N55" t="s">
+        <v>483</v>
+      </c>
+      <c r="O55" t="s">
+        <v>52</v>
+      </c>
+      <c r="P55" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>4</v>
+      </c>
+      <c r="R55" t="n">
+        <v>4</v>
+      </c>
+      <c r="S55" t="n">
+        <v>5</v>
+      </c>
+      <c r="T55" t="s"/>
+      <c r="U55" t="n">
+        <v>4</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s">
+        <v>484</v>
+      </c>
+      <c r="X55" t="s">
+        <v>485</v>
+      </c>
+      <c r="Y55" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>38426</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>43</v>
+      </c>
+      <c r="F56" t="s">
+        <v>487</v>
+      </c>
+      <c r="G56" t="s">
+        <v>45</v>
+      </c>
+      <c r="H56" t="s">
+        <v>46</v>
+      </c>
+      <c r="I56" t="s">
+        <v>488</v>
+      </c>
+      <c r="J56" t="s">
+        <v>489</v>
+      </c>
+      <c r="K56" t="s">
+        <v>490</v>
+      </c>
+      <c r="L56" t="s">
+        <v>491</v>
+      </c>
+      <c r="M56" t="n">
+        <v>3</v>
+      </c>
+      <c r="N56" t="s">
+        <v>492</v>
+      </c>
+      <c r="O56" t="s">
+        <v>52</v>
+      </c>
+      <c r="P56" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>3</v>
+      </c>
+      <c r="R56" t="n">
+        <v>3</v>
+      </c>
+      <c r="S56" t="n">
+        <v>3</v>
+      </c>
+      <c r="T56" t="s"/>
+      <c r="U56" t="n">
+        <v>3</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s">
+        <v>493</v>
+      </c>
+      <c r="X56" t="s">
+        <v>494</v>
+      </c>
+      <c r="Y56" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>38426</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>43</v>
+      </c>
+      <c r="F57" t="s">
+        <v>496</v>
+      </c>
+      <c r="G57" t="s">
+        <v>45</v>
+      </c>
+      <c r="H57" t="s">
+        <v>46</v>
+      </c>
+      <c r="I57" t="s">
+        <v>497</v>
+      </c>
+      <c r="J57" t="s">
+        <v>498</v>
+      </c>
+      <c r="K57" t="s">
+        <v>499</v>
+      </c>
+      <c r="L57" t="s">
+        <v>500</v>
+      </c>
+      <c r="M57" t="n">
+        <v>1</v>
+      </c>
+      <c r="N57" t="s"/>
+      <c r="O57" t="s"/>
+      <c r="P57" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>1</v>
+      </c>
+      <c r="R57" t="n">
+        <v>2</v>
+      </c>
+      <c r="S57" t="n">
+        <v>1</v>
+      </c>
+      <c r="T57" t="s"/>
+      <c r="U57" t="n">
+        <v>3</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s">
+        <v>501</v>
+      </c>
+      <c r="X57" t="s">
+        <v>502</v>
+      </c>
+      <c r="Y57" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>38426</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>43</v>
+      </c>
+      <c r="F58" t="s">
+        <v>504</v>
+      </c>
+      <c r="G58" t="s">
+        <v>45</v>
+      </c>
+      <c r="H58" t="s">
+        <v>46</v>
+      </c>
+      <c r="I58" t="s">
+        <v>505</v>
+      </c>
+      <c r="J58" t="s">
+        <v>506</v>
+      </c>
+      <c r="K58" t="s">
+        <v>507</v>
+      </c>
+      <c r="L58" t="s">
+        <v>508</v>
+      </c>
+      <c r="M58" t="n">
+        <v>4</v>
+      </c>
+      <c r="N58" t="s">
+        <v>509</v>
+      </c>
+      <c r="O58" t="s">
+        <v>52</v>
+      </c>
+      <c r="P58" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>5</v>
+      </c>
+      <c r="R58" t="n">
+        <v>5</v>
+      </c>
+      <c r="S58" t="n">
+        <v>5</v>
+      </c>
+      <c r="T58" t="s"/>
+      <c r="U58" t="n">
+        <v>5</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s">
+        <v>510</v>
+      </c>
+      <c r="X58" t="s">
+        <v>511</v>
+      </c>
+      <c r="Y58" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>38426</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>43</v>
+      </c>
+      <c r="F59" t="s">
+        <v>513</v>
+      </c>
+      <c r="G59" t="s">
+        <v>45</v>
+      </c>
+      <c r="H59" t="s">
+        <v>46</v>
+      </c>
+      <c r="I59" t="s">
+        <v>514</v>
+      </c>
+      <c r="J59" t="s">
+        <v>515</v>
+      </c>
+      <c r="K59" t="s">
+        <v>516</v>
+      </c>
+      <c r="L59" t="s">
+        <v>517</v>
+      </c>
+      <c r="M59" t="n">
+        <v>5</v>
+      </c>
+      <c r="N59" t="s">
+        <v>518</v>
+      </c>
+      <c r="O59" t="s">
+        <v>59</v>
+      </c>
+      <c r="P59" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>5</v>
+      </c>
+      <c r="R59" t="n">
+        <v>5</v>
+      </c>
+      <c r="S59" t="n">
+        <v>5</v>
+      </c>
+      <c r="T59" t="s"/>
+      <c r="U59" t="n">
+        <v>5</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s">
+        <v>519</v>
+      </c>
+      <c r="X59" t="s">
+        <v>520</v>
+      </c>
+      <c r="Y59" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>38426</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>43</v>
+      </c>
+      <c r="F60" t="s">
+        <v>522</v>
+      </c>
+      <c r="G60" t="s">
+        <v>45</v>
+      </c>
+      <c r="H60" t="s">
+        <v>46</v>
+      </c>
+      <c r="I60" t="s">
+        <v>523</v>
+      </c>
+      <c r="J60" t="s">
+        <v>524</v>
+      </c>
+      <c r="K60" t="s">
+        <v>525</v>
+      </c>
+      <c r="L60" t="s">
+        <v>526</v>
+      </c>
+      <c r="M60" t="n">
+        <v>5</v>
+      </c>
+      <c r="N60" t="s">
+        <v>527</v>
+      </c>
+      <c r="O60" t="s">
+        <v>263</v>
+      </c>
+      <c r="P60" t="s"/>
+      <c r="Q60" t="s"/>
+      <c r="R60" t="s"/>
+      <c r="S60" t="s"/>
+      <c r="T60" t="s"/>
+      <c r="U60" t="s"/>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s">
+        <v>528</v>
+      </c>
+      <c r="X60" t="s">
+        <v>529</v>
+      </c>
+      <c r="Y60" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>38426</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>43</v>
+      </c>
+      <c r="F61" t="s">
+        <v>531</v>
+      </c>
+      <c r="G61" t="s">
+        <v>45</v>
+      </c>
+      <c r="H61" t="s">
+        <v>46</v>
+      </c>
+      <c r="I61" t="s">
+        <v>532</v>
+      </c>
+      <c r="J61" t="s">
+        <v>533</v>
+      </c>
+      <c r="K61" t="s">
+        <v>534</v>
+      </c>
+      <c r="L61" t="s">
+        <v>535</v>
+      </c>
+      <c r="M61" t="n">
+        <v>5</v>
+      </c>
+      <c r="N61" t="s">
+        <v>536</v>
+      </c>
+      <c r="O61" t="s">
+        <v>208</v>
+      </c>
+      <c r="P61" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>5</v>
+      </c>
+      <c r="R61" t="n">
+        <v>5</v>
+      </c>
+      <c r="S61" t="n">
+        <v>5</v>
+      </c>
+      <c r="T61" t="s"/>
+      <c r="U61" t="n">
+        <v>4</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s">
+        <v>537</v>
+      </c>
+      <c r="X61" t="s">
+        <v>538</v>
+      </c>
+      <c r="Y61" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>38426</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>43</v>
+      </c>
+      <c r="F62" t="s">
+        <v>540</v>
+      </c>
+      <c r="G62" t="s">
+        <v>45</v>
+      </c>
+      <c r="H62" t="s">
+        <v>46</v>
+      </c>
+      <c r="I62" t="s">
+        <v>541</v>
+      </c>
+      <c r="J62" t="s">
+        <v>542</v>
+      </c>
+      <c r="K62" t="s">
+        <v>543</v>
+      </c>
+      <c r="L62" t="s">
+        <v>544</v>
+      </c>
+      <c r="M62" t="n">
+        <v>5</v>
+      </c>
+      <c r="N62" t="s">
+        <v>545</v>
+      </c>
+      <c r="O62" t="s">
+        <v>263</v>
+      </c>
+      <c r="P62" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>5</v>
+      </c>
+      <c r="R62" t="n">
+        <v>5</v>
+      </c>
+      <c r="S62" t="n">
+        <v>5</v>
+      </c>
+      <c r="T62" t="s"/>
+      <c r="U62" t="n">
+        <v>5</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s">
+        <v>546</v>
+      </c>
+      <c r="X62" t="s">
+        <v>547</v>
+      </c>
+      <c r="Y62" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>38426</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>43</v>
+      </c>
+      <c r="F63" t="s">
+        <v>549</v>
+      </c>
+      <c r="G63" t="s">
+        <v>45</v>
+      </c>
+      <c r="H63" t="s">
+        <v>46</v>
+      </c>
+      <c r="I63" t="s">
+        <v>550</v>
+      </c>
+      <c r="J63" t="s">
+        <v>551</v>
+      </c>
+      <c r="K63" t="s">
+        <v>552</v>
+      </c>
+      <c r="L63" t="s">
+        <v>553</v>
+      </c>
+      <c r="M63" t="n">
+        <v>5</v>
+      </c>
+      <c r="N63" t="s">
+        <v>545</v>
+      </c>
+      <c r="O63" t="s">
+        <v>263</v>
+      </c>
+      <c r="P63" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>5</v>
+      </c>
+      <c r="R63" t="n">
+        <v>5</v>
+      </c>
+      <c r="S63" t="n">
+        <v>5</v>
+      </c>
+      <c r="T63" t="s"/>
+      <c r="U63" t="n">
+        <v>5</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s">
+        <v>554</v>
+      </c>
+      <c r="X63" t="s">
+        <v>555</v>
+      </c>
+      <c r="Y63" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>38426</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>43</v>
+      </c>
+      <c r="F64" t="s">
+        <v>557</v>
+      </c>
+      <c r="G64" t="s">
+        <v>45</v>
+      </c>
+      <c r="H64" t="s">
+        <v>46</v>
+      </c>
+      <c r="I64" t="s">
+        <v>558</v>
+      </c>
+      <c r="J64" t="s">
+        <v>559</v>
+      </c>
+      <c r="K64" t="s">
+        <v>560</v>
+      </c>
+      <c r="L64" t="s">
+        <v>561</v>
+      </c>
+      <c r="M64" t="n">
+        <v>5</v>
+      </c>
+      <c r="N64" t="s">
+        <v>562</v>
+      </c>
+      <c r="O64" t="s">
+        <v>52</v>
+      </c>
+      <c r="P64" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>5</v>
+      </c>
+      <c r="R64" t="n">
+        <v>5</v>
+      </c>
+      <c r="S64" t="n">
+        <v>5</v>
+      </c>
+      <c r="T64" t="s"/>
+      <c r="U64" t="n">
+        <v>5</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s">
+        <v>563</v>
+      </c>
+      <c r="X64" t="s">
+        <v>564</v>
+      </c>
+      <c r="Y64" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>38426</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>43</v>
+      </c>
+      <c r="F65" t="s">
+        <v>566</v>
+      </c>
+      <c r="G65" t="s">
+        <v>45</v>
+      </c>
+      <c r="H65" t="s">
+        <v>46</v>
+      </c>
+      <c r="I65" t="s">
+        <v>567</v>
+      </c>
+      <c r="J65" t="s">
+        <v>568</v>
+      </c>
+      <c r="K65" t="s">
+        <v>569</v>
+      </c>
+      <c r="L65" t="s">
+        <v>570</v>
+      </c>
+      <c r="M65" t="n">
+        <v>5</v>
+      </c>
+      <c r="N65" t="s">
+        <v>571</v>
+      </c>
+      <c r="O65" t="s">
+        <v>263</v>
+      </c>
+      <c r="P65" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>4</v>
+      </c>
+      <c r="R65" t="n">
+        <v>3</v>
+      </c>
+      <c r="S65" t="n">
+        <v>5</v>
+      </c>
+      <c r="T65" t="s"/>
+      <c r="U65" t="n">
+        <v>5</v>
+      </c>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s">
+        <v>572</v>
+      </c>
+      <c r="X65" t="s">
+        <v>573</v>
+      </c>
+      <c r="Y65" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>38426</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>43</v>
+      </c>
+      <c r="F66" t="s">
+        <v>575</v>
+      </c>
+      <c r="G66" t="s">
+        <v>45</v>
+      </c>
+      <c r="H66" t="s">
+        <v>46</v>
+      </c>
+      <c r="I66" t="s">
+        <v>576</v>
+      </c>
+      <c r="J66" t="s">
+        <v>577</v>
+      </c>
+      <c r="K66" t="s">
+        <v>578</v>
+      </c>
+      <c r="L66" t="s">
+        <v>579</v>
+      </c>
+      <c r="M66" t="n">
+        <v>3</v>
+      </c>
+      <c r="N66" t="s">
+        <v>580</v>
+      </c>
+      <c r="O66" t="s">
+        <v>263</v>
+      </c>
+      <c r="P66" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>4</v>
+      </c>
+      <c r="R66" t="n">
+        <v>4</v>
+      </c>
+      <c r="S66" t="n">
+        <v>4</v>
+      </c>
+      <c r="T66" t="s"/>
+      <c r="U66" t="n">
+        <v>3</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s">
+        <v>581</v>
+      </c>
+      <c r="X66" t="s">
+        <v>582</v>
+      </c>
+      <c r="Y66" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>38426</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>43</v>
+      </c>
+      <c r="F67" t="s">
+        <v>584</v>
+      </c>
+      <c r="G67" t="s">
+        <v>45</v>
+      </c>
+      <c r="H67" t="s">
+        <v>46</v>
+      </c>
+      <c r="I67" t="s">
+        <v>585</v>
+      </c>
+      <c r="J67" t="s">
+        <v>586</v>
+      </c>
+      <c r="K67" t="s">
+        <v>587</v>
+      </c>
+      <c r="L67" t="s">
+        <v>588</v>
+      </c>
+      <c r="M67" t="n">
+        <v>4</v>
+      </c>
+      <c r="N67" t="s">
+        <v>589</v>
+      </c>
+      <c r="O67" t="s">
+        <v>52</v>
+      </c>
+      <c r="P67" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>4</v>
+      </c>
+      <c r="R67" t="n">
+        <v>4</v>
+      </c>
+      <c r="S67" t="n">
+        <v>4</v>
+      </c>
+      <c r="T67" t="s"/>
+      <c r="U67" t="n">
+        <v>5</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s">
+        <v>590</v>
+      </c>
+      <c r="X67" t="s">
+        <v>591</v>
+      </c>
+      <c r="Y67" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>38426</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>43</v>
+      </c>
+      <c r="F68" t="s">
+        <v>593</v>
+      </c>
+      <c r="G68" t="s">
+        <v>45</v>
+      </c>
+      <c r="H68" t="s">
+        <v>46</v>
+      </c>
+      <c r="I68" t="s">
+        <v>594</v>
+      </c>
+      <c r="J68" t="s">
+        <v>595</v>
+      </c>
+      <c r="K68" t="s">
+        <v>596</v>
+      </c>
+      <c r="L68" t="s">
+        <v>597</v>
+      </c>
+      <c r="M68" t="n">
+        <v>5</v>
+      </c>
+      <c r="N68" t="s"/>
+      <c r="O68" t="s"/>
+      <c r="P68" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>5</v>
+      </c>
+      <c r="R68" t="n">
+        <v>4</v>
+      </c>
+      <c r="S68" t="n">
+        <v>5</v>
+      </c>
+      <c r="T68" t="s"/>
+      <c r="U68" t="n">
+        <v>4</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s">
+        <v>598</v>
+      </c>
+      <c r="X68" t="s">
+        <v>599</v>
+      </c>
+      <c r="Y68" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>38426</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>43</v>
+      </c>
+      <c r="F69" t="s">
+        <v>601</v>
+      </c>
+      <c r="G69" t="s">
+        <v>45</v>
+      </c>
+      <c r="H69" t="s">
+        <v>46</v>
+      </c>
+      <c r="I69" t="s">
+        <v>602</v>
+      </c>
+      <c r="J69" t="s">
+        <v>603</v>
+      </c>
+      <c r="K69" t="s">
+        <v>604</v>
+      </c>
+      <c r="L69" t="s">
+        <v>605</v>
+      </c>
+      <c r="M69" t="n">
+        <v>5</v>
+      </c>
+      <c r="N69" t="s">
+        <v>606</v>
+      </c>
+      <c r="O69" t="s">
+        <v>59</v>
+      </c>
+      <c r="P69" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>5</v>
+      </c>
+      <c r="R69" t="n">
+        <v>5</v>
+      </c>
+      <c r="S69" t="n">
+        <v>5</v>
+      </c>
+      <c r="T69" t="s"/>
+      <c r="U69" t="n">
+        <v>5</v>
+      </c>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s">
+        <v>607</v>
+      </c>
+      <c r="X69" t="s">
+        <v>608</v>
+      </c>
+      <c r="Y69" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>38426</v>
+      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
+      <c r="D70" t="n">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>43</v>
+      </c>
+      <c r="F70" t="s">
+        <v>610</v>
+      </c>
+      <c r="G70" t="s">
+        <v>45</v>
+      </c>
+      <c r="H70" t="s">
+        <v>46</v>
+      </c>
+      <c r="I70" t="s">
+        <v>611</v>
+      </c>
+      <c r="J70" t="s">
+        <v>612</v>
+      </c>
+      <c r="K70" t="s">
+        <v>613</v>
+      </c>
+      <c r="L70" t="s">
+        <v>614</v>
+      </c>
+      <c r="M70" t="n">
+        <v>4</v>
+      </c>
+      <c r="N70" t="s">
+        <v>615</v>
+      </c>
+      <c r="O70" t="s">
+        <v>263</v>
+      </c>
+      <c r="P70" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>4</v>
+      </c>
+      <c r="R70" t="n">
+        <v>2</v>
+      </c>
+      <c r="S70" t="n">
+        <v>4</v>
+      </c>
+      <c r="T70" t="s"/>
+      <c r="U70" t="n">
+        <v>5</v>
+      </c>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="s">
+        <v>616</v>
+      </c>
+      <c r="X70" t="s">
+        <v>617</v>
+      </c>
+      <c r="Y70" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>38426</v>
+      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
+      <c r="D71" t="n">
+        <v>70</v>
+      </c>
+      <c r="E71" t="s">
+        <v>43</v>
+      </c>
+      <c r="F71" t="s">
+        <v>619</v>
+      </c>
+      <c r="G71" t="s">
+        <v>45</v>
+      </c>
+      <c r="H71" t="s">
+        <v>46</v>
+      </c>
+      <c r="I71" t="s">
+        <v>620</v>
+      </c>
+      <c r="J71" t="s">
+        <v>621</v>
+      </c>
+      <c r="K71" t="s">
+        <v>622</v>
+      </c>
+      <c r="L71" t="s">
+        <v>623</v>
+      </c>
+      <c r="M71" t="n">
+        <v>5</v>
+      </c>
+      <c r="N71" t="s">
+        <v>624</v>
+      </c>
+      <c r="O71" t="s">
+        <v>263</v>
+      </c>
+      <c r="P71" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>5</v>
+      </c>
+      <c r="R71" t="n">
+        <v>4</v>
+      </c>
+      <c r="S71" t="n">
+        <v>5</v>
+      </c>
+      <c r="T71" t="s"/>
+      <c r="U71" t="n">
+        <v>5</v>
+      </c>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="s">
+        <v>625</v>
+      </c>
+      <c r="X71" t="s">
+        <v>626</v>
+      </c>
+      <c r="Y71" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>38426</v>
+      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
+      <c r="D72" t="n">
+        <v>71</v>
+      </c>
+      <c r="E72" t="s">
+        <v>43</v>
+      </c>
+      <c r="F72" t="s">
+        <v>628</v>
+      </c>
+      <c r="G72" t="s">
+        <v>45</v>
+      </c>
+      <c r="H72" t="s">
+        <v>46</v>
+      </c>
+      <c r="I72" t="s">
+        <v>629</v>
+      </c>
+      <c r="J72" t="s">
+        <v>630</v>
+      </c>
+      <c r="K72" t="s">
+        <v>631</v>
+      </c>
+      <c r="L72" t="s">
+        <v>632</v>
+      </c>
+      <c r="M72" t="n">
+        <v>1</v>
+      </c>
+      <c r="N72" t="s">
+        <v>633</v>
+      </c>
+      <c r="O72" t="s">
+        <v>52</v>
+      </c>
+      <c r="P72" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q72" t="s"/>
+      <c r="R72" t="s"/>
+      <c r="S72" t="n">
+        <v>1</v>
+      </c>
+      <c r="T72" t="s"/>
+      <c r="U72" t="n">
+        <v>2</v>
+      </c>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="s"/>
+      <c r="X72" t="s"/>
+      <c r="Y72" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>38426</v>
+      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
+      <c r="D73" t="n">
+        <v>72</v>
+      </c>
+      <c r="E73" t="s">
+        <v>43</v>
+      </c>
+      <c r="F73" t="s">
+        <v>634</v>
+      </c>
+      <c r="G73" t="s">
+        <v>45</v>
+      </c>
+      <c r="H73" t="s">
+        <v>46</v>
+      </c>
+      <c r="I73" t="s">
+        <v>635</v>
+      </c>
+      <c r="J73" t="s">
+        <v>636</v>
+      </c>
+      <c r="K73" t="s">
+        <v>637</v>
+      </c>
+      <c r="L73" t="s">
+        <v>638</v>
+      </c>
+      <c r="M73" t="n">
+        <v>4</v>
+      </c>
+      <c r="N73" t="s">
+        <v>639</v>
+      </c>
+      <c r="O73" t="s">
+        <v>52</v>
+      </c>
+      <c r="P73" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>5</v>
+      </c>
+      <c r="R73" t="n">
+        <v>4</v>
+      </c>
+      <c r="S73" t="n">
+        <v>5</v>
+      </c>
+      <c r="T73" t="s"/>
+      <c r="U73" t="n">
+        <v>4</v>
+      </c>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="s"/>
+      <c r="X73" t="s"/>
+      <c r="Y73" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>38426</v>
+      </c>
+      <c r="B74" t="s"/>
+      <c r="C74" t="s"/>
+      <c r="D74" t="n">
+        <v>73</v>
+      </c>
+      <c r="E74" t="s">
+        <v>43</v>
+      </c>
+      <c r="F74" t="s">
+        <v>640</v>
+      </c>
+      <c r="G74" t="s">
+        <v>45</v>
+      </c>
+      <c r="H74" t="s">
+        <v>46</v>
+      </c>
+      <c r="I74" t="s">
+        <v>641</v>
+      </c>
+      <c r="J74" t="s">
+        <v>642</v>
+      </c>
+      <c r="K74" t="s">
+        <v>643</v>
+      </c>
+      <c r="L74" t="s">
+        <v>644</v>
+      </c>
+      <c r="M74" t="n">
+        <v>4</v>
+      </c>
+      <c r="N74" t="s">
+        <v>645</v>
+      </c>
+      <c r="O74" t="s">
+        <v>263</v>
+      </c>
+      <c r="P74" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>5</v>
+      </c>
+      <c r="R74" t="n">
+        <v>4</v>
+      </c>
+      <c r="S74" t="n">
+        <v>4</v>
+      </c>
+      <c r="T74" t="s"/>
+      <c r="U74" t="n">
+        <v>4</v>
+      </c>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" t="s"/>
+      <c r="X74" t="s"/>
+      <c r="Y74" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>38426</v>
+      </c>
+      <c r="B75" t="s"/>
+      <c r="C75" t="s"/>
+      <c r="D75" t="n">
+        <v>74</v>
+      </c>
+      <c r="E75" t="s">
+        <v>43</v>
+      </c>
+      <c r="F75" t="s">
+        <v>646</v>
+      </c>
+      <c r="G75" t="s">
+        <v>45</v>
+      </c>
+      <c r="H75" t="s">
+        <v>46</v>
+      </c>
+      <c r="I75" t="s">
+        <v>647</v>
+      </c>
+      <c r="J75" t="s">
+        <v>648</v>
+      </c>
+      <c r="K75" t="s">
+        <v>649</v>
+      </c>
+      <c r="L75" t="s">
+        <v>650</v>
+      </c>
+      <c r="M75" t="n">
+        <v>4</v>
+      </c>
+      <c r="N75" t="s">
+        <v>651</v>
+      </c>
+      <c r="O75" t="s">
+        <v>263</v>
+      </c>
+      <c r="P75" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>4</v>
+      </c>
+      <c r="R75" t="n">
+        <v>3</v>
+      </c>
+      <c r="S75" t="n">
+        <v>4</v>
+      </c>
+      <c r="T75" t="s"/>
+      <c r="U75" t="n">
+        <v>3</v>
+      </c>
+      <c r="V75" t="n">
+        <v>0</v>
+      </c>
+      <c r="W75" t="s"/>
+      <c r="X75" t="s"/>
+      <c r="Y75" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>38426</v>
+      </c>
+      <c r="B76" t="s"/>
+      <c r="C76" t="s"/>
+      <c r="D76" t="n">
+        <v>75</v>
+      </c>
+      <c r="E76" t="s">
+        <v>43</v>
+      </c>
+      <c r="F76" t="s">
+        <v>653</v>
+      </c>
+      <c r="G76" t="s">
+        <v>45</v>
+      </c>
+      <c r="H76" t="s">
+        <v>46</v>
+      </c>
+      <c r="I76" t="s">
+        <v>654</v>
+      </c>
+      <c r="J76" t="s">
+        <v>655</v>
+      </c>
+      <c r="K76" t="s">
+        <v>656</v>
+      </c>
+      <c r="L76" t="s">
+        <v>657</v>
+      </c>
+      <c r="M76" t="n">
+        <v>4</v>
+      </c>
+      <c r="N76" t="s">
+        <v>658</v>
+      </c>
+      <c r="O76" t="s">
+        <v>263</v>
+      </c>
+      <c r="P76" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>4</v>
+      </c>
+      <c r="R76" t="n">
+        <v>4</v>
+      </c>
+      <c r="S76" t="n">
+        <v>5</v>
+      </c>
+      <c r="T76" t="s"/>
+      <c r="U76" t="n">
+        <v>4</v>
+      </c>
+      <c r="V76" t="n">
+        <v>0</v>
+      </c>
+      <c r="W76" t="s"/>
+      <c r="X76" t="s"/>
+      <c r="Y76" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>38426</v>
+      </c>
+      <c r="B77" t="s"/>
+      <c r="C77" t="s"/>
+      <c r="D77" t="n">
+        <v>76</v>
+      </c>
+      <c r="E77" t="s">
+        <v>43</v>
+      </c>
+      <c r="F77" t="s">
+        <v>659</v>
+      </c>
+      <c r="G77" t="s">
+        <v>45</v>
+      </c>
+      <c r="H77" t="s">
+        <v>46</v>
+      </c>
+      <c r="I77" t="s">
+        <v>660</v>
+      </c>
+      <c r="J77" t="s">
+        <v>661</v>
+      </c>
+      <c r="K77" t="s">
+        <v>662</v>
+      </c>
+      <c r="L77" t="s">
+        <v>663</v>
+      </c>
+      <c r="M77" t="n">
+        <v>4</v>
+      </c>
+      <c r="N77" t="s">
+        <v>664</v>
+      </c>
+      <c r="O77" t="s">
+        <v>263</v>
+      </c>
+      <c r="P77" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>4</v>
+      </c>
+      <c r="R77" t="n">
+        <v>5</v>
+      </c>
+      <c r="S77" t="n">
+        <v>5</v>
+      </c>
+      <c r="T77" t="s"/>
+      <c r="U77" t="n">
+        <v>4</v>
+      </c>
+      <c r="V77" t="n">
+        <v>0</v>
+      </c>
+      <c r="W77" t="s">
+        <v>665</v>
+      </c>
+      <c r="X77" t="s">
+        <v>666</v>
+      </c>
+      <c r="Y77" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>38426</v>
+      </c>
+      <c r="B78" t="s"/>
+      <c r="C78" t="s"/>
+      <c r="D78" t="n">
+        <v>77</v>
+      </c>
+      <c r="E78" t="s">
+        <v>43</v>
+      </c>
+      <c r="F78" t="s">
+        <v>668</v>
+      </c>
+      <c r="G78" t="s">
+        <v>45</v>
+      </c>
+      <c r="H78" t="s">
+        <v>46</v>
+      </c>
+      <c r="I78" t="s">
+        <v>669</v>
+      </c>
+      <c r="J78" t="s">
+        <v>670</v>
+      </c>
+      <c r="K78" t="s">
+        <v>671</v>
+      </c>
+      <c r="L78" t="s">
+        <v>672</v>
+      </c>
+      <c r="M78" t="n">
+        <v>4</v>
+      </c>
+      <c r="N78" t="s">
+        <v>673</v>
+      </c>
+      <c r="O78" t="s">
+        <v>208</v>
+      </c>
+      <c r="P78" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>5</v>
+      </c>
+      <c r="R78" t="n">
+        <v>4</v>
+      </c>
+      <c r="S78" t="n">
+        <v>5</v>
+      </c>
+      <c r="T78" t="s"/>
+      <c r="U78" t="s"/>
+      <c r="V78" t="n">
+        <v>0</v>
+      </c>
+      <c r="W78" t="s"/>
+      <c r="X78" t="s"/>
+      <c r="Y78" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>38426</v>
+      </c>
+      <c r="B79" t="s"/>
+      <c r="C79" t="s"/>
+      <c r="D79" t="n">
+        <v>78</v>
+      </c>
+      <c r="E79" t="s">
+        <v>43</v>
+      </c>
+      <c r="F79" t="s">
+        <v>675</v>
+      </c>
+      <c r="G79" t="s">
+        <v>45</v>
+      </c>
+      <c r="H79" t="s">
+        <v>46</v>
+      </c>
+      <c r="I79" t="s">
+        <v>676</v>
+      </c>
+      <c r="J79" t="s">
+        <v>677</v>
+      </c>
+      <c r="K79" t="s">
+        <v>678</v>
+      </c>
+      <c r="L79" t="s">
+        <v>679</v>
+      </c>
+      <c r="M79" t="n">
+        <v>4</v>
+      </c>
+      <c r="N79" t="s">
+        <v>680</v>
+      </c>
+      <c r="O79" t="s">
+        <v>52</v>
+      </c>
+      <c r="P79" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>4</v>
+      </c>
+      <c r="R79" t="n">
+        <v>5</v>
+      </c>
+      <c r="S79" t="n">
+        <v>5</v>
+      </c>
+      <c r="T79" t="s"/>
+      <c r="U79" t="n">
+        <v>4</v>
+      </c>
+      <c r="V79" t="n">
+        <v>0</v>
+      </c>
+      <c r="W79" t="s"/>
+      <c r="X79" t="s"/>
+      <c r="Y79" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>38426</v>
+      </c>
+      <c r="B80" t="s"/>
+      <c r="C80" t="s"/>
+      <c r="D80" t="n">
+        <v>79</v>
+      </c>
+      <c r="E80" t="s">
+        <v>43</v>
+      </c>
+      <c r="F80" t="s">
+        <v>682</v>
+      </c>
+      <c r="G80" t="s">
+        <v>45</v>
+      </c>
+      <c r="H80" t="s">
+        <v>46</v>
+      </c>
+      <c r="I80" t="s">
+        <v>683</v>
+      </c>
+      <c r="J80" t="s">
+        <v>684</v>
+      </c>
+      <c r="K80" t="s">
+        <v>685</v>
+      </c>
+      <c r="L80" t="s">
+        <v>686</v>
+      </c>
+      <c r="M80" t="n">
+        <v>5</v>
+      </c>
+      <c r="N80" t="s">
+        <v>687</v>
+      </c>
+      <c r="O80" t="s">
+        <v>59</v>
+      </c>
+      <c r="P80" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>5</v>
+      </c>
+      <c r="R80" t="n">
+        <v>5</v>
+      </c>
+      <c r="S80" t="n">
+        <v>5</v>
+      </c>
+      <c r="T80" t="s"/>
+      <c r="U80" t="s"/>
+      <c r="V80" t="n">
+        <v>0</v>
+      </c>
+      <c r="W80" t="s"/>
+      <c r="X80" t="s"/>
+      <c r="Y80" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>38426</v>
+      </c>
+      <c r="B81" t="s"/>
+      <c r="C81" t="s"/>
+      <c r="D81" t="n">
+        <v>80</v>
+      </c>
+      <c r="E81" t="s">
+        <v>43</v>
+      </c>
+      <c r="F81" t="s">
+        <v>689</v>
+      </c>
+      <c r="G81" t="s">
+        <v>45</v>
+      </c>
+      <c r="H81" t="s">
+        <v>46</v>
+      </c>
+      <c r="I81" t="s">
+        <v>690</v>
+      </c>
+      <c r="J81" t="s">
+        <v>691</v>
+      </c>
+      <c r="K81" t="s">
+        <v>692</v>
+      </c>
+      <c r="L81" t="s">
+        <v>693</v>
+      </c>
+      <c r="M81" t="n">
+        <v>4</v>
+      </c>
+      <c r="N81" t="s">
+        <v>694</v>
+      </c>
+      <c r="O81" t="s">
+        <v>52</v>
+      </c>
+      <c r="P81" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q81" t="n">
+        <v>5</v>
+      </c>
+      <c r="R81" t="n">
+        <v>4</v>
+      </c>
+      <c r="S81" t="n">
+        <v>3</v>
+      </c>
+      <c r="T81" t="s"/>
+      <c r="U81" t="n">
+        <v>4</v>
+      </c>
+      <c r="V81" t="n">
+        <v>0</v>
+      </c>
+      <c r="W81" t="s"/>
+      <c r="X81" t="s"/>
+      <c r="Y81" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>38426</v>
+      </c>
+      <c r="B82" t="s"/>
+      <c r="C82" t="s"/>
+      <c r="D82" t="n">
+        <v>81</v>
+      </c>
+      <c r="E82" t="s">
+        <v>43</v>
+      </c>
+      <c r="F82" t="s">
+        <v>695</v>
+      </c>
+      <c r="G82" t="s">
+        <v>45</v>
+      </c>
+      <c r="H82" t="s">
+        <v>46</v>
+      </c>
+      <c r="I82" t="s">
+        <v>696</v>
+      </c>
+      <c r="J82" t="s">
+        <v>697</v>
+      </c>
+      <c r="K82" t="s">
+        <v>698</v>
+      </c>
+      <c r="L82" t="s">
+        <v>699</v>
+      </c>
+      <c r="M82" t="n">
+        <v>2</v>
+      </c>
+      <c r="N82" t="s">
+        <v>700</v>
+      </c>
+      <c r="O82" t="s">
+        <v>52</v>
+      </c>
+      <c r="P82" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>3</v>
+      </c>
+      <c r="R82" t="n">
+        <v>4</v>
+      </c>
+      <c r="S82" t="n">
+        <v>3</v>
+      </c>
+      <c r="T82" t="s"/>
+      <c r="U82" t="n">
+        <v>4</v>
+      </c>
+      <c r="V82" t="n">
+        <v>0</v>
+      </c>
+      <c r="W82" t="s"/>
+      <c r="X82" t="s"/>
+      <c r="Y82" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>38426</v>
+      </c>
+      <c r="B83" t="s"/>
+      <c r="C83" t="s"/>
+      <c r="D83" t="n">
+        <v>82</v>
+      </c>
+      <c r="E83" t="s">
+        <v>43</v>
+      </c>
+      <c r="F83" t="s">
+        <v>701</v>
+      </c>
+      <c r="G83" t="s">
+        <v>45</v>
+      </c>
+      <c r="H83" t="s">
+        <v>46</v>
+      </c>
+      <c r="I83" t="s">
+        <v>702</v>
+      </c>
+      <c r="J83" t="s">
+        <v>703</v>
+      </c>
+      <c r="K83" t="s">
+        <v>543</v>
+      </c>
+      <c r="L83" t="s">
+        <v>704</v>
+      </c>
+      <c r="M83" t="n">
+        <v>5</v>
+      </c>
+      <c r="N83" t="s"/>
+      <c r="O83" t="s"/>
+      <c r="P83" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q83" t="n">
+        <v>5</v>
+      </c>
+      <c r="R83" t="s"/>
+      <c r="S83" t="n">
+        <v>5</v>
+      </c>
+      <c r="T83" t="s"/>
+      <c r="U83" t="n">
+        <v>5</v>
+      </c>
+      <c r="V83" t="n">
+        <v>0</v>
+      </c>
+      <c r="W83" t="s"/>
+      <c r="X83" t="s"/>
+      <c r="Y83" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>38426</v>
+      </c>
+      <c r="B84" t="s"/>
+      <c r="C84" t="s"/>
+      <c r="D84" t="n">
+        <v>83</v>
+      </c>
+      <c r="E84" t="s">
+        <v>43</v>
+      </c>
+      <c r="F84" t="s">
+        <v>705</v>
+      </c>
+      <c r="G84" t="s">
+        <v>45</v>
+      </c>
+      <c r="H84" t="s">
+        <v>46</v>
+      </c>
+      <c r="I84" t="s">
+        <v>706</v>
+      </c>
+      <c r="J84" t="s">
+        <v>707</v>
+      </c>
+      <c r="K84" t="s">
+        <v>708</v>
+      </c>
+      <c r="L84" t="s">
+        <v>709</v>
+      </c>
+      <c r="M84" t="n">
+        <v>5</v>
+      </c>
+      <c r="N84" t="s"/>
+      <c r="O84" t="s"/>
+      <c r="P84" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q84" t="n">
+        <v>5</v>
+      </c>
+      <c r="R84" t="s"/>
+      <c r="S84" t="n">
+        <v>5</v>
+      </c>
+      <c r="T84" t="s"/>
+      <c r="U84" t="n">
+        <v>5</v>
+      </c>
+      <c r="V84" t="n">
+        <v>0</v>
+      </c>
+      <c r="W84" t="s"/>
+      <c r="X84" t="s"/>
+      <c r="Y84" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>38426</v>
+      </c>
+      <c r="B85" t="s"/>
+      <c r="C85" t="s"/>
+      <c r="D85" t="n">
+        <v>84</v>
+      </c>
+      <c r="E85" t="s">
+        <v>43</v>
+      </c>
+      <c r="F85" t="s">
+        <v>711</v>
+      </c>
+      <c r="G85" t="s">
+        <v>45</v>
+      </c>
+      <c r="H85" t="s">
+        <v>46</v>
+      </c>
+      <c r="I85" t="s">
+        <v>712</v>
+      </c>
+      <c r="J85" t="s">
+        <v>713</v>
+      </c>
+      <c r="K85" t="s">
+        <v>714</v>
+      </c>
+      <c r="L85" t="s">
+        <v>715</v>
+      </c>
+      <c r="M85" t="n">
+        <v>4</v>
+      </c>
+      <c r="N85" t="s"/>
+      <c r="O85" t="s"/>
+      <c r="P85" t="s"/>
+      <c r="Q85" t="s"/>
+      <c r="R85" t="s"/>
+      <c r="S85" t="s"/>
+      <c r="T85" t="s"/>
+      <c r="U85" t="s"/>
+      <c r="V85" t="n">
+        <v>0</v>
+      </c>
+      <c r="W85" t="s"/>
+      <c r="X85" t="s"/>
+      <c r="Y85" t="s">
+        <v>715</v>
       </c>
     </row>
   </sheetData>
